--- a/BackTest/2020-01-14 BackTest XLM.xlsx
+++ b/BackTest/2020-01-14 BackTest XLM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M263"/>
+  <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,16 +439,16 @@
         <v>54.94</v>
       </c>
       <c r="D2" t="n">
-        <v>54.94</v>
+        <v>54.97</v>
       </c>
       <c r="E2" t="n">
         <v>54.94</v>
       </c>
       <c r="F2" t="n">
-        <v>1298.1018</v>
+        <v>6196.7355</v>
       </c>
       <c r="G2" t="n">
-        <v>55.04249999999999</v>
+        <v>55.04616666666665</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>54.87</v>
+        <v>54.94</v>
       </c>
       <c r="C3" t="n">
-        <v>54.87</v>
+        <v>54.94</v>
       </c>
       <c r="D3" t="n">
-        <v>54.87</v>
+        <v>54.94</v>
       </c>
       <c r="E3" t="n">
-        <v>54.87</v>
+        <v>54.94</v>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>1298.1018</v>
       </c>
       <c r="G3" t="n">
-        <v>55.03883333333332</v>
+        <v>55.04249999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>54.87</v>
       </c>
       <c r="F4" t="n">
-        <v>1338.422</v>
+        <v>300</v>
       </c>
       <c r="G4" t="n">
-        <v>55.03183333333332</v>
+        <v>55.03883333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54.79</v>
+        <v>54.87</v>
       </c>
       <c r="C5" t="n">
-        <v>54.79</v>
+        <v>54.87</v>
       </c>
       <c r="D5" t="n">
-        <v>54.79</v>
+        <v>54.87</v>
       </c>
       <c r="E5" t="n">
-        <v>54.79</v>
+        <v>54.87</v>
       </c>
       <c r="F5" t="n">
-        <v>300</v>
+        <v>1338.422</v>
       </c>
       <c r="G5" t="n">
-        <v>55.02349999999998</v>
+        <v>55.03183333333332</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54.85</v>
+        <v>54.79</v>
       </c>
       <c r="C6" t="n">
-        <v>54.87</v>
+        <v>54.79</v>
       </c>
       <c r="D6" t="n">
-        <v>54.87</v>
+        <v>54.79</v>
       </c>
       <c r="E6" t="n">
-        <v>54.85</v>
+        <v>54.79</v>
       </c>
       <c r="F6" t="n">
-        <v>1561</v>
+        <v>300</v>
       </c>
       <c r="G6" t="n">
-        <v>55.01749999999998</v>
+        <v>55.02349999999998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>54.79</v>
+        <v>54.85</v>
       </c>
       <c r="C7" t="n">
-        <v>54.79</v>
+        <v>54.87</v>
       </c>
       <c r="D7" t="n">
-        <v>54.79</v>
+        <v>54.87</v>
       </c>
       <c r="E7" t="n">
-        <v>54.79</v>
+        <v>54.85</v>
       </c>
       <c r="F7" t="n">
-        <v>1359.0751</v>
+        <v>1561</v>
       </c>
       <c r="G7" t="n">
-        <v>55.01199999999998</v>
+        <v>55.01749999999998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>54.9</v>
+        <v>54.79</v>
       </c>
       <c r="C8" t="n">
-        <v>54.77</v>
+        <v>54.79</v>
       </c>
       <c r="D8" t="n">
-        <v>54.9</v>
+        <v>54.79</v>
       </c>
       <c r="E8" t="n">
-        <v>54.77</v>
+        <v>54.79</v>
       </c>
       <c r="F8" t="n">
-        <v>1214.4417</v>
+        <v>1359.0751</v>
       </c>
       <c r="G8" t="n">
-        <v>55.00333333333332</v>
+        <v>55.01199999999998</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>54.76</v>
+        <v>54.9</v>
       </c>
       <c r="C9" t="n">
-        <v>54.76</v>
+        <v>54.77</v>
       </c>
       <c r="D9" t="n">
-        <v>54.76</v>
+        <v>54.9</v>
       </c>
       <c r="E9" t="n">
-        <v>54.76</v>
+        <v>54.77</v>
       </c>
       <c r="F9" t="n">
-        <v>503</v>
+        <v>1214.4417</v>
       </c>
       <c r="G9" t="n">
-        <v>54.99783333333332</v>
+        <v>55.00333333333332</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>54.77</v>
+        <v>54.76</v>
       </c>
       <c r="C10" t="n">
-        <v>54.9</v>
+        <v>54.76</v>
       </c>
       <c r="D10" t="n">
-        <v>54.9</v>
+        <v>54.76</v>
       </c>
       <c r="E10" t="n">
-        <v>54.77</v>
+        <v>54.76</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>503</v>
       </c>
       <c r="G10" t="n">
-        <v>54.99299999999998</v>
+        <v>54.99783333333332</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>54.76</v>
+        <v>54.77</v>
       </c>
       <c r="C11" t="n">
-        <v>54.76</v>
+        <v>54.9</v>
       </c>
       <c r="D11" t="n">
-        <v>54.76</v>
+        <v>54.9</v>
       </c>
       <c r="E11" t="n">
-        <v>54.76</v>
+        <v>54.77</v>
       </c>
       <c r="F11" t="n">
-        <v>950</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>54.98866666666665</v>
+        <v>54.99299999999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>54.9</v>
+        <v>54.76</v>
       </c>
       <c r="C12" t="n">
-        <v>55</v>
+        <v>54.76</v>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>54.76</v>
       </c>
       <c r="E12" t="n">
-        <v>54.9</v>
+        <v>54.76</v>
       </c>
       <c r="F12" t="n">
-        <v>14546.53421181</v>
+        <v>950</v>
       </c>
       <c r="G12" t="n">
-        <v>54.98383333333332</v>
+        <v>54.98866666666665</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>54.95</v>
+        <v>54.9</v>
       </c>
       <c r="C13" t="n">
-        <v>54.77</v>
+        <v>55</v>
       </c>
       <c r="D13" t="n">
         <v>55</v>
       </c>
       <c r="E13" t="n">
-        <v>54.77</v>
+        <v>54.9</v>
       </c>
       <c r="F13" t="n">
-        <v>205434.8891</v>
+        <v>14546.53421181</v>
       </c>
       <c r="G13" t="n">
-        <v>54.97666666666666</v>
+        <v>54.98383333333332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>54.97</v>
+        <v>54.95</v>
       </c>
       <c r="C14" t="n">
-        <v>54.97</v>
+        <v>54.77</v>
       </c>
       <c r="D14" t="n">
-        <v>54.97</v>
+        <v>55</v>
       </c>
       <c r="E14" t="n">
-        <v>54.97</v>
+        <v>54.77</v>
       </c>
       <c r="F14" t="n">
-        <v>517.266</v>
+        <v>205434.8891</v>
       </c>
       <c r="G14" t="n">
-        <v>54.97583333333332</v>
+        <v>54.97666666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>54.97</v>
       </c>
       <c r="C15" t="n">
-        <v>55</v>
+        <v>54.97</v>
       </c>
       <c r="D15" t="n">
-        <v>55</v>
+        <v>54.97</v>
       </c>
       <c r="E15" t="n">
         <v>54.97</v>
       </c>
       <c r="F15" t="n">
-        <v>17975.7363</v>
+        <v>517.266</v>
       </c>
       <c r="G15" t="n">
-        <v>54.97616666666666</v>
+        <v>54.97583333333332</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>55</v>
+        <v>54.97</v>
       </c>
       <c r="C16" t="n">
         <v>55</v>
@@ -932,13 +932,13 @@
         <v>55</v>
       </c>
       <c r="E16" t="n">
-        <v>55</v>
+        <v>54.97</v>
       </c>
       <c r="F16" t="n">
-        <v>2166.4255</v>
+        <v>17975.7363</v>
       </c>
       <c r="G16" t="n">
-        <v>54.97533333333332</v>
+        <v>54.97616666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>55</v>
       </c>
       <c r="F17" t="n">
-        <v>6556.9761</v>
+        <v>2166.4255</v>
       </c>
       <c r="G17" t="n">
-        <v>54.97466666666665</v>
+        <v>54.97533333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>55</v>
       </c>
       <c r="F18" t="n">
-        <v>7372.8441</v>
+        <v>6556.9761</v>
       </c>
       <c r="G18" t="n">
-        <v>54.97683333333332</v>
+        <v>54.97466666666665</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>55</v>
       </c>
       <c r="F19" t="n">
-        <v>2623.6729</v>
+        <v>7372.8441</v>
       </c>
       <c r="G19" t="n">
-        <v>54.97766666666666</v>
+        <v>54.97683333333332</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>55</v>
       </c>
       <c r="F20" t="n">
-        <v>49033.9754</v>
+        <v>2623.6729</v>
       </c>
       <c r="G20" t="n">
-        <v>54.97849999999999</v>
+        <v>54.97766666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>55</v>
       </c>
       <c r="F21" t="n">
-        <v>2100</v>
+        <v>49033.9754</v>
       </c>
       <c r="G21" t="n">
-        <v>54.97766666666666</v>
+        <v>54.97849999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>55</v>
       </c>
       <c r="F22" t="n">
-        <v>11422.0892</v>
+        <v>2100</v>
       </c>
       <c r="G22" t="n">
-        <v>54.97849999999999</v>
+        <v>54.97766666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>55</v>
       </c>
       <c r="F23" t="n">
-        <v>678.3747</v>
+        <v>11422.0892</v>
       </c>
       <c r="G23" t="n">
-        <v>54.97933333333333</v>
+        <v>54.97849999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>55</v>
       </c>
       <c r="F24" t="n">
-        <v>11809.2521</v>
+        <v>678.3747</v>
       </c>
       <c r="G24" t="n">
-        <v>54.98016666666667</v>
+        <v>54.97933333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>55</v>
       </c>
       <c r="F25" t="n">
-        <v>4304.081</v>
+        <v>11809.2521</v>
       </c>
       <c r="G25" t="n">
-        <v>54.97933333333333</v>
+        <v>54.98016666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>55</v>
       </c>
       <c r="F26" t="n">
-        <v>40325.4511</v>
+        <v>4304.081</v>
       </c>
       <c r="G26" t="n">
-        <v>54.98116666666667</v>
+        <v>54.97933333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>55</v>
       </c>
       <c r="F27" t="n">
-        <v>200000</v>
+        <v>40325.4511</v>
       </c>
       <c r="G27" t="n">
-        <v>54.983</v>
+        <v>54.98116666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>55</v>
       </c>
       <c r="F28" t="n">
-        <v>9515.771699999999</v>
+        <v>200000</v>
       </c>
       <c r="G28" t="n">
-        <v>54.98483333333333</v>
+        <v>54.983</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>55</v>
       </c>
       <c r="F29" t="n">
-        <v>300.51</v>
+        <v>9515.771699999999</v>
       </c>
       <c r="G29" t="n">
-        <v>54.98583333333333</v>
+        <v>54.98483333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>55</v>
       </c>
       <c r="F30" t="n">
-        <v>18.1819</v>
+        <v>300.51</v>
       </c>
       <c r="G30" t="n">
-        <v>54.98666666666667</v>
+        <v>54.98583333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>54.99</v>
+        <v>55</v>
       </c>
       <c r="C31" t="n">
-        <v>54.99</v>
+        <v>55</v>
       </c>
       <c r="D31" t="n">
-        <v>54.99</v>
+        <v>55</v>
       </c>
       <c r="E31" t="n">
-        <v>54.99</v>
+        <v>55</v>
       </c>
       <c r="F31" t="n">
-        <v>306</v>
+        <v>18.1819</v>
       </c>
       <c r="G31" t="n">
-        <v>54.98566666666667</v>
+        <v>54.98666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>54.85</v>
+        <v>54.99</v>
       </c>
       <c r="C32" t="n">
-        <v>54.8</v>
+        <v>54.99</v>
       </c>
       <c r="D32" t="n">
-        <v>54.85</v>
+        <v>54.99</v>
       </c>
       <c r="E32" t="n">
-        <v>54.8</v>
+        <v>54.99</v>
       </c>
       <c r="F32" t="n">
-        <v>4319.2249</v>
+        <v>306</v>
       </c>
       <c r="G32" t="n">
-        <v>54.9815</v>
+        <v>54.98566666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>54.82</v>
+        <v>54.85</v>
       </c>
       <c r="C33" t="n">
-        <v>54.91</v>
+        <v>54.8</v>
       </c>
       <c r="D33" t="n">
-        <v>55</v>
+        <v>54.85</v>
       </c>
       <c r="E33" t="n">
-        <v>54.82</v>
+        <v>54.8</v>
       </c>
       <c r="F33" t="n">
-        <v>10578.81863636</v>
+        <v>4319.2249</v>
       </c>
       <c r="G33" t="n">
-        <v>54.97916666666666</v>
+        <v>54.9815</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>54.82</v>
       </c>
       <c r="C34" t="n">
-        <v>54.82</v>
+        <v>54.91</v>
       </c>
       <c r="D34" t="n">
-        <v>54.82</v>
+        <v>55</v>
       </c>
       <c r="E34" t="n">
         <v>54.82</v>
       </c>
       <c r="F34" t="n">
-        <v>372.2156</v>
+        <v>10578.81863636</v>
       </c>
       <c r="G34" t="n">
-        <v>54.97533333333332</v>
+        <v>54.97916666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>54.91</v>
+        <v>54.82</v>
       </c>
       <c r="C35" t="n">
-        <v>54.91</v>
+        <v>54.82</v>
       </c>
       <c r="D35" t="n">
-        <v>54.91</v>
+        <v>54.82</v>
       </c>
       <c r="E35" t="n">
-        <v>54.91</v>
+        <v>54.82</v>
       </c>
       <c r="F35" t="n">
-        <v>13654.3963</v>
+        <v>372.2156</v>
       </c>
       <c r="G35" t="n">
-        <v>54.97299999999998</v>
+        <v>54.97533333333332</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>54.91</v>
       </c>
       <c r="C36" t="n">
-        <v>55</v>
+        <v>54.91</v>
       </c>
       <c r="D36" t="n">
-        <v>55</v>
+        <v>54.91</v>
       </c>
       <c r="E36" t="n">
         <v>54.91</v>
       </c>
       <c r="F36" t="n">
-        <v>18098.7659</v>
+        <v>13654.3963</v>
       </c>
       <c r="G36" t="n">
-        <v>54.97183333333331</v>
+        <v>54.97299999999998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>55</v>
+        <v>54.91</v>
       </c>
       <c r="C37" t="n">
         <v>55</v>
@@ -1667,13 +1667,13 @@
         <v>55</v>
       </c>
       <c r="E37" t="n">
-        <v>55</v>
+        <v>54.91</v>
       </c>
       <c r="F37" t="n">
-        <v>50773.31576364</v>
+        <v>18098.7659</v>
       </c>
       <c r="G37" t="n">
-        <v>54.97016666666665</v>
+        <v>54.97183333333331</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>55</v>
       </c>
       <c r="F38" t="n">
-        <v>827.7438</v>
+        <v>50773.31576364</v>
       </c>
       <c r="G38" t="n">
-        <v>54.96849999999998</v>
+        <v>54.97016666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>55</v>
       </c>
       <c r="C39" t="n">
-        <v>55.01</v>
+        <v>55</v>
       </c>
       <c r="D39" t="n">
-        <v>55.01</v>
+        <v>55</v>
       </c>
       <c r="E39" t="n">
         <v>55</v>
       </c>
       <c r="F39" t="n">
-        <v>36235.169</v>
+        <v>827.7438</v>
       </c>
       <c r="G39" t="n">
-        <v>54.96699999999999</v>
+        <v>54.96849999999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,10 +1763,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>55</v>
+      </c>
+      <c r="C40" t="n">
         <v>55.01</v>
-      </c>
-      <c r="C40" t="n">
-        <v>55</v>
       </c>
       <c r="D40" t="n">
         <v>55.01</v>
@@ -1775,10 +1775,10 @@
         <v>55</v>
       </c>
       <c r="F40" t="n">
-        <v>79087.00440000001</v>
+        <v>36235.169</v>
       </c>
       <c r="G40" t="n">
-        <v>54.96516666666665</v>
+        <v>54.96699999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>54.8</v>
+        <v>55.01</v>
       </c>
       <c r="C41" t="n">
-        <v>54.8</v>
+        <v>55</v>
       </c>
       <c r="D41" t="n">
-        <v>54.8</v>
+        <v>55.01</v>
       </c>
       <c r="E41" t="n">
-        <v>54.8</v>
+        <v>55</v>
       </c>
       <c r="F41" t="n">
-        <v>21658</v>
+        <v>79087.00440000001</v>
       </c>
       <c r="G41" t="n">
-        <v>54.95999999999999</v>
+        <v>54.96516666666665</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>55.02</v>
+        <v>54.8</v>
       </c>
       <c r="C42" t="n">
-        <v>55.02</v>
+        <v>54.8</v>
       </c>
       <c r="D42" t="n">
-        <v>55.02</v>
+        <v>54.8</v>
       </c>
       <c r="E42" t="n">
-        <v>55.02</v>
+        <v>54.8</v>
       </c>
       <c r="F42" t="n">
-        <v>1000</v>
+        <v>21658</v>
       </c>
       <c r="G42" t="n">
-        <v>54.95749999999999</v>
+        <v>54.95999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>55.02</v>
       </c>
       <c r="C43" t="n">
-        <v>55.01</v>
+        <v>55.02</v>
       </c>
       <c r="D43" t="n">
         <v>55.02</v>
       </c>
       <c r="E43" t="n">
-        <v>55.01</v>
+        <v>55.02</v>
       </c>
       <c r="F43" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="G43" t="n">
-        <v>54.95583333333332</v>
+        <v>54.95749999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>54.9</v>
+        <v>55.02</v>
       </c>
       <c r="C44" t="n">
         <v>55.01</v>
       </c>
       <c r="D44" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="E44" t="n">
         <v>55.01</v>
       </c>
-      <c r="E44" t="n">
-        <v>54.9</v>
-      </c>
       <c r="F44" t="n">
-        <v>51214</v>
+        <v>280</v>
       </c>
       <c r="G44" t="n">
-        <v>54.95433333333333</v>
+        <v>54.95583333333332</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>54.9</v>
       </c>
       <c r="C45" t="n">
-        <v>54.9</v>
+        <v>55.01</v>
       </c>
       <c r="D45" t="n">
-        <v>54.9</v>
+        <v>55.01</v>
       </c>
       <c r="E45" t="n">
         <v>54.9</v>
       </c>
       <c r="F45" t="n">
-        <v>2914.3898</v>
+        <v>51214</v>
       </c>
       <c r="G45" t="n">
-        <v>54.951</v>
+        <v>54.95433333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>55.04</v>
+        <v>54.9</v>
       </c>
       <c r="C46" t="n">
-        <v>55.04</v>
+        <v>54.9</v>
       </c>
       <c r="D46" t="n">
-        <v>55.04</v>
+        <v>54.9</v>
       </c>
       <c r="E46" t="n">
-        <v>55.04</v>
+        <v>54.9</v>
       </c>
       <c r="F46" t="n">
-        <v>19269</v>
+        <v>2914.3898</v>
       </c>
       <c r="G46" t="n">
-        <v>54.95083333333333</v>
+        <v>54.951</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>55.01</v>
+        <v>55.04</v>
       </c>
       <c r="C47" t="n">
-        <v>55.01</v>
+        <v>55.04</v>
       </c>
       <c r="D47" t="n">
-        <v>55.01</v>
+        <v>55.04</v>
       </c>
       <c r="E47" t="n">
-        <v>55.01</v>
+        <v>55.04</v>
       </c>
       <c r="F47" t="n">
-        <v>120</v>
+        <v>19269</v>
       </c>
       <c r="G47" t="n">
-        <v>54.95016666666666</v>
+        <v>54.95083333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>55</v>
+        <v>55.01</v>
       </c>
       <c r="C48" t="n">
-        <v>55</v>
+        <v>55.01</v>
       </c>
       <c r="D48" t="n">
-        <v>55</v>
+        <v>55.01</v>
       </c>
       <c r="E48" t="n">
-        <v>55</v>
+        <v>55.01</v>
       </c>
       <c r="F48" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G48" t="n">
-        <v>54.9485</v>
+        <v>54.95016666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>54.93</v>
+        <v>55</v>
       </c>
       <c r="C49" t="n">
-        <v>54.93</v>
+        <v>55</v>
       </c>
       <c r="D49" t="n">
-        <v>54.93</v>
+        <v>55</v>
       </c>
       <c r="E49" t="n">
-        <v>54.93</v>
+        <v>55</v>
       </c>
       <c r="F49" t="n">
-        <v>3973.3714</v>
+        <v>90</v>
       </c>
       <c r="G49" t="n">
-        <v>54.94466666666666</v>
+        <v>54.9485</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>55.04</v>
+        <v>54.93</v>
       </c>
       <c r="C50" t="n">
-        <v>54.92</v>
+        <v>54.93</v>
       </c>
       <c r="D50" t="n">
-        <v>55.05</v>
+        <v>54.93</v>
       </c>
       <c r="E50" t="n">
-        <v>54.92</v>
+        <v>54.93</v>
       </c>
       <c r="F50" t="n">
-        <v>53023.6436</v>
+        <v>3973.3714</v>
       </c>
       <c r="G50" t="n">
-        <v>54.943</v>
+        <v>54.94466666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>55.02</v>
+        <v>55.04</v>
       </c>
       <c r="C51" t="n">
-        <v>55.12</v>
+        <v>54.92</v>
       </c>
       <c r="D51" t="n">
-        <v>55.12</v>
+        <v>55.05</v>
       </c>
       <c r="E51" t="n">
-        <v>55.02</v>
+        <v>54.92</v>
       </c>
       <c r="F51" t="n">
-        <v>36753.0723</v>
+        <v>53023.6436</v>
       </c>
       <c r="G51" t="n">
-        <v>54.94516666666667</v>
+        <v>54.943</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>55.15</v>
+        <v>55.02</v>
       </c>
       <c r="C52" t="n">
-        <v>54.92</v>
+        <v>55.12</v>
       </c>
       <c r="D52" t="n">
-        <v>55.15</v>
+        <v>55.12</v>
       </c>
       <c r="E52" t="n">
-        <v>54.92</v>
+        <v>55.02</v>
       </c>
       <c r="F52" t="n">
-        <v>14300</v>
+        <v>36753.0723</v>
       </c>
       <c r="G52" t="n">
-        <v>54.9445</v>
+        <v>54.94516666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>55.05</v>
+        <v>55.15</v>
       </c>
       <c r="C53" t="n">
-        <v>55.05</v>
+        <v>54.92</v>
       </c>
       <c r="D53" t="n">
-        <v>55.05</v>
+        <v>55.15</v>
       </c>
       <c r="E53" t="n">
-        <v>55.05</v>
+        <v>54.92</v>
       </c>
       <c r="F53" t="n">
-        <v>60</v>
+        <v>14300</v>
       </c>
       <c r="G53" t="n">
-        <v>54.94550000000001</v>
+        <v>54.9445</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>55.14</v>
+        <v>55.05</v>
       </c>
       <c r="C54" t="n">
-        <v>55.14</v>
+        <v>55.05</v>
       </c>
       <c r="D54" t="n">
-        <v>55.14</v>
+        <v>55.05</v>
       </c>
       <c r="E54" t="n">
-        <v>55.14</v>
+        <v>55.05</v>
       </c>
       <c r="F54" t="n">
-        <v>181.35654697</v>
+        <v>60</v>
       </c>
       <c r="G54" t="n">
-        <v>54.9485</v>
+        <v>54.94550000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>55.12</v>
+        <v>55.14</v>
       </c>
       <c r="C55" t="n">
-        <v>54.91</v>
+        <v>55.14</v>
       </c>
       <c r="D55" t="n">
-        <v>55.12</v>
+        <v>55.14</v>
       </c>
       <c r="E55" t="n">
-        <v>54.91</v>
+        <v>55.14</v>
       </c>
       <c r="F55" t="n">
-        <v>9636.1122</v>
+        <v>181.35654697</v>
       </c>
       <c r="G55" t="n">
-        <v>54.947</v>
+        <v>54.9485</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>54.9</v>
+        <v>55.12</v>
       </c>
       <c r="C56" t="n">
-        <v>54.89</v>
+        <v>54.91</v>
       </c>
       <c r="D56" t="n">
-        <v>54.9</v>
+        <v>55.12</v>
       </c>
       <c r="E56" t="n">
-        <v>54.89</v>
+        <v>54.91</v>
       </c>
       <c r="F56" t="n">
-        <v>1423</v>
+        <v>9636.1122</v>
       </c>
       <c r="G56" t="n">
         <v>54.947</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>54.81</v>
+        <v>54.9</v>
       </c>
       <c r="C57" t="n">
-        <v>54.53</v>
+        <v>54.89</v>
       </c>
       <c r="D57" t="n">
-        <v>54.81</v>
+        <v>54.9</v>
       </c>
       <c r="E57" t="n">
-        <v>54.53</v>
+        <v>54.89</v>
       </c>
       <c r="F57" t="n">
-        <v>165876.8611</v>
+        <v>1423</v>
       </c>
       <c r="G57" t="n">
-        <v>54.94100000000001</v>
+        <v>54.947</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>54.7</v>
+        <v>54.81</v>
       </c>
       <c r="C58" t="n">
-        <v>54.7</v>
+        <v>54.53</v>
       </c>
       <c r="D58" t="n">
-        <v>54.7</v>
+        <v>54.81</v>
       </c>
       <c r="E58" t="n">
-        <v>54.7</v>
+        <v>54.53</v>
       </c>
       <c r="F58" t="n">
-        <v>561</v>
+        <v>165876.8611</v>
       </c>
       <c r="G58" t="n">
-        <v>54.937</v>
+        <v>54.94100000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>54.7</v>
       </c>
       <c r="F59" t="n">
-        <v>4650000</v>
+        <v>561</v>
       </c>
       <c r="G59" t="n">
-        <v>54.933</v>
+        <v>54.937</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>54.7</v>
       </c>
       <c r="C60" t="n">
-        <v>54.44</v>
+        <v>54.7</v>
       </c>
       <c r="D60" t="n">
         <v>54.7</v>
       </c>
       <c r="E60" t="n">
-        <v>54.44</v>
+        <v>54.7</v>
       </c>
       <c r="F60" t="n">
-        <v>322852551.6384</v>
+        <v>4650000</v>
       </c>
       <c r="G60" t="n">
-        <v>54.92466666666667</v>
+        <v>54.933</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
       <c r="C61" t="n">
         <v>54.44</v>
@@ -2510,10 +2510,10 @@
         <v>54.44</v>
       </c>
       <c r="F61" t="n">
-        <v>769729.7591</v>
+        <v>322852551.6384</v>
       </c>
       <c r="G61" t="n">
-        <v>54.91633333333333</v>
+        <v>54.92466666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C62" t="n">
         <v>54.44</v>
       </c>
-      <c r="C62" t="n">
-        <v>54.42</v>
-      </c>
       <c r="D62" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="E62" t="n">
         <v>54.44</v>
       </c>
-      <c r="E62" t="n">
-        <v>54.42</v>
-      </c>
       <c r="F62" t="n">
-        <v>90223.22470000001</v>
+        <v>769729.7591</v>
       </c>
       <c r="G62" t="n">
-        <v>54.90766666666666</v>
+        <v>54.91633333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>54.6</v>
+        <v>54.44</v>
       </c>
       <c r="C63" t="n">
-        <v>54.51</v>
+        <v>54.42</v>
       </c>
       <c r="D63" t="n">
-        <v>54.7</v>
+        <v>54.44</v>
       </c>
       <c r="E63" t="n">
-        <v>54.4</v>
+        <v>54.42</v>
       </c>
       <c r="F63" t="n">
-        <v>122367.481</v>
+        <v>90223.22470000001</v>
       </c>
       <c r="G63" t="n">
-        <v>54.90166666666667</v>
+        <v>54.90766666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>54.4</v>
+        <v>54.6</v>
       </c>
       <c r="C64" t="n">
-        <v>54.4</v>
+        <v>54.51</v>
       </c>
       <c r="D64" t="n">
-        <v>54.4</v>
+        <v>54.7</v>
       </c>
       <c r="E64" t="n">
         <v>54.4</v>
       </c>
       <c r="F64" t="n">
-        <v>38172.6557</v>
+        <v>122367.481</v>
       </c>
       <c r="G64" t="n">
-        <v>54.89383333333334</v>
+        <v>54.90166666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,19 +2641,19 @@
         <v>54.4</v>
       </c>
       <c r="C65" t="n">
-        <v>54.24</v>
+        <v>54.4</v>
       </c>
       <c r="D65" t="n">
-        <v>54.7</v>
+        <v>54.4</v>
       </c>
       <c r="E65" t="n">
-        <v>54.24</v>
+        <v>54.4</v>
       </c>
       <c r="F65" t="n">
-        <v>211827.3443</v>
+        <v>38172.6557</v>
       </c>
       <c r="G65" t="n">
-        <v>54.88466666666667</v>
+        <v>54.89383333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>54.49</v>
+        <v>54.4</v>
       </c>
       <c r="C66" t="n">
-        <v>54.68</v>
+        <v>54.24</v>
       </c>
       <c r="D66" t="n">
-        <v>54.68</v>
+        <v>54.7</v>
       </c>
       <c r="E66" t="n">
-        <v>54.39</v>
+        <v>54.24</v>
       </c>
       <c r="F66" t="n">
-        <v>119737.501</v>
+        <v>211827.3443</v>
       </c>
       <c r="G66" t="n">
-        <v>54.8815</v>
+        <v>54.88466666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>54.69</v>
+        <v>54.49</v>
       </c>
       <c r="C67" t="n">
-        <v>54.88</v>
+        <v>54.68</v>
       </c>
       <c r="D67" t="n">
-        <v>54.88</v>
+        <v>54.68</v>
       </c>
       <c r="E67" t="n">
-        <v>54.69</v>
+        <v>54.39</v>
       </c>
       <c r="F67" t="n">
-        <v>82882.48488325</v>
+        <v>119737.501</v>
       </c>
       <c r="G67" t="n">
-        <v>54.88300000000001</v>
+        <v>54.8815</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>54.7</v>
+        <v>54.69</v>
       </c>
       <c r="C68" t="n">
-        <v>54.7</v>
+        <v>54.88</v>
       </c>
       <c r="D68" t="n">
-        <v>54.7</v>
+        <v>54.88</v>
       </c>
       <c r="E68" t="n">
-        <v>54.7</v>
+        <v>54.69</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>82882.48488325</v>
       </c>
       <c r="G68" t="n">
-        <v>54.88183333333334</v>
+        <v>54.88300000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
       <c r="C69" t="n">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
       <c r="D69" t="n">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
       <c r="E69" t="n">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
       <c r="F69" t="n">
-        <v>790</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>54.87916666666667</v>
+        <v>54.88183333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>54.57</v>
+        <v>54.6</v>
       </c>
       <c r="C70" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="D70" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="E70" t="n">
-        <v>54.57</v>
+        <v>54.6</v>
       </c>
       <c r="F70" t="n">
-        <v>83140.1231</v>
+        <v>790</v>
       </c>
       <c r="G70" t="n">
-        <v>54.87583333333333</v>
+        <v>54.87916666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>54.57</v>
+      </c>
+      <c r="C71" t="n">
         <v>54.7</v>
-      </c>
-      <c r="C71" t="n">
-        <v>54.59</v>
       </c>
       <c r="D71" t="n">
         <v>54.7</v>
       </c>
       <c r="E71" t="n">
-        <v>54.59</v>
+        <v>54.57</v>
       </c>
       <c r="F71" t="n">
-        <v>2510.982</v>
+        <v>83140.1231</v>
       </c>
       <c r="G71" t="n">
-        <v>54.873</v>
+        <v>54.87583333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2886,19 @@
         <v>54.7</v>
       </c>
       <c r="C72" t="n">
-        <v>54.7</v>
+        <v>54.59</v>
       </c>
       <c r="D72" t="n">
         <v>54.7</v>
       </c>
       <c r="E72" t="n">
-        <v>54.7</v>
+        <v>54.59</v>
       </c>
       <c r="F72" t="n">
-        <v>81.24314441999999</v>
+        <v>2510.982</v>
       </c>
       <c r="G72" t="n">
-        <v>54.86799999999999</v>
+        <v>54.873</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>54.67</v>
+        <v>54.7</v>
       </c>
       <c r="C73" t="n">
-        <v>54.67</v>
+        <v>54.7</v>
       </c>
       <c r="D73" t="n">
-        <v>54.67</v>
+        <v>54.7</v>
       </c>
       <c r="E73" t="n">
-        <v>54.67</v>
+        <v>54.7</v>
       </c>
       <c r="F73" t="n">
-        <v>954.5236</v>
+        <v>81.24314441999999</v>
       </c>
       <c r="G73" t="n">
-        <v>54.86633333333332</v>
+        <v>54.86799999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>54.67</v>
       </c>
       <c r="F74" t="n">
-        <v>10252.9459</v>
+        <v>954.5236</v>
       </c>
       <c r="G74" t="n">
-        <v>54.86133333333333</v>
+        <v>54.86633333333332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>54.68</v>
+        <v>54.67</v>
       </c>
       <c r="C75" t="n">
         <v>54.67</v>
       </c>
       <c r="D75" t="n">
-        <v>54.68</v>
+        <v>54.67</v>
       </c>
       <c r="E75" t="n">
         <v>54.67</v>
       </c>
       <c r="F75" t="n">
-        <v>714</v>
+        <v>10252.9459</v>
       </c>
       <c r="G75" t="n">
-        <v>54.85583333333333</v>
+        <v>54.86133333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>54.67</v>
+        <v>54.68</v>
       </c>
       <c r="C76" t="n">
         <v>54.67</v>
       </c>
       <c r="D76" t="n">
-        <v>54.67</v>
+        <v>54.68</v>
       </c>
       <c r="E76" t="n">
         <v>54.67</v>
       </c>
       <c r="F76" t="n">
-        <v>5583.2577</v>
+        <v>714</v>
       </c>
       <c r="G76" t="n">
-        <v>54.85033333333333</v>
+        <v>54.85583333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>54.69</v>
+        <v>54.67</v>
       </c>
       <c r="C77" t="n">
-        <v>54.69</v>
+        <v>54.67</v>
       </c>
       <c r="D77" t="n">
-        <v>54.69</v>
+        <v>54.67</v>
       </c>
       <c r="E77" t="n">
-        <v>54.69</v>
+        <v>54.67</v>
       </c>
       <c r="F77" t="n">
-        <v>532</v>
+        <v>5583.2577</v>
       </c>
       <c r="G77" t="n">
-        <v>54.84516666666666</v>
+        <v>54.85033333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>54.64</v>
+        <v>54.69</v>
       </c>
       <c r="C78" t="n">
-        <v>54.64</v>
+        <v>54.69</v>
       </c>
       <c r="D78" t="n">
-        <v>54.64</v>
+        <v>54.69</v>
       </c>
       <c r="E78" t="n">
-        <v>54.64</v>
+        <v>54.69</v>
       </c>
       <c r="F78" t="n">
-        <v>189.924</v>
+        <v>532</v>
       </c>
       <c r="G78" t="n">
-        <v>54.83916666666666</v>
+        <v>54.84516666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>54.64</v>
       </c>
       <c r="C79" t="n">
-        <v>54.57</v>
+        <v>54.64</v>
       </c>
       <c r="D79" t="n">
         <v>54.64</v>
       </c>
       <c r="E79" t="n">
-        <v>54.57</v>
+        <v>54.64</v>
       </c>
       <c r="F79" t="n">
-        <v>9654.7202</v>
+        <v>189.924</v>
       </c>
       <c r="G79" t="n">
-        <v>54.832</v>
+        <v>54.83916666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>54.49</v>
+        <v>54.64</v>
       </c>
       <c r="C80" t="n">
-        <v>54.48</v>
+        <v>54.57</v>
       </c>
       <c r="D80" t="n">
-        <v>54.49</v>
+        <v>54.64</v>
       </c>
       <c r="E80" t="n">
-        <v>54.48</v>
+        <v>54.57</v>
       </c>
       <c r="F80" t="n">
-        <v>47975.7228</v>
+        <v>9654.7202</v>
       </c>
       <c r="G80" t="n">
-        <v>54.82333333333334</v>
+        <v>54.832</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>54.48</v>
+        <v>54.49</v>
       </c>
       <c r="C81" t="n">
         <v>54.48</v>
       </c>
       <c r="D81" t="n">
-        <v>54.48</v>
+        <v>54.49</v>
       </c>
       <c r="E81" t="n">
         <v>54.48</v>
       </c>
       <c r="F81" t="n">
-        <v>12678.943</v>
+        <v>47975.7228</v>
       </c>
       <c r="G81" t="n">
-        <v>54.81466666666667</v>
+        <v>54.82333333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>54.45</v>
+        <v>54.48</v>
       </c>
       <c r="C82" t="n">
-        <v>54.45</v>
+        <v>54.48</v>
       </c>
       <c r="D82" t="n">
-        <v>54.45</v>
+        <v>54.48</v>
       </c>
       <c r="E82" t="n">
-        <v>54.45</v>
+        <v>54.48</v>
       </c>
       <c r="F82" t="n">
-        <v>30968.517</v>
+        <v>12678.943</v>
       </c>
       <c r="G82" t="n">
-        <v>54.8055</v>
+        <v>54.81466666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>54.4</v>
+        <v>54.45</v>
       </c>
       <c r="C83" t="n">
-        <v>54.4</v>
+        <v>54.45</v>
       </c>
       <c r="D83" t="n">
-        <v>54.4</v>
+        <v>54.45</v>
       </c>
       <c r="E83" t="n">
-        <v>54.4</v>
+        <v>54.45</v>
       </c>
       <c r="F83" t="n">
-        <v>12528.9572</v>
+        <v>30968.517</v>
       </c>
       <c r="G83" t="n">
-        <v>54.7955</v>
+        <v>54.8055</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>54.4</v>
       </c>
       <c r="F84" t="n">
-        <v>5060.3109</v>
+        <v>12528.9572</v>
       </c>
       <c r="G84" t="n">
-        <v>54.7855</v>
+        <v>54.7955</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>54.2</v>
+        <v>54.4</v>
       </c>
       <c r="C85" t="n">
-        <v>54.2</v>
+        <v>54.4</v>
       </c>
       <c r="D85" t="n">
-        <v>54.2</v>
+        <v>54.4</v>
       </c>
       <c r="E85" t="n">
-        <v>54.2</v>
+        <v>54.4</v>
       </c>
       <c r="F85" t="n">
-        <v>42.396</v>
+        <v>5060.3109</v>
       </c>
       <c r="G85" t="n">
-        <v>54.77216666666666</v>
+        <v>54.7855</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>54.2</v>
       </c>
       <c r="F86" t="n">
-        <v>718.4906999999999</v>
+        <v>42.396</v>
       </c>
       <c r="G86" t="n">
-        <v>54.75883333333333</v>
+        <v>54.77216666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>54.3</v>
+        <v>54.2</v>
       </c>
       <c r="C87" t="n">
-        <v>54.22</v>
+        <v>54.2</v>
       </c>
       <c r="D87" t="n">
-        <v>54.3</v>
+        <v>54.2</v>
       </c>
       <c r="E87" t="n">
-        <v>54.22</v>
+        <v>54.2</v>
       </c>
       <c r="F87" t="n">
-        <v>3126.1222</v>
+        <v>718.4906999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>54.74583333333332</v>
+        <v>54.75883333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>54.5</v>
+        <v>54.3</v>
       </c>
       <c r="C88" t="n">
-        <v>54.5</v>
+        <v>54.22</v>
       </c>
       <c r="D88" t="n">
-        <v>54.5</v>
+        <v>54.3</v>
       </c>
       <c r="E88" t="n">
-        <v>54.5</v>
+        <v>54.22</v>
       </c>
       <c r="F88" t="n">
-        <v>122.1655</v>
+        <v>3126.1222</v>
       </c>
       <c r="G88" t="n">
-        <v>54.73749999999999</v>
+        <v>54.74583333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>54.5</v>
       </c>
       <c r="F89" t="n">
-        <v>5.9889</v>
+        <v>122.1655</v>
       </c>
       <c r="G89" t="n">
-        <v>54.72916666666666</v>
+        <v>54.73749999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>54.47</v>
+        <v>54.5</v>
       </c>
       <c r="C90" t="n">
-        <v>54.47</v>
+        <v>54.5</v>
       </c>
       <c r="D90" t="n">
-        <v>54.47</v>
+        <v>54.5</v>
       </c>
       <c r="E90" t="n">
-        <v>54.47</v>
+        <v>54.5</v>
       </c>
       <c r="F90" t="n">
-        <v>2382.6535</v>
+        <v>5.9889</v>
       </c>
       <c r="G90" t="n">
-        <v>54.72033333333332</v>
+        <v>54.72916666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>54.34</v>
+        <v>54.47</v>
       </c>
       <c r="C91" t="n">
-        <v>54.34</v>
+        <v>54.47</v>
       </c>
       <c r="D91" t="n">
-        <v>54.34</v>
+        <v>54.47</v>
       </c>
       <c r="E91" t="n">
-        <v>54.34</v>
+        <v>54.47</v>
       </c>
       <c r="F91" t="n">
-        <v>1064</v>
+        <v>2382.6535</v>
       </c>
       <c r="G91" t="n">
-        <v>54.7095</v>
+        <v>54.72033333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>54.5</v>
+        <v>54.34</v>
       </c>
       <c r="C92" t="n">
-        <v>54.63</v>
+        <v>54.34</v>
       </c>
       <c r="D92" t="n">
-        <v>54.63</v>
+        <v>54.34</v>
       </c>
       <c r="E92" t="n">
-        <v>54.5</v>
+        <v>54.34</v>
       </c>
       <c r="F92" t="n">
-        <v>22009.7555779</v>
+        <v>1064</v>
       </c>
       <c r="G92" t="n">
-        <v>54.70666666666666</v>
+        <v>54.7095</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>54.49</v>
+        <v>54.5</v>
       </c>
       <c r="C93" t="n">
-        <v>54.49</v>
+        <v>54.63</v>
       </c>
       <c r="D93" t="n">
-        <v>54.49</v>
+        <v>54.63</v>
       </c>
       <c r="E93" t="n">
-        <v>54.49</v>
+        <v>54.5</v>
       </c>
       <c r="F93" t="n">
-        <v>56.075</v>
+        <v>22009.7555779</v>
       </c>
       <c r="G93" t="n">
-        <v>54.69966666666666</v>
+        <v>54.70666666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>54.53</v>
+        <v>54.49</v>
       </c>
       <c r="C94" t="n">
-        <v>54.32</v>
+        <v>54.49</v>
       </c>
       <c r="D94" t="n">
-        <v>54.53</v>
+        <v>54.49</v>
       </c>
       <c r="E94" t="n">
-        <v>54.32</v>
+        <v>54.49</v>
       </c>
       <c r="F94" t="n">
-        <v>5928</v>
+        <v>56.075</v>
       </c>
       <c r="G94" t="n">
-        <v>54.69133333333333</v>
+        <v>54.69966666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>54.33</v>
+        <v>54.53</v>
       </c>
       <c r="C95" t="n">
-        <v>54.33</v>
+        <v>54.32</v>
       </c>
       <c r="D95" t="n">
-        <v>54.33</v>
+        <v>54.53</v>
       </c>
       <c r="E95" t="n">
-        <v>54.33</v>
+        <v>54.32</v>
       </c>
       <c r="F95" t="n">
-        <v>687.5</v>
+        <v>5928</v>
       </c>
       <c r="G95" t="n">
-        <v>54.68166666666666</v>
+        <v>54.69133333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>54.3</v>
+        <v>54.33</v>
       </c>
       <c r="C96" t="n">
         <v>54.33</v>
@@ -3732,13 +3732,13 @@
         <v>54.33</v>
       </c>
       <c r="E96" t="n">
-        <v>54.3</v>
+        <v>54.33</v>
       </c>
       <c r="F96" t="n">
-        <v>1157.1094</v>
+        <v>687.5</v>
       </c>
       <c r="G96" t="n">
-        <v>54.67049999999999</v>
+        <v>54.68166666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>54.32</v>
+        <v>54.3</v>
       </c>
       <c r="C97" t="n">
-        <v>54.32</v>
+        <v>54.33</v>
       </c>
       <c r="D97" t="n">
-        <v>54.32</v>
+        <v>54.33</v>
       </c>
       <c r="E97" t="n">
-        <v>54.32</v>
+        <v>54.3</v>
       </c>
       <c r="F97" t="n">
-        <v>439.3536</v>
+        <v>1157.1094</v>
       </c>
       <c r="G97" t="n">
-        <v>54.65916666666666</v>
+        <v>54.67049999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>54.32</v>
       </c>
       <c r="C98" t="n">
-        <v>54.22</v>
+        <v>54.32</v>
       </c>
       <c r="D98" t="n">
         <v>54.32</v>
       </c>
       <c r="E98" t="n">
-        <v>54.22</v>
+        <v>54.32</v>
       </c>
       <c r="F98" t="n">
-        <v>938.1</v>
+        <v>439.3536</v>
       </c>
       <c r="G98" t="n">
-        <v>54.64616666666666</v>
+        <v>54.65916666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>54.32</v>
+      </c>
+      <c r="C99" t="n">
         <v>54.22</v>
       </c>
-      <c r="C99" t="n">
-        <v>54.2</v>
-      </c>
       <c r="D99" t="n">
+        <v>54.32</v>
+      </c>
+      <c r="E99" t="n">
         <v>54.22</v>
       </c>
-      <c r="E99" t="n">
-        <v>54.2</v>
-      </c>
       <c r="F99" t="n">
-        <v>42969.0158</v>
+        <v>938.1</v>
       </c>
       <c r="G99" t="n">
-        <v>54.63266666666665</v>
+        <v>54.64616666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>54.29</v>
+        <v>54.22</v>
       </c>
       <c r="C100" t="n">
-        <v>54.29</v>
+        <v>54.2</v>
       </c>
       <c r="D100" t="n">
-        <v>54.29</v>
+        <v>54.22</v>
       </c>
       <c r="E100" t="n">
-        <v>54.29</v>
+        <v>54.2</v>
       </c>
       <c r="F100" t="n">
-        <v>184.19598452</v>
+        <v>42969.0158</v>
       </c>
       <c r="G100" t="n">
-        <v>54.62083333333332</v>
+        <v>54.63266666666665</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>54.21</v>
+        <v>54.29</v>
       </c>
       <c r="C101" t="n">
-        <v>54.21</v>
+        <v>54.29</v>
       </c>
       <c r="D101" t="n">
-        <v>54.21</v>
+        <v>54.29</v>
       </c>
       <c r="E101" t="n">
-        <v>54.21</v>
+        <v>54.29</v>
       </c>
       <c r="F101" t="n">
-        <v>384.0389</v>
+        <v>184.19598452</v>
       </c>
       <c r="G101" t="n">
-        <v>54.61099999999998</v>
+        <v>54.62083333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>54.46</v>
+        <v>54.21</v>
       </c>
       <c r="C102" t="n">
-        <v>54.31</v>
+        <v>54.21</v>
       </c>
       <c r="D102" t="n">
-        <v>54.46</v>
+        <v>54.21</v>
       </c>
       <c r="E102" t="n">
-        <v>54.31</v>
+        <v>54.21</v>
       </c>
       <c r="F102" t="n">
-        <v>545.0905</v>
+        <v>384.0389</v>
       </c>
       <c r="G102" t="n">
-        <v>54.59916666666665</v>
+        <v>54.61099999999998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>54.3</v>
+        <v>54.46</v>
       </c>
       <c r="C103" t="n">
-        <v>54.3</v>
+        <v>54.31</v>
       </c>
       <c r="D103" t="n">
-        <v>54.3</v>
+        <v>54.46</v>
       </c>
       <c r="E103" t="n">
-        <v>54.3</v>
+        <v>54.31</v>
       </c>
       <c r="F103" t="n">
-        <v>1472.6726</v>
+        <v>545.0905</v>
       </c>
       <c r="G103" t="n">
-        <v>54.58733333333331</v>
+        <v>54.59916666666665</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>54.3</v>
       </c>
       <c r="F104" t="n">
-        <v>300957.4601</v>
+        <v>1472.6726</v>
       </c>
       <c r="G104" t="n">
-        <v>54.57549999999998</v>
+        <v>54.58733333333331</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>54.3</v>
       </c>
       <c r="F105" t="n">
-        <v>7965.0984</v>
+        <v>300957.4601</v>
       </c>
       <c r="G105" t="n">
-        <v>54.56549999999998</v>
+        <v>54.57549999999998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>54.24</v>
+        <v>54.3</v>
       </c>
       <c r="C106" t="n">
-        <v>54.21</v>
+        <v>54.3</v>
       </c>
       <c r="D106" t="n">
-        <v>54.24</v>
+        <v>54.3</v>
       </c>
       <c r="E106" t="n">
-        <v>54.21</v>
+        <v>54.3</v>
       </c>
       <c r="F106" t="n">
-        <v>20710.9566</v>
+        <v>7965.0984</v>
       </c>
       <c r="G106" t="n">
-        <v>54.55166666666665</v>
+        <v>54.56549999999998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>54.22</v>
+        <v>54.24</v>
       </c>
       <c r="C107" t="n">
         <v>54.21</v>
       </c>
       <c r="D107" t="n">
-        <v>54.22</v>
+        <v>54.24</v>
       </c>
       <c r="E107" t="n">
         <v>54.21</v>
       </c>
       <c r="F107" t="n">
-        <v>55989.2182</v>
+        <v>20710.9566</v>
       </c>
       <c r="G107" t="n">
-        <v>54.53833333333331</v>
+        <v>54.55166666666665</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>54.21</v>
+        <v>54.22</v>
       </c>
       <c r="C108" t="n">
         <v>54.21</v>
       </c>
       <c r="D108" t="n">
-        <v>54.21</v>
+        <v>54.22</v>
       </c>
       <c r="E108" t="n">
         <v>54.21</v>
       </c>
       <c r="F108" t="n">
-        <v>2407.3889</v>
+        <v>55989.2182</v>
       </c>
       <c r="G108" t="n">
-        <v>54.52516666666665</v>
+        <v>54.53833333333331</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>54.21</v>
       </c>
       <c r="C109" t="n">
-        <v>54.2</v>
+        <v>54.21</v>
       </c>
       <c r="D109" t="n">
         <v>54.21</v>
       </c>
       <c r="E109" t="n">
-        <v>54.2</v>
+        <v>54.21</v>
       </c>
       <c r="F109" t="n">
-        <v>47628.6468</v>
+        <v>2407.3889</v>
       </c>
       <c r="G109" t="n">
-        <v>54.51299999999998</v>
+        <v>54.52516666666665</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>54.21</v>
+      </c>
+      <c r="C110" t="n">
         <v>54.2</v>
       </c>
-      <c r="C110" t="n">
-        <v>54.1</v>
-      </c>
       <c r="D110" t="n">
+        <v>54.21</v>
+      </c>
+      <c r="E110" t="n">
         <v>54.2</v>
       </c>
-      <c r="E110" t="n">
-        <v>54.1</v>
-      </c>
       <c r="F110" t="n">
-        <v>959.9999</v>
+        <v>47628.6468</v>
       </c>
       <c r="G110" t="n">
-        <v>54.49933333333331</v>
+        <v>54.51299999999998</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>54.24</v>
+        <v>54.2</v>
       </c>
       <c r="C111" t="n">
-        <v>54.24</v>
+        <v>54.1</v>
       </c>
       <c r="D111" t="n">
-        <v>54.24</v>
+        <v>54.2</v>
       </c>
       <c r="E111" t="n">
-        <v>54.24</v>
+        <v>54.1</v>
       </c>
       <c r="F111" t="n">
-        <v>1810.9114</v>
+        <v>959.9999</v>
       </c>
       <c r="G111" t="n">
-        <v>54.48466666666664</v>
+        <v>54.49933333333331</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>54.21</v>
+        <v>54.24</v>
       </c>
       <c r="C112" t="n">
-        <v>54.08</v>
+        <v>54.24</v>
       </c>
       <c r="D112" t="n">
-        <v>54.21</v>
+        <v>54.24</v>
       </c>
       <c r="E112" t="n">
-        <v>54.08</v>
+        <v>54.24</v>
       </c>
       <c r="F112" t="n">
-        <v>35032.722</v>
+        <v>1810.9114</v>
       </c>
       <c r="G112" t="n">
-        <v>54.47066666666664</v>
+        <v>54.48466666666664</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>54.08</v>
+        <v>54.21</v>
       </c>
       <c r="C113" t="n">
         <v>54.08</v>
       </c>
       <c r="D113" t="n">
-        <v>54.08</v>
+        <v>54.21</v>
       </c>
       <c r="E113" t="n">
         <v>54.08</v>
       </c>
       <c r="F113" t="n">
-        <v>5002</v>
+        <v>35032.722</v>
       </c>
       <c r="G113" t="n">
-        <v>54.45449999999997</v>
+        <v>54.47066666666664</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>54.03</v>
+        <v>54.08</v>
       </c>
       <c r="C114" t="n">
-        <v>54.03</v>
+        <v>54.08</v>
       </c>
       <c r="D114" t="n">
-        <v>54.03</v>
+        <v>54.08</v>
       </c>
       <c r="E114" t="n">
-        <v>54.03</v>
+        <v>54.08</v>
       </c>
       <c r="F114" t="n">
-        <v>1000</v>
+        <v>5002</v>
       </c>
       <c r="G114" t="n">
-        <v>54.43599999999997</v>
+        <v>54.45449999999997</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>54.04</v>
+        <v>54.03</v>
       </c>
       <c r="C115" t="n">
         <v>54.03</v>
       </c>
       <c r="D115" t="n">
-        <v>54.04</v>
+        <v>54.03</v>
       </c>
       <c r="E115" t="n">
         <v>54.03</v>
       </c>
       <c r="F115" t="n">
-        <v>21994.823</v>
+        <v>1000</v>
       </c>
       <c r="G115" t="n">
-        <v>54.42133333333332</v>
+        <v>54.43599999999997</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4426,19 +4426,19 @@
         <v>54.04</v>
       </c>
       <c r="C116" t="n">
-        <v>54.04</v>
+        <v>54.03</v>
       </c>
       <c r="D116" t="n">
         <v>54.04</v>
       </c>
       <c r="E116" t="n">
-        <v>54.04</v>
+        <v>54.03</v>
       </c>
       <c r="F116" t="n">
-        <v>5273.6966</v>
+        <v>21994.823</v>
       </c>
       <c r="G116" t="n">
-        <v>54.40716666666665</v>
+        <v>54.42133333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4470,10 @@
         <v>54.04</v>
       </c>
       <c r="F117" t="n">
-        <v>28725.2902</v>
+        <v>5273.6966</v>
       </c>
       <c r="G117" t="n">
-        <v>54.39899999999998</v>
+        <v>54.40716666666665</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4496,19 +4496,19 @@
         <v>54.04</v>
       </c>
       <c r="C118" t="n">
-        <v>54.03</v>
+        <v>54.04</v>
       </c>
       <c r="D118" t="n">
         <v>54.04</v>
       </c>
       <c r="E118" t="n">
-        <v>54.03</v>
+        <v>54.04</v>
       </c>
       <c r="F118" t="n">
-        <v>19155.4215</v>
+        <v>28725.2902</v>
       </c>
       <c r="G118" t="n">
-        <v>54.38783333333332</v>
+        <v>54.39899999999998</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,32 +4528,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="C119" t="n">
         <v>54.03</v>
       </c>
-      <c r="C119" t="n">
-        <v>54.07</v>
-      </c>
       <c r="D119" t="n">
-        <v>54.07</v>
+        <v>54.04</v>
       </c>
       <c r="E119" t="n">
         <v>54.03</v>
       </c>
       <c r="F119" t="n">
-        <v>15025.407</v>
+        <v>19155.4215</v>
       </c>
       <c r="G119" t="n">
-        <v>54.37733333333333</v>
+        <v>54.38783333333332</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>54.04</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4563,32 +4569,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>54.09</v>
+        <v>54.03</v>
       </c>
       <c r="C120" t="n">
-        <v>54.03</v>
+        <v>54.07</v>
       </c>
       <c r="D120" t="n">
-        <v>54.09</v>
+        <v>54.07</v>
       </c>
       <c r="E120" t="n">
         <v>54.03</v>
       </c>
       <c r="F120" t="n">
-        <v>12185.8324</v>
+        <v>15025.407</v>
       </c>
       <c r="G120" t="n">
-        <v>54.37049999999999</v>
+        <v>54.37733333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>54.03</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4598,32 +4610,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>54.09</v>
+      </c>
+      <c r="C121" t="n">
         <v>54.03</v>
       </c>
-      <c r="C121" t="n">
-        <v>54.01</v>
-      </c>
       <c r="D121" t="n">
+        <v>54.09</v>
+      </c>
+      <c r="E121" t="n">
         <v>54.03</v>
       </c>
-      <c r="E121" t="n">
-        <v>54.01</v>
-      </c>
       <c r="F121" t="n">
-        <v>4821</v>
+        <v>12185.8324</v>
       </c>
       <c r="G121" t="n">
-        <v>54.36333333333333</v>
+        <v>54.37049999999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>54.07</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4633,22 +4651,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>54.01</v>
+        <v>54.03</v>
       </c>
       <c r="C122" t="n">
         <v>54.01</v>
       </c>
       <c r="D122" t="n">
-        <v>54.01</v>
+        <v>54.03</v>
       </c>
       <c r="E122" t="n">
         <v>54.01</v>
       </c>
       <c r="F122" t="n">
-        <v>1355.2</v>
+        <v>4821</v>
       </c>
       <c r="G122" t="n">
-        <v>54.3565</v>
+        <v>54.36333333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4658,7 +4676,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4671,19 +4693,19 @@
         <v>54.01</v>
       </c>
       <c r="C123" t="n">
-        <v>54</v>
+        <v>54.01</v>
       </c>
       <c r="D123" t="n">
         <v>54.01</v>
       </c>
       <c r="E123" t="n">
-        <v>54</v>
+        <v>54.01</v>
       </c>
       <c r="F123" t="n">
-        <v>1712.1</v>
+        <v>1355.2</v>
       </c>
       <c r="G123" t="n">
-        <v>54.34799999999999</v>
+        <v>54.3565</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4693,7 +4715,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,36 +4729,36 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>54</v>
+        <v>54.01</v>
       </c>
       <c r="C124" t="n">
         <v>54</v>
       </c>
       <c r="D124" t="n">
-        <v>54</v>
+        <v>54.01</v>
       </c>
       <c r="E124" t="n">
         <v>54</v>
       </c>
       <c r="F124" t="n">
-        <v>1665.5001</v>
+        <v>1712.1</v>
       </c>
       <c r="G124" t="n">
-        <v>54.34133333333332</v>
+        <v>54.34799999999999</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>54</v>
-      </c>
-      <c r="K124" t="n">
-        <v>54</v>
-      </c>
-      <c r="L124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4754,26 +4780,22 @@
         <v>54</v>
       </c>
       <c r="F125" t="n">
-        <v>333</v>
+        <v>1665.5001</v>
       </c>
       <c r="G125" t="n">
-        <v>54.33733333333333</v>
+        <v>54.34133333333332</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>54</v>
-      </c>
-      <c r="K125" t="n">
-        <v>54</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M125" t="n">
@@ -4797,26 +4819,22 @@
         <v>54</v>
       </c>
       <c r="F126" t="n">
-        <v>13314.6631</v>
+        <v>333</v>
       </c>
       <c r="G126" t="n">
-        <v>54.326</v>
+        <v>54.33733333333333</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>54</v>
-      </c>
-      <c r="K126" t="n">
-        <v>54</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M126" t="n">
@@ -4840,24 +4858,24 @@
         <v>54</v>
       </c>
       <c r="F127" t="n">
-        <v>7914.6536</v>
+        <v>13314.6631</v>
       </c>
       <c r="G127" t="n">
-        <v>54.31133333333333</v>
+        <v>54.326</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>54</v>
-      </c>
-      <c r="K127" t="n">
-        <v>54</v>
-      </c>
-      <c r="L127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4867,38 +4885,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>53.99</v>
+        <v>54</v>
       </c>
       <c r="C128" t="n">
-        <v>53.99</v>
+        <v>54</v>
       </c>
       <c r="D128" t="n">
-        <v>53.99</v>
+        <v>54</v>
       </c>
       <c r="E128" t="n">
-        <v>53.99</v>
+        <v>54</v>
       </c>
       <c r="F128" t="n">
-        <v>250.4042</v>
+        <v>7914.6536</v>
       </c>
       <c r="G128" t="n">
-        <v>54.29949999999999</v>
+        <v>54.31133333333333</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>54</v>
-      </c>
-      <c r="K128" t="n">
-        <v>54</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M128" t="n">
@@ -4922,26 +4936,22 @@
         <v>53.99</v>
       </c>
       <c r="F129" t="n">
-        <v>41.8804</v>
+        <v>250.4042</v>
       </c>
       <c r="G129" t="n">
-        <v>54.28933333333332</v>
+        <v>54.29949999999999</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>53.99</v>
-      </c>
-      <c r="K129" t="n">
-        <v>54</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M129" t="n">
@@ -4965,10 +4975,10 @@
         <v>53.99</v>
       </c>
       <c r="F130" t="n">
-        <v>8.4114</v>
+        <v>41.8804</v>
       </c>
       <c r="G130" t="n">
-        <v>54.2775</v>
+        <v>54.28933333333332</v>
       </c>
       <c r="H130" t="n">
         <v>1</v>
@@ -4979,10 +4989,12 @@
       <c r="J130" t="n">
         <v>53.99</v>
       </c>
-      <c r="K130" t="n">
-        <v>53.99</v>
-      </c>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5004,24 +5016,24 @@
         <v>53.99</v>
       </c>
       <c r="F131" t="n">
-        <v>883.0093000000001</v>
+        <v>8.4114</v>
       </c>
       <c r="G131" t="n">
-        <v>54.26749999999999</v>
+        <v>54.2775</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
+      <c r="J131" t="n">
         <v>53.99</v>
       </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -5045,24 +5057,24 @@
         <v>53.99</v>
       </c>
       <c r="F132" t="n">
-        <v>1110.6782</v>
+        <v>883.0093000000001</v>
       </c>
       <c r="G132" t="n">
-        <v>54.25566666666666</v>
+        <v>54.26749999999999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
+      <c r="J132" t="n">
         <v>53.99</v>
       </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M132" t="n">
@@ -5086,20 +5098,26 @@
         <v>53.99</v>
       </c>
       <c r="F133" t="n">
-        <v>4946.4745</v>
+        <v>1110.6782</v>
       </c>
       <c r="G133" t="n">
-        <v>54.24433333333332</v>
+        <v>54.25566666666666</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>53.99</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5109,32 +5127,38 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>54</v>
+        <v>53.99</v>
       </c>
       <c r="C134" t="n">
-        <v>54</v>
+        <v>53.99</v>
       </c>
       <c r="D134" t="n">
-        <v>54</v>
+        <v>53.99</v>
       </c>
       <c r="E134" t="n">
-        <v>54</v>
+        <v>53.99</v>
       </c>
       <c r="F134" t="n">
-        <v>4524.1049</v>
+        <v>4946.4745</v>
       </c>
       <c r="G134" t="n">
-        <v>54.23316666666665</v>
+        <v>54.24433333333332</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>53.99</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5156,20 +5180,26 @@
         <v>54</v>
       </c>
       <c r="F135" t="n">
-        <v>1591.7553</v>
+        <v>4524.1049</v>
       </c>
       <c r="G135" t="n">
-        <v>54.22199999999998</v>
+        <v>54.23316666666665</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>53.99</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5179,36 +5209,36 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>54.22</v>
+        <v>54</v>
       </c>
       <c r="C136" t="n">
-        <v>54.22</v>
+        <v>54</v>
       </c>
       <c r="D136" t="n">
-        <v>54.22</v>
+        <v>54</v>
       </c>
       <c r="E136" t="n">
-        <v>54.22</v>
+        <v>54</v>
       </c>
       <c r="F136" t="n">
-        <v>42.7393</v>
+        <v>1591.7553</v>
       </c>
       <c r="G136" t="n">
-        <v>54.21449999999997</v>
+        <v>54.22199999999998</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>54</v>
-      </c>
-      <c r="K136" t="n">
-        <v>54</v>
-      </c>
-      <c r="L136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5230,26 +5260,22 @@
         <v>54.22</v>
       </c>
       <c r="F137" t="n">
-        <v>32000</v>
+        <v>42.7393</v>
       </c>
       <c r="G137" t="n">
-        <v>54.20666666666664</v>
+        <v>54.21449999999997</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>54.22</v>
-      </c>
-      <c r="K137" t="n">
-        <v>54</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M137" t="n">
@@ -5261,38 +5287,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>54.31</v>
+        <v>54.22</v>
       </c>
       <c r="C138" t="n">
-        <v>54.12</v>
+        <v>54.22</v>
       </c>
       <c r="D138" t="n">
-        <v>54.31</v>
+        <v>54.22</v>
       </c>
       <c r="E138" t="n">
-        <v>54.12</v>
+        <v>54.22</v>
       </c>
       <c r="F138" t="n">
-        <v>10619.2796</v>
+        <v>32000</v>
       </c>
       <c r="G138" t="n">
-        <v>54.19799999999997</v>
+        <v>54.20666666666664</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>54.22</v>
-      </c>
-      <c r="K138" t="n">
-        <v>54</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M138" t="n">
@@ -5304,22 +5326,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>54.13</v>
+        <v>54.31</v>
       </c>
       <c r="C139" t="n">
-        <v>54.07</v>
+        <v>54.12</v>
       </c>
       <c r="D139" t="n">
-        <v>54.17</v>
+        <v>54.31</v>
       </c>
       <c r="E139" t="n">
-        <v>54.07</v>
+        <v>54.12</v>
       </c>
       <c r="F139" t="n">
-        <v>10020.7211</v>
+        <v>10619.2796</v>
       </c>
       <c r="G139" t="n">
-        <v>54.18966666666664</v>
+        <v>54.19799999999997</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5329,7 +5351,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5339,22 +5365,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>54.11</v>
+        <v>54.13</v>
       </c>
       <c r="C140" t="n">
-        <v>54.11</v>
+        <v>54.07</v>
       </c>
       <c r="D140" t="n">
-        <v>54.11</v>
+        <v>54.17</v>
       </c>
       <c r="E140" t="n">
-        <v>54.11</v>
+        <v>54.07</v>
       </c>
       <c r="F140" t="n">
-        <v>462.0062</v>
+        <v>10020.7211</v>
       </c>
       <c r="G140" t="n">
-        <v>54.18349999999997</v>
+        <v>54.18966666666664</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5364,7 +5390,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5374,22 +5404,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>54.27</v>
+        <v>54.11</v>
       </c>
       <c r="C141" t="n">
-        <v>54.27</v>
+        <v>54.11</v>
       </c>
       <c r="D141" t="n">
-        <v>54.27</v>
+        <v>54.11</v>
       </c>
       <c r="E141" t="n">
-        <v>54.27</v>
+        <v>54.11</v>
       </c>
       <c r="F141" t="n">
-        <v>91.6738</v>
+        <v>462.0062</v>
       </c>
       <c r="G141" t="n">
-        <v>54.17999999999997</v>
+        <v>54.18349999999997</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5399,7 +5429,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5409,22 +5443,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>54.11</v>
+        <v>54.27</v>
       </c>
       <c r="C142" t="n">
-        <v>54.11</v>
+        <v>54.27</v>
       </c>
       <c r="D142" t="n">
-        <v>54.11</v>
+        <v>54.27</v>
       </c>
       <c r="E142" t="n">
-        <v>54.11</v>
+        <v>54.27</v>
       </c>
       <c r="F142" t="n">
-        <v>892</v>
+        <v>91.6738</v>
       </c>
       <c r="G142" t="n">
-        <v>54.17433333333331</v>
+        <v>54.17999999999997</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5434,7 +5468,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5444,22 +5482,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>54.07</v>
+        <v>54.11</v>
       </c>
       <c r="C143" t="n">
-        <v>54.07</v>
+        <v>54.11</v>
       </c>
       <c r="D143" t="n">
-        <v>54.07</v>
+        <v>54.11</v>
       </c>
       <c r="E143" t="n">
-        <v>54.07</v>
+        <v>54.11</v>
       </c>
       <c r="F143" t="n">
-        <v>2203.641</v>
+        <v>892</v>
       </c>
       <c r="G143" t="n">
-        <v>54.16883333333331</v>
+        <v>54.17433333333331</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5469,7 +5507,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5479,22 +5521,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>54.18</v>
+        <v>54.07</v>
       </c>
       <c r="C144" t="n">
-        <v>54.01</v>
+        <v>54.07</v>
       </c>
       <c r="D144" t="n">
-        <v>54.18</v>
+        <v>54.07</v>
       </c>
       <c r="E144" t="n">
-        <v>54.01</v>
+        <v>54.07</v>
       </c>
       <c r="F144" t="n">
-        <v>57297.5413</v>
+        <v>2203.641</v>
       </c>
       <c r="G144" t="n">
-        <v>54.16233333333332</v>
+        <v>54.16883333333331</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5504,7 +5546,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5514,22 +5560,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>54.11</v>
+        <v>54.18</v>
       </c>
       <c r="C145" t="n">
-        <v>54.11</v>
+        <v>54.01</v>
       </c>
       <c r="D145" t="n">
-        <v>54.11</v>
+        <v>54.18</v>
       </c>
       <c r="E145" t="n">
-        <v>54.11</v>
+        <v>54.01</v>
       </c>
       <c r="F145" t="n">
-        <v>451.6892</v>
+        <v>57297.5413</v>
       </c>
       <c r="G145" t="n">
-        <v>54.16083333333332</v>
+        <v>54.16233333333332</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5539,7 +5585,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5561,10 +5611,10 @@
         <v>54.11</v>
       </c>
       <c r="F146" t="n">
-        <v>451.7077</v>
+        <v>451.6892</v>
       </c>
       <c r="G146" t="n">
-        <v>54.15933333333332</v>
+        <v>54.16083333333332</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5574,7 +5624,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5584,22 +5638,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>54.01</v>
+        <v>54.11</v>
       </c>
       <c r="C147" t="n">
-        <v>54.01</v>
+        <v>54.11</v>
       </c>
       <c r="D147" t="n">
-        <v>54.01</v>
+        <v>54.11</v>
       </c>
       <c r="E147" t="n">
-        <v>54.01</v>
+        <v>54.11</v>
       </c>
       <c r="F147" t="n">
-        <v>2786.7439</v>
+        <v>451.7077</v>
       </c>
       <c r="G147" t="n">
-        <v>54.15583333333333</v>
+        <v>54.15933333333332</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5609,7 +5663,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5625,16 +5683,16 @@
         <v>54.01</v>
       </c>
       <c r="D148" t="n">
-        <v>54.05</v>
+        <v>54.01</v>
       </c>
       <c r="E148" t="n">
         <v>54.01</v>
       </c>
       <c r="F148" t="n">
-        <v>15996.069</v>
+        <v>2786.7439</v>
       </c>
       <c r="G148" t="n">
-        <v>54.14766666666667</v>
+        <v>54.15583333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5644,7 +5702,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5660,16 +5722,16 @@
         <v>54.01</v>
       </c>
       <c r="D149" t="n">
-        <v>54.01</v>
+        <v>54.05</v>
       </c>
       <c r="E149" t="n">
         <v>54.01</v>
       </c>
       <c r="F149" t="n">
-        <v>4165.8629</v>
+        <v>15996.069</v>
       </c>
       <c r="G149" t="n">
-        <v>54.13950000000001</v>
+        <v>54.14766666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5679,7 +5741,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5701,10 +5767,10 @@
         <v>54.01</v>
       </c>
       <c r="F150" t="n">
-        <v>22938.3916</v>
+        <v>4165.8629</v>
       </c>
       <c r="G150" t="n">
-        <v>54.13183333333335</v>
+        <v>54.13950000000001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5714,7 +5780,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5736,10 +5806,10 @@
         <v>54.01</v>
       </c>
       <c r="F151" t="n">
-        <v>42666.4225</v>
+        <v>22938.3916</v>
       </c>
       <c r="G151" t="n">
-        <v>54.12633333333335</v>
+        <v>54.13183333333335</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5749,7 +5819,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5762,19 +5836,19 @@
         <v>54.01</v>
       </c>
       <c r="C152" t="n">
-        <v>54.05</v>
+        <v>54.01</v>
       </c>
       <c r="D152" t="n">
-        <v>54.05</v>
+        <v>54.01</v>
       </c>
       <c r="E152" t="n">
         <v>54.01</v>
       </c>
       <c r="F152" t="n">
-        <v>9749.293799999999</v>
+        <v>42666.4225</v>
       </c>
       <c r="G152" t="n">
-        <v>54.11666666666668</v>
+        <v>54.12633333333335</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5784,7 +5858,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5794,7 +5872,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>54.05</v>
+        <v>54.01</v>
       </c>
       <c r="C153" t="n">
         <v>54.05</v>
@@ -5803,13 +5881,13 @@
         <v>54.05</v>
       </c>
       <c r="E153" t="n">
-        <v>54.05</v>
+        <v>54.01</v>
       </c>
       <c r="F153" t="n">
-        <v>3617.3193</v>
+        <v>9749.293799999999</v>
       </c>
       <c r="G153" t="n">
-        <v>54.10933333333335</v>
+        <v>54.11666666666668</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5819,7 +5897,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5841,10 +5923,10 @@
         <v>54.05</v>
       </c>
       <c r="F154" t="n">
-        <v>12422.1258</v>
+        <v>3617.3193</v>
       </c>
       <c r="G154" t="n">
-        <v>54.10483333333335</v>
+        <v>54.10933333333335</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5854,7 +5936,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5864,22 +5950,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>54.01</v>
+        <v>54.05</v>
       </c>
       <c r="C155" t="n">
-        <v>53.89</v>
+        <v>54.05</v>
       </c>
       <c r="D155" t="n">
-        <v>54.01</v>
+        <v>54.05</v>
       </c>
       <c r="E155" t="n">
-        <v>53.89</v>
+        <v>54.05</v>
       </c>
       <c r="F155" t="n">
-        <v>10994.8864</v>
+        <v>12422.1258</v>
       </c>
       <c r="G155" t="n">
-        <v>54.09750000000002</v>
+        <v>54.10483333333335</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5889,7 +5975,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5899,22 +5989,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>54.01</v>
+      </c>
+      <c r="C156" t="n">
         <v>53.89</v>
       </c>
-      <c r="C156" t="n">
-        <v>53.88</v>
-      </c>
       <c r="D156" t="n">
+        <v>54.01</v>
+      </c>
+      <c r="E156" t="n">
         <v>53.89</v>
       </c>
-      <c r="E156" t="n">
-        <v>53.88</v>
-      </c>
       <c r="F156" t="n">
-        <v>29369.1444</v>
+        <v>10994.8864</v>
       </c>
       <c r="G156" t="n">
-        <v>54.09000000000002</v>
+        <v>54.09750000000002</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5924,7 +6014,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5934,22 +6028,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>53.88</v>
+        <v>53.89</v>
       </c>
       <c r="C157" t="n">
         <v>53.88</v>
       </c>
       <c r="D157" t="n">
-        <v>53.88</v>
+        <v>53.89</v>
       </c>
       <c r="E157" t="n">
         <v>53.88</v>
       </c>
       <c r="F157" t="n">
-        <v>34899.8804</v>
+        <v>29369.1444</v>
       </c>
       <c r="G157" t="n">
-        <v>54.08266666666669</v>
+        <v>54.09000000000002</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5959,7 +6053,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5969,22 +6067,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>54.09</v>
+        <v>53.88</v>
       </c>
       <c r="C158" t="n">
-        <v>54.09</v>
+        <v>53.88</v>
       </c>
       <c r="D158" t="n">
-        <v>54.09</v>
+        <v>53.88</v>
       </c>
       <c r="E158" t="n">
-        <v>54.09</v>
+        <v>53.88</v>
       </c>
       <c r="F158" t="n">
-        <v>22.00036975</v>
+        <v>34899.8804</v>
       </c>
       <c r="G158" t="n">
-        <v>54.08050000000003</v>
+        <v>54.08266666666669</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5994,7 +6092,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6004,19 +6106,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>54.2</v>
+        <v>54.09</v>
       </c>
       <c r="C159" t="n">
-        <v>54.2</v>
+        <v>54.09</v>
       </c>
       <c r="D159" t="n">
-        <v>54.2</v>
+        <v>54.09</v>
       </c>
       <c r="E159" t="n">
-        <v>54.2</v>
+        <v>54.09</v>
       </c>
       <c r="F159" t="n">
-        <v>764.2947</v>
+        <v>22.00036975</v>
       </c>
       <c r="G159" t="n">
         <v>54.08050000000003</v>
@@ -6029,7 +6131,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6051,10 +6157,10 @@
         <v>54.2</v>
       </c>
       <c r="F160" t="n">
-        <v>1331.7379</v>
+        <v>764.2947</v>
       </c>
       <c r="G160" t="n">
-        <v>54.07900000000003</v>
+        <v>54.08050000000003</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6064,7 +6170,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6074,19 +6184,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>54.21</v>
+        <v>54.2</v>
       </c>
       <c r="C161" t="n">
-        <v>54.21</v>
+        <v>54.2</v>
       </c>
       <c r="D161" t="n">
-        <v>54.21</v>
+        <v>54.2</v>
       </c>
       <c r="E161" t="n">
-        <v>54.21</v>
+        <v>54.2</v>
       </c>
       <c r="F161" t="n">
-        <v>301.948</v>
+        <v>1331.7379</v>
       </c>
       <c r="G161" t="n">
         <v>54.07900000000003</v>
@@ -6099,7 +6209,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6109,22 +6223,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>54.36</v>
+        <v>54.21</v>
       </c>
       <c r="C162" t="n">
-        <v>54.36</v>
+        <v>54.21</v>
       </c>
       <c r="D162" t="n">
-        <v>54.36</v>
+        <v>54.21</v>
       </c>
       <c r="E162" t="n">
-        <v>54.36</v>
+        <v>54.21</v>
       </c>
       <c r="F162" t="n">
-        <v>7084</v>
+        <v>301.948</v>
       </c>
       <c r="G162" t="n">
-        <v>54.07983333333336</v>
+        <v>54.07900000000003</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6134,7 +6248,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6144,22 +6262,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>54.41</v>
+        <v>54.36</v>
       </c>
       <c r="C163" t="n">
-        <v>54.45</v>
+        <v>54.36</v>
       </c>
       <c r="D163" t="n">
-        <v>54.45</v>
+        <v>54.36</v>
       </c>
       <c r="E163" t="n">
         <v>54.36</v>
       </c>
       <c r="F163" t="n">
-        <v>23704.6893</v>
+        <v>7084</v>
       </c>
       <c r="G163" t="n">
-        <v>54.08233333333336</v>
+        <v>54.07983333333336</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6169,7 +6287,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6179,22 +6301,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>54.36</v>
+        <v>54.41</v>
       </c>
       <c r="C164" t="n">
-        <v>54.36</v>
+        <v>54.45</v>
       </c>
       <c r="D164" t="n">
-        <v>54.36</v>
+        <v>54.45</v>
       </c>
       <c r="E164" t="n">
         <v>54.36</v>
       </c>
       <c r="F164" t="n">
-        <v>5638.8127</v>
+        <v>23704.6893</v>
       </c>
       <c r="G164" t="n">
-        <v>54.08333333333336</v>
+        <v>54.08233333333336</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6204,7 +6326,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6226,10 +6352,10 @@
         <v>54.36</v>
       </c>
       <c r="F165" t="n">
-        <v>12777.981</v>
+        <v>5638.8127</v>
       </c>
       <c r="G165" t="n">
-        <v>54.08433333333335</v>
+        <v>54.08333333333336</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6239,7 +6365,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6249,22 +6379,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>54.2</v>
+        <v>54.36</v>
       </c>
       <c r="C166" t="n">
-        <v>54.14</v>
+        <v>54.36</v>
       </c>
       <c r="D166" t="n">
-        <v>54.2</v>
+        <v>54.36</v>
       </c>
       <c r="E166" t="n">
-        <v>54.14</v>
+        <v>54.36</v>
       </c>
       <c r="F166" t="n">
-        <v>48651.3355</v>
+        <v>12777.981</v>
       </c>
       <c r="G166" t="n">
-        <v>54.08316666666668</v>
+        <v>54.08433333333335</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6274,7 +6404,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6284,22 +6418,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>54.25</v>
+        <v>54.2</v>
       </c>
       <c r="C167" t="n">
-        <v>54.25</v>
+        <v>54.14</v>
       </c>
       <c r="D167" t="n">
-        <v>54.25</v>
+        <v>54.2</v>
       </c>
       <c r="E167" t="n">
-        <v>54.25</v>
+        <v>54.14</v>
       </c>
       <c r="F167" t="n">
-        <v>933.58</v>
+        <v>48651.3355</v>
       </c>
       <c r="G167" t="n">
-        <v>54.08383333333335</v>
+        <v>54.08316666666668</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6309,7 +6443,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6319,22 +6457,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>54.43</v>
+        <v>54.25</v>
       </c>
       <c r="C168" t="n">
-        <v>54.43</v>
+        <v>54.25</v>
       </c>
       <c r="D168" t="n">
-        <v>54.43</v>
+        <v>54.25</v>
       </c>
       <c r="E168" t="n">
-        <v>54.43</v>
+        <v>54.25</v>
       </c>
       <c r="F168" t="n">
-        <v>61.23461326</v>
+        <v>933.58</v>
       </c>
       <c r="G168" t="n">
-        <v>54.08750000000001</v>
+        <v>54.08383333333335</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6344,7 +6482,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6354,22 +6496,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>54.3</v>
+        <v>54.43</v>
       </c>
       <c r="C169" t="n">
-        <v>54.3</v>
+        <v>54.43</v>
       </c>
       <c r="D169" t="n">
-        <v>54.3</v>
+        <v>54.43</v>
       </c>
       <c r="E169" t="n">
-        <v>54.3</v>
+        <v>54.43</v>
       </c>
       <c r="F169" t="n">
-        <v>10170.4715</v>
+        <v>61.23461326</v>
       </c>
       <c r="G169" t="n">
-        <v>54.08916666666669</v>
+        <v>54.08750000000001</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6379,7 +6521,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6392,19 +6538,19 @@
         <v>54.3</v>
       </c>
       <c r="C170" t="n">
-        <v>54.51</v>
+        <v>54.3</v>
       </c>
       <c r="D170" t="n">
-        <v>54.51</v>
+        <v>54.3</v>
       </c>
       <c r="E170" t="n">
         <v>54.3</v>
       </c>
       <c r="F170" t="n">
-        <v>40827.5285</v>
+        <v>10170.4715</v>
       </c>
       <c r="G170" t="n">
-        <v>54.09600000000002</v>
+        <v>54.08916666666669</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6414,7 +6560,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6424,22 +6574,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>54.25</v>
+        <v>54.3</v>
       </c>
       <c r="C171" t="n">
-        <v>54.22</v>
+        <v>54.51</v>
       </c>
       <c r="D171" t="n">
-        <v>54.25</v>
+        <v>54.51</v>
       </c>
       <c r="E171" t="n">
-        <v>54.22</v>
+        <v>54.3</v>
       </c>
       <c r="F171" t="n">
-        <v>11966.1173</v>
+        <v>40827.5285</v>
       </c>
       <c r="G171" t="n">
-        <v>54.09566666666669</v>
+        <v>54.09600000000002</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6449,7 +6599,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6459,22 +6613,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="C172" t="n">
         <v>54.22</v>
       </c>
-      <c r="C172" t="n">
-        <v>54.2</v>
-      </c>
       <c r="D172" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="E172" t="n">
         <v>54.22</v>
       </c>
-      <c r="E172" t="n">
-        <v>54.2</v>
-      </c>
       <c r="F172" t="n">
-        <v>1874.3893</v>
+        <v>11966.1173</v>
       </c>
       <c r="G172" t="n">
-        <v>54.09766666666669</v>
+        <v>54.09566666666669</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6484,7 +6638,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6494,22 +6652,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>54.2</v>
+        <v>54.22</v>
       </c>
       <c r="C173" t="n">
         <v>54.2</v>
       </c>
       <c r="D173" t="n">
-        <v>54.2</v>
+        <v>54.22</v>
       </c>
       <c r="E173" t="n">
         <v>54.2</v>
       </c>
       <c r="F173" t="n">
-        <v>4000</v>
+        <v>1874.3893</v>
       </c>
       <c r="G173" t="n">
-        <v>54.09966666666669</v>
+        <v>54.09766666666669</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6519,7 +6677,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6529,22 +6691,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>54.33</v>
+        <v>54.2</v>
       </c>
       <c r="C174" t="n">
-        <v>54.33</v>
+        <v>54.2</v>
       </c>
       <c r="D174" t="n">
-        <v>54.33</v>
+        <v>54.2</v>
       </c>
       <c r="E174" t="n">
-        <v>54.33</v>
+        <v>54.2</v>
       </c>
       <c r="F174" t="n">
-        <v>17.7657</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="n">
-        <v>54.10466666666669</v>
+        <v>54.09966666666669</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6554,7 +6716,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6576,10 +6742,10 @@
         <v>54.33</v>
       </c>
       <c r="F175" t="n">
-        <v>3500</v>
+        <v>17.7657</v>
       </c>
       <c r="G175" t="n">
-        <v>54.10966666666668</v>
+        <v>54.10466666666669</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6589,7 +6755,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6599,22 +6769,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>54.24</v>
+        <v>54.33</v>
       </c>
       <c r="C176" t="n">
-        <v>54.24</v>
+        <v>54.33</v>
       </c>
       <c r="D176" t="n">
-        <v>54.24</v>
+        <v>54.33</v>
       </c>
       <c r="E176" t="n">
-        <v>54.24</v>
+        <v>54.33</v>
       </c>
       <c r="F176" t="n">
-        <v>4986.6886</v>
+        <v>3500</v>
       </c>
       <c r="G176" t="n">
-        <v>54.11300000000001</v>
+        <v>54.10966666666668</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6624,7 +6794,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6634,22 +6808,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>54.3</v>
+        <v>54.24</v>
       </c>
       <c r="C177" t="n">
-        <v>54.3</v>
+        <v>54.24</v>
       </c>
       <c r="D177" t="n">
-        <v>54.3</v>
+        <v>54.24</v>
       </c>
       <c r="E177" t="n">
-        <v>54.3</v>
+        <v>54.24</v>
       </c>
       <c r="F177" t="n">
-        <v>657.5717</v>
+        <v>4986.6886</v>
       </c>
       <c r="G177" t="n">
-        <v>54.11733333333335</v>
+        <v>54.11300000000001</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6659,7 +6833,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6669,22 +6847,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>54.38</v>
+        <v>54.3</v>
       </c>
       <c r="C178" t="n">
-        <v>54.38</v>
+        <v>54.3</v>
       </c>
       <c r="D178" t="n">
-        <v>54.38</v>
+        <v>54.3</v>
       </c>
       <c r="E178" t="n">
-        <v>54.38</v>
+        <v>54.3</v>
       </c>
       <c r="F178" t="n">
-        <v>513.3386</v>
+        <v>657.5717</v>
       </c>
       <c r="G178" t="n">
-        <v>54.12316666666668</v>
+        <v>54.11733333333335</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6694,7 +6872,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6716,10 +6898,10 @@
         <v>54.38</v>
       </c>
       <c r="F179" t="n">
-        <v>822.6614</v>
+        <v>513.3386</v>
       </c>
       <c r="G179" t="n">
-        <v>54.12833333333334</v>
+        <v>54.12316666666668</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6729,7 +6911,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6742,19 +6928,19 @@
         <v>54.38</v>
       </c>
       <c r="C180" t="n">
-        <v>54.43</v>
+        <v>54.38</v>
       </c>
       <c r="D180" t="n">
-        <v>54.43</v>
+        <v>54.38</v>
       </c>
       <c r="E180" t="n">
         <v>54.38</v>
       </c>
       <c r="F180" t="n">
-        <v>23591.2703</v>
+        <v>822.6614</v>
       </c>
       <c r="G180" t="n">
-        <v>54.13500000000001</v>
+        <v>54.12833333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6764,7 +6950,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6774,7 +6964,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>54.43</v>
+        <v>54.38</v>
       </c>
       <c r="C181" t="n">
         <v>54.43</v>
@@ -6783,13 +6973,13 @@
         <v>54.43</v>
       </c>
       <c r="E181" t="n">
-        <v>54.43</v>
+        <v>54.38</v>
       </c>
       <c r="F181" t="n">
-        <v>7304.4902</v>
+        <v>23591.2703</v>
       </c>
       <c r="G181" t="n">
-        <v>54.142</v>
+        <v>54.13500000000001</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6799,7 +6989,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6821,10 +7015,10 @@
         <v>54.43</v>
       </c>
       <c r="F182" t="n">
-        <v>9890.844499999999</v>
+        <v>7304.4902</v>
       </c>
       <c r="G182" t="n">
-        <v>54.14899999999999</v>
+        <v>54.142</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6834,7 +7028,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6844,22 +7042,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>54.38</v>
+        <v>54.43</v>
       </c>
       <c r="C183" t="n">
-        <v>54.38</v>
+        <v>54.43</v>
       </c>
       <c r="D183" t="n">
-        <v>54.38</v>
+        <v>54.43</v>
       </c>
       <c r="E183" t="n">
-        <v>54.38</v>
+        <v>54.43</v>
       </c>
       <c r="F183" t="n">
-        <v>1912.204</v>
+        <v>9890.844499999999</v>
       </c>
       <c r="G183" t="n">
-        <v>54.15533333333333</v>
+        <v>54.14899999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6869,7 +7067,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6891,10 +7093,10 @@
         <v>54.38</v>
       </c>
       <c r="F184" t="n">
-        <v>107.0238</v>
+        <v>1912.204</v>
       </c>
       <c r="G184" t="n">
-        <v>54.16166666666666</v>
+        <v>54.15533333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6904,7 +7106,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6914,22 +7120,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>54.43</v>
+        <v>54.38</v>
       </c>
       <c r="C185" t="n">
-        <v>54.43</v>
+        <v>54.38</v>
       </c>
       <c r="D185" t="n">
-        <v>54.43</v>
+        <v>54.38</v>
       </c>
       <c r="E185" t="n">
-        <v>54.43</v>
+        <v>54.38</v>
       </c>
       <c r="F185" t="n">
-        <v>19363.09</v>
+        <v>107.0238</v>
       </c>
       <c r="G185" t="n">
-        <v>54.16883333333332</v>
+        <v>54.16166666666666</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6939,7 +7145,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6961,10 +7171,10 @@
         <v>54.43</v>
       </c>
       <c r="F186" t="n">
-        <v>1189.2551</v>
+        <v>19363.09</v>
       </c>
       <c r="G186" t="n">
-        <v>54.17599999999999</v>
+        <v>54.16883333333332</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6974,7 +7184,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6984,22 +7198,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>54.51</v>
+        <v>54.43</v>
       </c>
       <c r="C187" t="n">
-        <v>54.5</v>
+        <v>54.43</v>
       </c>
       <c r="D187" t="n">
-        <v>54.51</v>
+        <v>54.43</v>
       </c>
       <c r="E187" t="n">
-        <v>54.5</v>
+        <v>54.43</v>
       </c>
       <c r="F187" t="n">
-        <v>2607.6083</v>
+        <v>1189.2551</v>
       </c>
       <c r="G187" t="n">
-        <v>54.18433333333333</v>
+        <v>54.17599999999999</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7009,7 +7223,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7019,22 +7237,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>54.58</v>
+        <v>54.51</v>
       </c>
       <c r="C188" t="n">
         <v>54.5</v>
       </c>
       <c r="D188" t="n">
-        <v>54.58</v>
+        <v>54.51</v>
       </c>
       <c r="E188" t="n">
         <v>54.5</v>
       </c>
       <c r="F188" t="n">
-        <v>842.2916</v>
+        <v>2607.6083</v>
       </c>
       <c r="G188" t="n">
-        <v>54.19283333333333</v>
+        <v>54.18433333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7044,7 +7262,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7054,22 +7276,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>54.5</v>
+        <v>54.58</v>
       </c>
       <c r="C189" t="n">
         <v>54.5</v>
       </c>
       <c r="D189" t="n">
-        <v>54.5</v>
+        <v>54.58</v>
       </c>
       <c r="E189" t="n">
         <v>54.5</v>
       </c>
       <c r="F189" t="n">
-        <v>5419.1627</v>
+        <v>842.2916</v>
       </c>
       <c r="G189" t="n">
-        <v>54.20133333333333</v>
+        <v>54.19283333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7079,7 +7301,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7089,22 +7315,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>54.73</v>
+        <v>54.5</v>
       </c>
       <c r="C190" t="n">
-        <v>54.71</v>
+        <v>54.5</v>
       </c>
       <c r="D190" t="n">
-        <v>54.73</v>
+        <v>54.5</v>
       </c>
       <c r="E190" t="n">
-        <v>54.53</v>
+        <v>54.5</v>
       </c>
       <c r="F190" t="n">
-        <v>46559.5871</v>
+        <v>5419.1627</v>
       </c>
       <c r="G190" t="n">
-        <v>54.21333333333334</v>
+        <v>54.20133333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7114,7 +7340,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7124,22 +7354,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>54.5</v>
+        <v>54.73</v>
       </c>
       <c r="C191" t="n">
-        <v>54.5</v>
+        <v>54.71</v>
       </c>
       <c r="D191" t="n">
-        <v>54.5</v>
+        <v>54.73</v>
       </c>
       <c r="E191" t="n">
-        <v>54.5</v>
+        <v>54.53</v>
       </c>
       <c r="F191" t="n">
-        <v>1322.5793</v>
+        <v>46559.5871</v>
       </c>
       <c r="G191" t="n">
-        <v>54.22183333333334</v>
+        <v>54.21333333333334</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7149,7 +7379,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7171,10 +7405,10 @@
         <v>54.5</v>
       </c>
       <c r="F192" t="n">
-        <v>8696.060100000001</v>
+        <v>1322.5793</v>
       </c>
       <c r="G192" t="n">
-        <v>54.23033333333334</v>
+        <v>54.22183333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7184,7 +7418,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7194,22 +7432,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>54.45</v>
+        <v>54.5</v>
       </c>
       <c r="C193" t="n">
-        <v>54.43</v>
+        <v>54.5</v>
       </c>
       <c r="D193" t="n">
-        <v>54.45</v>
+        <v>54.5</v>
       </c>
       <c r="E193" t="n">
-        <v>54.43</v>
+        <v>54.5</v>
       </c>
       <c r="F193" t="n">
-        <v>1446.2659</v>
+        <v>8696.060100000001</v>
       </c>
       <c r="G193" t="n">
-        <v>54.23766666666668</v>
+        <v>54.23033333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7219,7 +7457,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7229,22 +7471,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>54.43</v>
+        <v>54.45</v>
       </c>
       <c r="C194" t="n">
         <v>54.43</v>
       </c>
       <c r="D194" t="n">
-        <v>54.43</v>
+        <v>54.45</v>
       </c>
       <c r="E194" t="n">
         <v>54.43</v>
       </c>
       <c r="F194" t="n">
-        <v>826.4662</v>
+        <v>1446.2659</v>
       </c>
       <c r="G194" t="n">
-        <v>54.24483333333334</v>
+        <v>54.23766666666668</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7254,7 +7496,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7264,22 +7510,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>54.38</v>
+        <v>54.43</v>
       </c>
       <c r="C195" t="n">
-        <v>54.38</v>
+        <v>54.43</v>
       </c>
       <c r="D195" t="n">
-        <v>54.38</v>
+        <v>54.43</v>
       </c>
       <c r="E195" t="n">
-        <v>54.38</v>
+        <v>54.43</v>
       </c>
       <c r="F195" t="n">
-        <v>350.247</v>
+        <v>826.4662</v>
       </c>
       <c r="G195" t="n">
-        <v>54.25116666666668</v>
+        <v>54.24483333333334</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7289,7 +7535,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7311,10 +7561,10 @@
         <v>54.38</v>
       </c>
       <c r="F196" t="n">
-        <v>6065.1854</v>
+        <v>350.247</v>
       </c>
       <c r="G196" t="n">
-        <v>54.25383333333335</v>
+        <v>54.25116666666668</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7324,7 +7574,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7346,10 +7600,10 @@
         <v>54.38</v>
       </c>
       <c r="F197" t="n">
-        <v>2631.7616</v>
+        <v>6065.1854</v>
       </c>
       <c r="G197" t="n">
-        <v>54.25650000000002</v>
+        <v>54.25383333333335</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7359,7 +7613,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7369,22 +7627,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>54.5</v>
+        <v>54.38</v>
       </c>
       <c r="C198" t="n">
-        <v>54.5</v>
+        <v>54.38</v>
       </c>
       <c r="D198" t="n">
-        <v>54.5</v>
+        <v>54.38</v>
       </c>
       <c r="E198" t="n">
-        <v>54.5</v>
+        <v>54.38</v>
       </c>
       <c r="F198" t="n">
-        <v>200</v>
+        <v>2631.7616</v>
       </c>
       <c r="G198" t="n">
-        <v>54.26283333333335</v>
+        <v>54.25650000000002</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7394,7 +7652,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7404,22 +7666,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>54.38</v>
+        <v>54.5</v>
       </c>
       <c r="C199" t="n">
-        <v>54.38</v>
+        <v>54.5</v>
       </c>
       <c r="D199" t="n">
-        <v>54.38</v>
+        <v>54.5</v>
       </c>
       <c r="E199" t="n">
-        <v>54.38</v>
+        <v>54.5</v>
       </c>
       <c r="F199" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G199" t="n">
-        <v>54.26800000000002</v>
+        <v>54.26283333333335</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7429,7 +7691,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7451,10 +7717,10 @@
         <v>54.38</v>
       </c>
       <c r="F200" t="n">
-        <v>1916</v>
+        <v>10</v>
       </c>
       <c r="G200" t="n">
-        <v>54.27250000000002</v>
+        <v>54.26800000000002</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7464,7 +7730,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7486,10 +7756,10 @@
         <v>54.38</v>
       </c>
       <c r="F201" t="n">
-        <v>3194.5986</v>
+        <v>1916</v>
       </c>
       <c r="G201" t="n">
-        <v>54.27433333333336</v>
+        <v>54.27250000000002</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7499,7 +7769,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7521,10 +7795,10 @@
         <v>54.38</v>
       </c>
       <c r="F202" t="n">
-        <v>1059.427</v>
+        <v>3194.5986</v>
       </c>
       <c r="G202" t="n">
-        <v>54.27883333333336</v>
+        <v>54.27433333333336</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7534,7 +7808,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7556,10 +7834,10 @@
         <v>54.38</v>
       </c>
       <c r="F203" t="n">
-        <v>3223.328</v>
+        <v>1059.427</v>
       </c>
       <c r="G203" t="n">
-        <v>54.28400000000002</v>
+        <v>54.27883333333336</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7569,7 +7847,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7591,10 +7873,10 @@
         <v>54.38</v>
       </c>
       <c r="F204" t="n">
-        <v>0.0001</v>
+        <v>3223.328</v>
       </c>
       <c r="G204" t="n">
-        <v>54.29016666666669</v>
+        <v>54.28400000000002</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7604,7 +7886,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7614,22 +7900,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>54.31</v>
+        <v>54.38</v>
       </c>
       <c r="C205" t="n">
-        <v>54.31</v>
+        <v>54.38</v>
       </c>
       <c r="D205" t="n">
-        <v>54.31</v>
+        <v>54.38</v>
       </c>
       <c r="E205" t="n">
-        <v>54.31</v>
+        <v>54.38</v>
       </c>
       <c r="F205" t="n">
-        <v>1000</v>
+        <v>0.0001</v>
       </c>
       <c r="G205" t="n">
-        <v>54.29350000000002</v>
+        <v>54.29016666666669</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7639,7 +7925,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7649,22 +7939,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>54.32</v>
+        <v>54.31</v>
       </c>
       <c r="C206" t="n">
         <v>54.31</v>
       </c>
       <c r="D206" t="n">
-        <v>54.32</v>
+        <v>54.31</v>
       </c>
       <c r="E206" t="n">
         <v>54.31</v>
       </c>
       <c r="F206" t="n">
-        <v>14147.3757</v>
+        <v>1000</v>
       </c>
       <c r="G206" t="n">
-        <v>54.29683333333335</v>
+        <v>54.29350000000002</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7674,7 +7964,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7684,22 +7978,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>54.5</v>
+        <v>54.32</v>
       </c>
       <c r="C207" t="n">
-        <v>54.5</v>
+        <v>54.31</v>
       </c>
       <c r="D207" t="n">
-        <v>54.5</v>
+        <v>54.32</v>
       </c>
       <c r="E207" t="n">
-        <v>54.5</v>
+        <v>54.31</v>
       </c>
       <c r="F207" t="n">
-        <v>839.0473</v>
+        <v>14147.3757</v>
       </c>
       <c r="G207" t="n">
-        <v>54.30500000000001</v>
+        <v>54.29683333333335</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7709,7 +8003,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7731,10 +8029,10 @@
         <v>54.5</v>
       </c>
       <c r="F208" t="n">
-        <v>352.279</v>
+        <v>839.0473</v>
       </c>
       <c r="G208" t="n">
-        <v>54.31316666666667</v>
+        <v>54.30500000000001</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7744,7 +8042,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7754,22 +8056,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="C209" t="n">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="D209" t="n">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="E209" t="n">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="F209" t="n">
-        <v>54</v>
+        <v>352.279</v>
       </c>
       <c r="G209" t="n">
-        <v>54.31966666666667</v>
+        <v>54.31316666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7779,7 +8081,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7789,22 +8095,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>54.5</v>
+        <v>54.4</v>
       </c>
       <c r="C210" t="n">
-        <v>54.52</v>
+        <v>54.4</v>
       </c>
       <c r="D210" t="n">
-        <v>54.52</v>
+        <v>54.4</v>
       </c>
       <c r="E210" t="n">
-        <v>54.5</v>
+        <v>54.4</v>
       </c>
       <c r="F210" t="n">
-        <v>254.541</v>
+        <v>54</v>
       </c>
       <c r="G210" t="n">
-        <v>54.32816666666667</v>
+        <v>54.31966666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7814,7 +8120,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7824,22 +8134,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>54.44</v>
+        <v>54.5</v>
       </c>
       <c r="C211" t="n">
-        <v>54.32</v>
+        <v>54.52</v>
       </c>
       <c r="D211" t="n">
-        <v>54.44</v>
+        <v>54.52</v>
       </c>
       <c r="E211" t="n">
-        <v>54.32</v>
+        <v>54.5</v>
       </c>
       <c r="F211" t="n">
-        <v>980.9944</v>
+        <v>254.541</v>
       </c>
       <c r="G211" t="n">
-        <v>54.33333333333334</v>
+        <v>54.32816666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7849,7 +8159,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7859,22 +8173,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>54.3</v>
+        <v>54.44</v>
       </c>
       <c r="C212" t="n">
-        <v>54.3</v>
+        <v>54.32</v>
       </c>
       <c r="D212" t="n">
-        <v>54.3</v>
+        <v>54.44</v>
       </c>
       <c r="E212" t="n">
-        <v>54.3</v>
+        <v>54.32</v>
       </c>
       <c r="F212" t="n">
-        <v>53029.4753</v>
+        <v>980.9944</v>
       </c>
       <c r="G212" t="n">
-        <v>54.3375</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7884,7 +8198,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7894,22 +8212,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>54.61</v>
+        <v>54.3</v>
       </c>
       <c r="C213" t="n">
-        <v>54.61</v>
+        <v>54.3</v>
       </c>
       <c r="D213" t="n">
-        <v>54.61</v>
+        <v>54.3</v>
       </c>
       <c r="E213" t="n">
-        <v>54.61</v>
+        <v>54.3</v>
       </c>
       <c r="F213" t="n">
-        <v>1800</v>
+        <v>53029.4753</v>
       </c>
       <c r="G213" t="n">
-        <v>54.34683333333333</v>
+        <v>54.3375</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7919,7 +8237,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7929,22 +8251,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>54.59</v>
+        <v>54.61</v>
       </c>
       <c r="C214" t="n">
-        <v>54.69</v>
+        <v>54.61</v>
       </c>
       <c r="D214" t="n">
-        <v>54.69</v>
+        <v>54.61</v>
       </c>
       <c r="E214" t="n">
-        <v>54.59</v>
+        <v>54.61</v>
       </c>
       <c r="F214" t="n">
-        <v>365.92064362</v>
+        <v>1800</v>
       </c>
       <c r="G214" t="n">
-        <v>54.35749999999999</v>
+        <v>54.34683333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7954,7 +8276,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7964,22 +8290,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>54.67</v>
+        <v>54.59</v>
       </c>
       <c r="C215" t="n">
-        <v>54.67</v>
+        <v>54.69</v>
       </c>
       <c r="D215" t="n">
-        <v>54.67</v>
+        <v>54.69</v>
       </c>
       <c r="E215" t="n">
-        <v>54.67</v>
+        <v>54.59</v>
       </c>
       <c r="F215" t="n">
-        <v>25472.179</v>
+        <v>365.92064362</v>
       </c>
       <c r="G215" t="n">
-        <v>54.3705</v>
+        <v>54.35749999999999</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7989,7 +8315,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8011,10 +8341,10 @@
         <v>54.67</v>
       </c>
       <c r="F216" t="n">
-        <v>12859.1</v>
+        <v>25472.179</v>
       </c>
       <c r="G216" t="n">
-        <v>54.38366666666666</v>
+        <v>54.3705</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8024,7 +8354,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8034,22 +8368,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>54.77</v>
+        <v>54.67</v>
       </c>
       <c r="C217" t="n">
-        <v>54.77</v>
+        <v>54.67</v>
       </c>
       <c r="D217" t="n">
-        <v>54.77</v>
+        <v>54.67</v>
       </c>
       <c r="E217" t="n">
-        <v>54.77</v>
+        <v>54.67</v>
       </c>
       <c r="F217" t="n">
-        <v>1490</v>
+        <v>12859.1</v>
       </c>
       <c r="G217" t="n">
-        <v>54.3985</v>
+        <v>54.38366666666666</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8059,7 +8393,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8069,22 +8407,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>54.89</v>
+        <v>54.77</v>
       </c>
       <c r="C218" t="n">
-        <v>54.89</v>
+        <v>54.77</v>
       </c>
       <c r="D218" t="n">
-        <v>54.89</v>
+        <v>54.77</v>
       </c>
       <c r="E218" t="n">
-        <v>54.89</v>
+        <v>54.77</v>
       </c>
       <c r="F218" t="n">
-        <v>45.45925469</v>
+        <v>1490</v>
       </c>
       <c r="G218" t="n">
-        <v>54.41183333333333</v>
+        <v>54.3985</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8094,7 +8432,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8104,22 +8446,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>54.87</v>
+        <v>54.89</v>
       </c>
       <c r="C219" t="n">
-        <v>54.87</v>
+        <v>54.89</v>
       </c>
       <c r="D219" t="n">
-        <v>54.87</v>
+        <v>54.89</v>
       </c>
       <c r="E219" t="n">
-        <v>54.87</v>
+        <v>54.89</v>
       </c>
       <c r="F219" t="n">
-        <v>6232.65901221</v>
+        <v>45.45925469</v>
       </c>
       <c r="G219" t="n">
-        <v>54.42299999999999</v>
+        <v>54.41183333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8129,7 +8471,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8139,32 +8485,36 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>54.83</v>
+        <v>54.87</v>
       </c>
       <c r="C220" t="n">
-        <v>54.83</v>
+        <v>54.87</v>
       </c>
       <c r="D220" t="n">
-        <v>54.83</v>
+        <v>54.87</v>
       </c>
       <c r="E220" t="n">
-        <v>54.83</v>
+        <v>54.87</v>
       </c>
       <c r="F220" t="n">
-        <v>1602</v>
+        <v>6232.65901221</v>
       </c>
       <c r="G220" t="n">
-        <v>54.4335</v>
+        <v>54.42299999999999</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8186,23 +8536,25 @@
         <v>54.83</v>
       </c>
       <c r="F221" t="n">
-        <v>566.692</v>
+        <v>1602</v>
       </c>
       <c r="G221" t="n">
-        <v>54.44383333333333</v>
+        <v>54.4335</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8212,19 +8564,19 @@
         <v>54.83</v>
       </c>
       <c r="C222" t="n">
-        <v>54.68</v>
+        <v>54.83</v>
       </c>
       <c r="D222" t="n">
         <v>54.83</v>
       </c>
       <c r="E222" t="n">
-        <v>54.68</v>
+        <v>54.83</v>
       </c>
       <c r="F222" t="n">
-        <v>18800</v>
+        <v>566.692</v>
       </c>
       <c r="G222" t="n">
-        <v>54.44916666666666</v>
+        <v>54.44383333333333</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8244,28 +8596,28 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>54.71</v>
+        <v>54.83</v>
       </c>
       <c r="C223" t="n">
-        <v>54.71</v>
+        <v>54.68</v>
       </c>
       <c r="D223" t="n">
-        <v>54.71</v>
+        <v>54.83</v>
       </c>
       <c r="E223" t="n">
-        <v>54.71</v>
+        <v>54.68</v>
       </c>
       <c r="F223" t="n">
-        <v>2580.9</v>
+        <v>18800</v>
       </c>
       <c r="G223" t="n">
-        <v>54.45349999999999</v>
+        <v>54.44916666666666</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
@@ -8282,19 +8634,19 @@
         <v>54.71</v>
       </c>
       <c r="C224" t="n">
-        <v>54.7</v>
+        <v>54.71</v>
       </c>
       <c r="D224" t="n">
         <v>54.71</v>
       </c>
       <c r="E224" t="n">
-        <v>54.7</v>
+        <v>54.71</v>
       </c>
       <c r="F224" t="n">
-        <v>23257.1148</v>
+        <v>2580.9</v>
       </c>
       <c r="G224" t="n">
-        <v>54.45916666666665</v>
+        <v>54.45349999999999</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8314,22 +8666,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>54.7</v>
+        <v>54.71</v>
       </c>
       <c r="C225" t="n">
         <v>54.7</v>
       </c>
       <c r="D225" t="n">
-        <v>54.7</v>
+        <v>54.71</v>
       </c>
       <c r="E225" t="n">
         <v>54.7</v>
       </c>
       <c r="F225" t="n">
-        <v>2894.4585</v>
+        <v>23257.1148</v>
       </c>
       <c r="G225" t="n">
-        <v>54.46483333333332</v>
+        <v>54.45916666666665</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8361,10 +8713,10 @@
         <v>54.7</v>
       </c>
       <c r="F226" t="n">
-        <v>24552</v>
+        <v>2894.4585</v>
       </c>
       <c r="G226" t="n">
-        <v>54.47416666666665</v>
+        <v>54.46483333333332</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8396,10 +8748,10 @@
         <v>54.7</v>
       </c>
       <c r="F227" t="n">
-        <v>2936.8148</v>
+        <v>24552</v>
       </c>
       <c r="G227" t="n">
-        <v>54.48166666666665</v>
+        <v>54.47416666666665</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8431,10 +8783,10 @@
         <v>54.7</v>
       </c>
       <c r="F228" t="n">
-        <v>35184.0457</v>
+        <v>2936.8148</v>
       </c>
       <c r="G228" t="n">
-        <v>54.48616666666665</v>
+        <v>54.48166666666665</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8457,19 +8809,19 @@
         <v>54.7</v>
       </c>
       <c r="C229" t="n">
-        <v>54.68</v>
+        <v>54.7</v>
       </c>
       <c r="D229" t="n">
         <v>54.7</v>
       </c>
       <c r="E229" t="n">
-        <v>54.68</v>
+        <v>54.7</v>
       </c>
       <c r="F229" t="n">
-        <v>81370.141</v>
+        <v>35184.0457</v>
       </c>
       <c r="G229" t="n">
-        <v>54.49249999999997</v>
+        <v>54.48616666666665</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8489,22 +8841,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>54.54</v>
+        <v>54.7</v>
       </c>
       <c r="C230" t="n">
-        <v>54.46</v>
+        <v>54.68</v>
       </c>
       <c r="D230" t="n">
-        <v>54.54</v>
+        <v>54.7</v>
       </c>
       <c r="E230" t="n">
-        <v>54.46</v>
+        <v>54.68</v>
       </c>
       <c r="F230" t="n">
-        <v>36700</v>
+        <v>81370.141</v>
       </c>
       <c r="G230" t="n">
-        <v>54.49166666666664</v>
+        <v>54.49249999999997</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8524,22 +8876,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>54.46</v>
+        <v>54.54</v>
       </c>
       <c r="C231" t="n">
         <v>54.46</v>
       </c>
       <c r="D231" t="n">
-        <v>54.46</v>
+        <v>54.54</v>
       </c>
       <c r="E231" t="n">
         <v>54.46</v>
       </c>
       <c r="F231" t="n">
-        <v>59.9136</v>
+        <v>36700</v>
       </c>
       <c r="G231" t="n">
-        <v>54.49566666666664</v>
+        <v>54.49166666666664</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8559,22 +8911,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>54.61</v>
+        <v>54.46</v>
       </c>
       <c r="C232" t="n">
-        <v>54.61</v>
+        <v>54.46</v>
       </c>
       <c r="D232" t="n">
-        <v>54.61</v>
+        <v>54.46</v>
       </c>
       <c r="E232" t="n">
-        <v>54.61</v>
+        <v>54.46</v>
       </c>
       <c r="F232" t="n">
-        <v>913.29426844</v>
+        <v>59.9136</v>
       </c>
       <c r="G232" t="n">
-        <v>54.50249999999998</v>
+        <v>54.49566666666664</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8594,22 +8946,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>54.46</v>
+        <v>54.61</v>
       </c>
       <c r="C233" t="n">
-        <v>54.46</v>
+        <v>54.61</v>
       </c>
       <c r="D233" t="n">
-        <v>54.46</v>
+        <v>54.61</v>
       </c>
       <c r="E233" t="n">
-        <v>54.46</v>
+        <v>54.61</v>
       </c>
       <c r="F233" t="n">
-        <v>10500</v>
+        <v>913.29426844</v>
       </c>
       <c r="G233" t="n">
-        <v>54.50683333333332</v>
+        <v>54.50249999999998</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8641,10 +8993,10 @@
         <v>54.46</v>
       </c>
       <c r="F234" t="n">
-        <v>56.075</v>
+        <v>10500</v>
       </c>
       <c r="G234" t="n">
-        <v>54.50899999999999</v>
+        <v>54.50683333333332</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8676,10 +9028,10 @@
         <v>54.46</v>
       </c>
       <c r="F235" t="n">
-        <v>1060</v>
+        <v>56.075</v>
       </c>
       <c r="G235" t="n">
-        <v>54.51116666666665</v>
+        <v>54.50899999999999</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8711,10 +9063,10 @@
         <v>54.46</v>
       </c>
       <c r="F236" t="n">
-        <v>757.6686999999999</v>
+        <v>1060</v>
       </c>
       <c r="G236" t="n">
-        <v>54.51483333333332</v>
+        <v>54.51116666666665</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8734,22 +9086,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>54.47</v>
+        <v>54.46</v>
       </c>
       <c r="C237" t="n">
-        <v>54.47</v>
+        <v>54.46</v>
       </c>
       <c r="D237" t="n">
-        <v>54.47</v>
+        <v>54.46</v>
       </c>
       <c r="E237" t="n">
-        <v>54.47</v>
+        <v>54.46</v>
       </c>
       <c r="F237" t="n">
-        <v>1182.4935</v>
+        <v>757.6686999999999</v>
       </c>
       <c r="G237" t="n">
-        <v>54.51766666666665</v>
+        <v>54.51483333333332</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8781,10 +9133,10 @@
         <v>54.47</v>
       </c>
       <c r="F238" t="n">
-        <v>627.0188000000001</v>
+        <v>1182.4935</v>
       </c>
       <c r="G238" t="n">
-        <v>54.51916666666664</v>
+        <v>54.51766666666665</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8807,19 +9159,19 @@
         <v>54.47</v>
       </c>
       <c r="C239" t="n">
-        <v>54.44</v>
+        <v>54.47</v>
       </c>
       <c r="D239" t="n">
         <v>54.47</v>
       </c>
       <c r="E239" t="n">
-        <v>54.44</v>
+        <v>54.47</v>
       </c>
       <c r="F239" t="n">
-        <v>608</v>
+        <v>627.0188000000001</v>
       </c>
       <c r="G239" t="n">
-        <v>54.52016666666665</v>
+        <v>54.51916666666664</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8842,19 +9194,19 @@
         <v>54.47</v>
       </c>
       <c r="C240" t="n">
-        <v>54.47</v>
+        <v>54.44</v>
       </c>
       <c r="D240" t="n">
         <v>54.47</v>
       </c>
       <c r="E240" t="n">
-        <v>54.47</v>
+        <v>54.44</v>
       </c>
       <c r="F240" t="n">
-        <v>595.894</v>
+        <v>608</v>
       </c>
       <c r="G240" t="n">
-        <v>54.52083333333331</v>
+        <v>54.52016666666665</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8874,19 +9226,19 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>54.41</v>
+        <v>54.47</v>
       </c>
       <c r="C241" t="n">
-        <v>54.43</v>
+        <v>54.47</v>
       </c>
       <c r="D241" t="n">
-        <v>54.43</v>
+        <v>54.47</v>
       </c>
       <c r="E241" t="n">
-        <v>54.41</v>
+        <v>54.47</v>
       </c>
       <c r="F241" t="n">
-        <v>1089.9404</v>
+        <v>595.894</v>
       </c>
       <c r="G241" t="n">
         <v>54.52083333333331</v>
@@ -8909,22 +9261,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>54.33</v>
+        <v>54.41</v>
       </c>
       <c r="C242" t="n">
-        <v>54.33</v>
+        <v>54.43</v>
       </c>
       <c r="D242" t="n">
-        <v>54.33</v>
+        <v>54.43</v>
       </c>
       <c r="E242" t="n">
-        <v>54.32</v>
+        <v>54.41</v>
       </c>
       <c r="F242" t="n">
-        <v>25347.603</v>
+        <v>1089.9404</v>
       </c>
       <c r="G242" t="n">
-        <v>54.51916666666664</v>
+        <v>54.52083333333331</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8953,13 +9305,13 @@
         <v>54.33</v>
       </c>
       <c r="E243" t="n">
-        <v>54.33</v>
+        <v>54.32</v>
       </c>
       <c r="F243" t="n">
-        <v>120.2867</v>
+        <v>25347.603</v>
       </c>
       <c r="G243" t="n">
-        <v>54.51833333333331</v>
+        <v>54.51916666666664</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8979,22 +9331,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>54.4</v>
+        <v>54.33</v>
       </c>
       <c r="C244" t="n">
-        <v>54.34</v>
+        <v>54.33</v>
       </c>
       <c r="D244" t="n">
-        <v>54.4</v>
+        <v>54.33</v>
       </c>
       <c r="E244" t="n">
-        <v>54.34</v>
+        <v>54.33</v>
       </c>
       <c r="F244" t="n">
-        <v>58192.9103</v>
+        <v>120.2867</v>
       </c>
       <c r="G244" t="n">
-        <v>54.51766666666664</v>
+        <v>54.51833333333331</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9014,22 +9366,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>54.58</v>
+        <v>54.4</v>
       </c>
       <c r="C245" t="n">
-        <v>54.58</v>
+        <v>54.34</v>
       </c>
       <c r="D245" t="n">
-        <v>54.58</v>
+        <v>54.4</v>
       </c>
       <c r="E245" t="n">
-        <v>54.58</v>
+        <v>54.34</v>
       </c>
       <c r="F245" t="n">
-        <v>366.43459142</v>
+        <v>58192.9103</v>
       </c>
       <c r="G245" t="n">
-        <v>54.52016666666665</v>
+        <v>54.51766666666664</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9049,22 +9401,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>54.57</v>
+        <v>54.58</v>
       </c>
       <c r="C246" t="n">
-        <v>54.6</v>
+        <v>54.58</v>
       </c>
       <c r="D246" t="n">
-        <v>54.6</v>
+        <v>54.58</v>
       </c>
       <c r="E246" t="n">
-        <v>54.56</v>
+        <v>54.58</v>
       </c>
       <c r="F246" t="n">
-        <v>84174.62193787</v>
+        <v>366.43459142</v>
       </c>
       <c r="G246" t="n">
-        <v>54.52299999999998</v>
+        <v>54.52016666666665</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9084,22 +9436,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>54.56</v>
+        <v>54.57</v>
       </c>
       <c r="C247" t="n">
-        <v>54.56</v>
+        <v>54.6</v>
       </c>
       <c r="D247" t="n">
-        <v>54.56</v>
+        <v>54.6</v>
       </c>
       <c r="E247" t="n">
         <v>54.56</v>
       </c>
       <c r="F247" t="n">
-        <v>2705.7</v>
+        <v>84174.62193787</v>
       </c>
       <c r="G247" t="n">
-        <v>54.52399999999998</v>
+        <v>54.52299999999998</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9131,10 +9483,10 @@
         <v>54.56</v>
       </c>
       <c r="F248" t="n">
-        <v>2327.3</v>
+        <v>2705.7</v>
       </c>
       <c r="G248" t="n">
-        <v>54.52499999999998</v>
+        <v>54.52399999999998</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9166,10 +9518,10 @@
         <v>54.56</v>
       </c>
       <c r="F249" t="n">
-        <v>613.8193</v>
+        <v>2327.3</v>
       </c>
       <c r="G249" t="n">
-        <v>54.52599999999997</v>
+        <v>54.52499999999998</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9189,22 +9541,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>54.55</v>
+        <v>54.56</v>
       </c>
       <c r="C250" t="n">
-        <v>54.55</v>
+        <v>54.56</v>
       </c>
       <c r="D250" t="n">
-        <v>54.55</v>
+        <v>54.56</v>
       </c>
       <c r="E250" t="n">
-        <v>54.55</v>
+        <v>54.56</v>
       </c>
       <c r="F250" t="n">
-        <v>1105</v>
+        <v>613.8193</v>
       </c>
       <c r="G250" t="n">
-        <v>54.52333333333331</v>
+        <v>54.52599999999997</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9224,22 +9576,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>54.54</v>
+        <v>54.55</v>
       </c>
       <c r="C251" t="n">
-        <v>54.54</v>
+        <v>54.55</v>
       </c>
       <c r="D251" t="n">
-        <v>54.54</v>
+        <v>54.55</v>
       </c>
       <c r="E251" t="n">
-        <v>54.54</v>
+        <v>54.55</v>
       </c>
       <c r="F251" t="n">
-        <v>100</v>
+        <v>1105</v>
       </c>
       <c r="G251" t="n">
-        <v>54.52399999999998</v>
+        <v>54.52333333333331</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9259,22 +9611,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>54.44</v>
+        <v>54.54</v>
       </c>
       <c r="C252" t="n">
-        <v>54.44</v>
+        <v>54.54</v>
       </c>
       <c r="D252" t="n">
-        <v>54.44</v>
+        <v>54.54</v>
       </c>
       <c r="E252" t="n">
-        <v>54.44</v>
+        <v>54.54</v>
       </c>
       <c r="F252" t="n">
-        <v>16835.0879</v>
+        <v>100</v>
       </c>
       <c r="G252" t="n">
-        <v>54.52299999999998</v>
+        <v>54.52399999999998</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9306,10 +9658,10 @@
         <v>54.44</v>
       </c>
       <c r="F253" t="n">
-        <v>5252.7516</v>
+        <v>16835.0879</v>
       </c>
       <c r="G253" t="n">
-        <v>54.52316666666665</v>
+        <v>54.52299999999998</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9341,10 +9693,10 @@
         <v>54.44</v>
       </c>
       <c r="F254" t="n">
-        <v>50</v>
+        <v>5252.7516</v>
       </c>
       <c r="G254" t="n">
-        <v>54.52333333333332</v>
+        <v>54.52316666666665</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9376,10 +9728,10 @@
         <v>54.44</v>
       </c>
       <c r="F255" t="n">
-        <v>613.61</v>
+        <v>50</v>
       </c>
       <c r="G255" t="n">
-        <v>54.52433333333332</v>
+        <v>54.52333333333332</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9411,10 +9763,10 @@
         <v>54.44</v>
       </c>
       <c r="F256" t="n">
-        <v>1662.6526</v>
+        <v>613.61</v>
       </c>
       <c r="G256" t="n">
-        <v>54.52533333333331</v>
+        <v>54.52433333333332</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9437,19 +9789,19 @@
         <v>54.44</v>
       </c>
       <c r="C257" t="n">
-        <v>54.49</v>
+        <v>54.44</v>
       </c>
       <c r="D257" t="n">
-        <v>54.49</v>
+        <v>54.44</v>
       </c>
       <c r="E257" t="n">
         <v>54.44</v>
       </c>
       <c r="F257" t="n">
-        <v>783</v>
+        <v>1662.6526</v>
       </c>
       <c r="G257" t="n">
-        <v>54.52716666666664</v>
+        <v>54.52533333333331</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9469,22 +9821,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>54.6</v>
+        <v>54.44</v>
       </c>
       <c r="C258" t="n">
-        <v>54.6</v>
+        <v>54.49</v>
       </c>
       <c r="D258" t="n">
-        <v>54.6</v>
+        <v>54.49</v>
       </c>
       <c r="E258" t="n">
-        <v>54.6</v>
+        <v>54.44</v>
       </c>
       <c r="F258" t="n">
-        <v>163.8456</v>
+        <v>783</v>
       </c>
       <c r="G258" t="n">
-        <v>54.52883333333331</v>
+        <v>54.52716666666664</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9504,22 +9856,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>54.47</v>
+        <v>54.6</v>
       </c>
       <c r="C259" t="n">
-        <v>54.47</v>
+        <v>54.6</v>
       </c>
       <c r="D259" t="n">
-        <v>54.47</v>
+        <v>54.6</v>
       </c>
       <c r="E259" t="n">
-        <v>54.47</v>
+        <v>54.6</v>
       </c>
       <c r="F259" t="n">
-        <v>672</v>
+        <v>163.8456</v>
       </c>
       <c r="G259" t="n">
-        <v>54.5303333333333</v>
+        <v>54.52883333333331</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9539,22 +9891,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>54.49</v>
+        <v>54.47</v>
       </c>
       <c r="C260" t="n">
-        <v>54.49</v>
+        <v>54.47</v>
       </c>
       <c r="D260" t="n">
-        <v>54.49</v>
+        <v>54.47</v>
       </c>
       <c r="E260" t="n">
-        <v>54.49</v>
+        <v>54.47</v>
       </c>
       <c r="F260" t="n">
-        <v>784</v>
+        <v>672</v>
       </c>
       <c r="G260" t="n">
-        <v>54.53216666666663</v>
+        <v>54.5303333333333</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9574,22 +9926,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>54.6</v>
+        <v>54.49</v>
       </c>
       <c r="C261" t="n">
-        <v>54.6</v>
+        <v>54.49</v>
       </c>
       <c r="D261" t="n">
-        <v>54.6</v>
+        <v>54.49</v>
       </c>
       <c r="E261" t="n">
-        <v>54.6</v>
+        <v>54.49</v>
       </c>
       <c r="F261" t="n">
-        <v>3666.3844</v>
+        <v>784</v>
       </c>
       <c r="G261" t="n">
-        <v>54.53583333333329</v>
+        <v>54.53216666666663</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9609,22 +9961,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>54.47</v>
+        <v>54.6</v>
       </c>
       <c r="C262" t="n">
-        <v>54.47</v>
+        <v>54.6</v>
       </c>
       <c r="D262" t="n">
-        <v>54.47</v>
+        <v>54.6</v>
       </c>
       <c r="E262" t="n">
-        <v>54.47</v>
+        <v>54.6</v>
       </c>
       <c r="F262" t="n">
-        <v>4105.662</v>
+        <v>3666.3844</v>
       </c>
       <c r="G262" t="n">
-        <v>54.53733333333329</v>
+        <v>54.53583333333329</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9647,19 +9999,19 @@
         <v>54.47</v>
       </c>
       <c r="C263" t="n">
-        <v>54.39</v>
+        <v>54.47</v>
       </c>
       <c r="D263" t="n">
         <v>54.47</v>
       </c>
       <c r="E263" t="n">
-        <v>54.39</v>
+        <v>54.47</v>
       </c>
       <c r="F263" t="n">
-        <v>21025.655</v>
+        <v>4105.662</v>
       </c>
       <c r="G263" t="n">
-        <v>54.53749999999995</v>
+        <v>54.53733333333329</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9674,6 +10026,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>54.47</v>
+      </c>
+      <c r="C264" t="n">
+        <v>54.39</v>
+      </c>
+      <c r="D264" t="n">
+        <v>54.47</v>
+      </c>
+      <c r="E264" t="n">
+        <v>54.39</v>
+      </c>
+      <c r="F264" t="n">
+        <v>21025.655</v>
+      </c>
+      <c r="G264" t="n">
+        <v>54.53749999999995</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-14 BackTest XLM.xlsx
+++ b/BackTest/2020-01-14 BackTest XLM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M264"/>
+  <dimension ref="A1:N274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>6196.7355</v>
       </c>
       <c r="G2" t="n">
+        <v>54.98466666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>55.04616666666665</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1298.1018</v>
       </c>
       <c r="G3" t="n">
+        <v>54.97733333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>55.04249999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>300</v>
       </c>
       <c r="G4" t="n">
+        <v>54.962</v>
+      </c>
+      <c r="H4" t="n">
         <v>55.03883333333332</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1338.422</v>
       </c>
       <c r="G5" t="n">
+        <v>54.94266666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>55.03183333333332</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>300</v>
       </c>
       <c r="G6" t="n">
+        <v>54.92733333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>55.02349999999998</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1561</v>
       </c>
       <c r="G7" t="n">
+        <v>54.91933333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>55.01749999999998</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1359.0751</v>
       </c>
       <c r="G8" t="n">
+        <v>54.908</v>
+      </c>
+      <c r="H8" t="n">
         <v>55.01199999999998</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1214.4417</v>
       </c>
       <c r="G9" t="n">
+        <v>54.89333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>55.00333333333332</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>503</v>
       </c>
       <c r="G10" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="H10" t="n">
         <v>54.99783333333332</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
+        <v>54.87333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>54.99299999999998</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>950</v>
       </c>
       <c r="G12" t="n">
+        <v>54.86466666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>54.98866666666665</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>14546.53421181</v>
       </c>
       <c r="G13" t="n">
+        <v>54.87199999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>54.98383333333332</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>205434.8891</v>
       </c>
       <c r="G14" t="n">
+        <v>54.86066666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>54.97666666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>517.266</v>
       </c>
       <c r="G15" t="n">
+        <v>54.86266666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>54.97583333333332</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>17975.7363</v>
       </c>
       <c r="G16" t="n">
+        <v>54.86666666666665</v>
+      </c>
+      <c r="H16" t="n">
         <v>54.97616666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2166.4255</v>
       </c>
       <c r="G17" t="n">
+        <v>54.87066666666665</v>
+      </c>
+      <c r="H17" t="n">
         <v>54.97533333333332</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>6556.9761</v>
       </c>
       <c r="G18" t="n">
+        <v>54.87466666666664</v>
+      </c>
+      <c r="H18" t="n">
         <v>54.97466666666665</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>7372.8441</v>
       </c>
       <c r="G19" t="n">
+        <v>54.88333333333331</v>
+      </c>
+      <c r="H19" t="n">
         <v>54.97683333333332</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2623.6729</v>
       </c>
       <c r="G20" t="n">
+        <v>54.89199999999997</v>
+      </c>
+      <c r="H20" t="n">
         <v>54.97766666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>49033.9754</v>
       </c>
       <c r="G21" t="n">
+        <v>54.90599999999998</v>
+      </c>
+      <c r="H21" t="n">
         <v>54.97849999999999</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>2100</v>
       </c>
       <c r="G22" t="n">
+        <v>54.91466666666665</v>
+      </c>
+      <c r="H22" t="n">
         <v>54.97766666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>11422.0892</v>
       </c>
       <c r="G23" t="n">
+        <v>54.92866666666665</v>
+      </c>
+      <c r="H23" t="n">
         <v>54.97849999999999</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>678.3747</v>
       </c>
       <c r="G24" t="n">
+        <v>54.94399999999998</v>
+      </c>
+      <c r="H24" t="n">
         <v>54.97933333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>11809.2521</v>
       </c>
       <c r="G25" t="n">
+        <v>54.95999999999999</v>
+      </c>
+      <c r="H25" t="n">
         <v>54.98016666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>4304.081</v>
       </c>
       <c r="G26" t="n">
+        <v>54.96666666666665</v>
+      </c>
+      <c r="H26" t="n">
         <v>54.97933333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>40325.4511</v>
       </c>
       <c r="G27" t="n">
+        <v>54.98266666666665</v>
+      </c>
+      <c r="H27" t="n">
         <v>54.98116666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>200000</v>
       </c>
       <c r="G28" t="n">
+        <v>54.98266666666665</v>
+      </c>
+      <c r="H28" t="n">
         <v>54.983</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>9515.771699999999</v>
       </c>
       <c r="G29" t="n">
+        <v>54.99799999999998</v>
+      </c>
+      <c r="H29" t="n">
         <v>54.98483333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>300.51</v>
       </c>
       <c r="G30" t="n">
+        <v>54.99999999999999</v>
+      </c>
+      <c r="H30" t="n">
         <v>54.98583333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>18.1819</v>
       </c>
       <c r="G31" t="n">
+        <v>54.99999999999999</v>
+      </c>
+      <c r="H31" t="n">
         <v>54.98666666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>306</v>
       </c>
       <c r="G32" t="n">
+        <v>54.99933333333332</v>
+      </c>
+      <c r="H32" t="n">
         <v>54.98566666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>4319.2249</v>
       </c>
       <c r="G33" t="n">
+        <v>54.98599999999998</v>
+      </c>
+      <c r="H33" t="n">
         <v>54.9815</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>10578.81863636</v>
       </c>
       <c r="G34" t="n">
+        <v>54.97999999999998</v>
+      </c>
+      <c r="H34" t="n">
         <v>54.97916666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>372.2156</v>
       </c>
       <c r="G35" t="n">
+        <v>54.96799999999998</v>
+      </c>
+      <c r="H35" t="n">
         <v>54.97533333333332</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>13654.3963</v>
       </c>
       <c r="G36" t="n">
+        <v>54.96199999999998</v>
+      </c>
+      <c r="H36" t="n">
         <v>54.97299999999998</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>18098.7659</v>
       </c>
       <c r="G37" t="n">
+        <v>54.96199999999998</v>
+      </c>
+      <c r="H37" t="n">
         <v>54.97183333333331</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>50773.31576364</v>
       </c>
       <c r="G38" t="n">
+        <v>54.96199999999998</v>
+      </c>
+      <c r="H38" t="n">
         <v>54.97016666666665</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>827.7438</v>
       </c>
       <c r="G39" t="n">
+        <v>54.96199999999998</v>
+      </c>
+      <c r="H39" t="n">
         <v>54.96849999999998</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>36235.169</v>
       </c>
       <c r="G40" t="n">
+        <v>54.96266666666665</v>
+      </c>
+      <c r="H40" t="n">
         <v>54.96699999999999</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>79087.00440000001</v>
       </c>
       <c r="G41" t="n">
+        <v>54.96266666666665</v>
+      </c>
+      <c r="H41" t="n">
         <v>54.96516666666665</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>21658</v>
       </c>
       <c r="G42" t="n">
+        <v>54.94933333333331</v>
+      </c>
+      <c r="H42" t="n">
         <v>54.95999999999999</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>1000</v>
       </c>
       <c r="G43" t="n">
+        <v>54.95066666666664</v>
+      </c>
+      <c r="H43" t="n">
         <v>54.95749999999999</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>280</v>
       </c>
       <c r="G44" t="n">
+        <v>54.95133333333331</v>
+      </c>
+      <c r="H44" t="n">
         <v>54.95583333333332</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>51214</v>
       </c>
       <c r="G45" t="n">
+        <v>54.95199999999998</v>
+      </c>
+      <c r="H45" t="n">
         <v>54.95433333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>2914.3898</v>
       </c>
       <c r="G46" t="n">
+        <v>54.94533333333331</v>
+      </c>
+      <c r="H46" t="n">
         <v>54.951</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>19269</v>
       </c>
       <c r="G47" t="n">
+        <v>54.94866666666664</v>
+      </c>
+      <c r="H47" t="n">
         <v>54.95083333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>120</v>
       </c>
       <c r="G48" t="n">
+        <v>54.96266666666664</v>
+      </c>
+      <c r="H48" t="n">
         <v>54.95016666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>90</v>
       </c>
       <c r="G49" t="n">
+        <v>54.96866666666664</v>
+      </c>
+      <c r="H49" t="n">
         <v>54.9485</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>3973.3714</v>
       </c>
       <c r="G50" t="n">
+        <v>54.97599999999997</v>
+      </c>
+      <c r="H50" t="n">
         <v>54.94466666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>53023.6436</v>
       </c>
       <c r="G51" t="n">
+        <v>54.97666666666664</v>
+      </c>
+      <c r="H51" t="n">
         <v>54.943</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>36753.0723</v>
       </c>
       <c r="G52" t="n">
+        <v>54.98466666666663</v>
+      </c>
+      <c r="H52" t="n">
         <v>54.94516666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>14300</v>
       </c>
       <c r="G53" t="n">
+        <v>54.9793333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>54.9445</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>60</v>
       </c>
       <c r="G54" t="n">
+        <v>54.98266666666663</v>
+      </c>
+      <c r="H54" t="n">
         <v>54.94550000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>181.35654697</v>
       </c>
       <c r="G55" t="n">
+        <v>54.99133333333329</v>
+      </c>
+      <c r="H55" t="n">
         <v>54.9485</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>9636.1122</v>
       </c>
       <c r="G56" t="n">
+        <v>54.98533333333329</v>
+      </c>
+      <c r="H56" t="n">
         <v>54.947</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>1423</v>
       </c>
       <c r="G57" t="n">
+        <v>54.99133333333329</v>
+      </c>
+      <c r="H57" t="n">
         <v>54.947</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>165876.8611</v>
       </c>
       <c r="G58" t="n">
+        <v>54.95866666666663</v>
+      </c>
+      <c r="H58" t="n">
         <v>54.94100000000001</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>561</v>
       </c>
       <c r="G59" t="n">
+        <v>54.93799999999997</v>
+      </c>
+      <c r="H59" t="n">
         <v>54.937</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>4650000</v>
       </c>
       <c r="G60" t="n">
+        <v>54.9173333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>54.933</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>322852551.6384</v>
       </c>
       <c r="G61" t="n">
+        <v>54.88666666666664</v>
+      </c>
+      <c r="H61" t="n">
         <v>54.92466666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>769729.7591</v>
       </c>
       <c r="G62" t="n">
+        <v>54.84666666666664</v>
+      </c>
+      <c r="H62" t="n">
         <v>54.91633333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>90223.22470000001</v>
       </c>
       <c r="G63" t="n">
+        <v>54.8073333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>54.90766666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>122367.481</v>
       </c>
       <c r="G64" t="n">
+        <v>54.77466666666664</v>
+      </c>
+      <c r="H64" t="n">
         <v>54.90166666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>38172.6557</v>
       </c>
       <c r="G65" t="n">
+        <v>54.73933333333331</v>
+      </c>
+      <c r="H65" t="n">
         <v>54.89383333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>211827.3443</v>
       </c>
       <c r="G66" t="n">
+        <v>54.69399999999997</v>
+      </c>
+      <c r="H66" t="n">
         <v>54.88466666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>119737.501</v>
       </c>
       <c r="G67" t="n">
+        <v>54.66466666666664</v>
+      </c>
+      <c r="H67" t="n">
         <v>54.8815</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>82882.48488325</v>
       </c>
       <c r="G68" t="n">
+        <v>54.66199999999997</v>
+      </c>
+      <c r="H68" t="n">
         <v>54.88300000000001</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
+        <v>54.63866666666664</v>
+      </c>
+      <c r="H69" t="n">
         <v>54.88183333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>790</v>
       </c>
       <c r="G70" t="n">
+        <v>54.60266666666665</v>
+      </c>
+      <c r="H70" t="n">
         <v>54.87916666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>83140.1231</v>
       </c>
       <c r="G71" t="n">
+        <v>54.58866666666665</v>
+      </c>
+      <c r="H71" t="n">
         <v>54.87583333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>2510.982</v>
       </c>
       <c r="G72" t="n">
+        <v>54.56866666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>54.873</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>81.24314441999999</v>
       </c>
       <c r="G73" t="n">
+        <v>54.58</v>
+      </c>
+      <c r="H73" t="n">
         <v>54.86799999999999</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>954.5236</v>
       </c>
       <c r="G74" t="n">
+        <v>54.57799999999999</v>
+      </c>
+      <c r="H74" t="n">
         <v>54.86633333333332</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>10252.9459</v>
       </c>
       <c r="G75" t="n">
+        <v>54.57599999999999</v>
+      </c>
+      <c r="H75" t="n">
         <v>54.86133333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>714</v>
       </c>
       <c r="G76" t="n">
+        <v>54.59133333333331</v>
+      </c>
+      <c r="H76" t="n">
         <v>54.85583333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>5583.2577</v>
       </c>
       <c r="G77" t="n">
+        <v>54.60666666666665</v>
+      </c>
+      <c r="H77" t="n">
         <v>54.85033333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>532</v>
       </c>
       <c r="G78" t="n">
+        <v>54.62466666666665</v>
+      </c>
+      <c r="H78" t="n">
         <v>54.84516666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>189.924</v>
       </c>
       <c r="G79" t="n">
+        <v>54.63333333333332</v>
+      </c>
+      <c r="H79" t="n">
         <v>54.83916666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>9654.7202</v>
       </c>
       <c r="G80" t="n">
+        <v>54.64466666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>54.832</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>47975.7228</v>
       </c>
       <c r="G81" t="n">
+        <v>54.66066666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>54.82333333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>12678.943</v>
       </c>
       <c r="G82" t="n">
+        <v>54.64733333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>54.81466666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>30968.517</v>
       </c>
       <c r="G83" t="n">
+        <v>54.61866666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>54.8055</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>12528.9572</v>
       </c>
       <c r="G84" t="n">
+        <v>54.59866666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>54.7955</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>5060.3109</v>
       </c>
       <c r="G85" t="n">
+        <v>54.58533333333332</v>
+      </c>
+      <c r="H85" t="n">
         <v>54.7855</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>42.396</v>
       </c>
       <c r="G86" t="n">
+        <v>54.55199999999999</v>
+      </c>
+      <c r="H86" t="n">
         <v>54.77216666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>718.4906999999999</v>
       </c>
       <c r="G87" t="n">
+        <v>54.52599999999999</v>
+      </c>
+      <c r="H87" t="n">
         <v>54.75883333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>3126.1222</v>
       </c>
       <c r="G88" t="n">
+        <v>54.49399999999999</v>
+      </c>
+      <c r="H88" t="n">
         <v>54.74583333333332</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>122.1655</v>
       </c>
       <c r="G89" t="n">
+        <v>54.48266666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>54.73749999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>5.9889</v>
       </c>
       <c r="G90" t="n">
+        <v>54.47133333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>54.72916666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>2382.6535</v>
       </c>
       <c r="G91" t="n">
+        <v>54.458</v>
+      </c>
+      <c r="H91" t="n">
         <v>54.72033333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>1064</v>
       </c>
       <c r="G92" t="n">
+        <v>54.43600000000001</v>
+      </c>
+      <c r="H92" t="n">
         <v>54.7095</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>22009.7555779</v>
       </c>
       <c r="G93" t="n">
+        <v>54.432</v>
+      </c>
+      <c r="H93" t="n">
         <v>54.70666666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>56.075</v>
       </c>
       <c r="G94" t="n">
+        <v>54.422</v>
+      </c>
+      <c r="H94" t="n">
         <v>54.69966666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>5928</v>
       </c>
       <c r="G95" t="n">
+        <v>54.40533333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>54.69133333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>687.5</v>
       </c>
       <c r="G96" t="n">
+        <v>54.39533333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>54.68166666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>1157.1094</v>
       </c>
       <c r="G97" t="n">
+        <v>54.38533333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>54.67049999999999</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>439.3536</v>
       </c>
       <c r="G98" t="n">
+        <v>54.37666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>54.65916666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>938.1</v>
       </c>
       <c r="G99" t="n">
+        <v>54.36466666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>54.64616666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>42969.0158</v>
       </c>
       <c r="G100" t="n">
+        <v>54.35133333333335</v>
+      </c>
+      <c r="H100" t="n">
         <v>54.63266666666665</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>184.19598452</v>
       </c>
       <c r="G101" t="n">
+        <v>54.35733333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>54.62083333333332</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>384.0389</v>
       </c>
       <c r="G102" t="n">
+        <v>54.35800000000001</v>
+      </c>
+      <c r="H102" t="n">
         <v>54.61099999999998</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>545.0905</v>
       </c>
       <c r="G103" t="n">
+        <v>54.364</v>
+      </c>
+      <c r="H103" t="n">
         <v>54.59916666666665</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>1472.6726</v>
       </c>
       <c r="G104" t="n">
+        <v>54.35066666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>54.58733333333331</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>300957.4601</v>
       </c>
       <c r="G105" t="n">
+        <v>54.33733333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>54.57549999999998</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>7965.0984</v>
       </c>
       <c r="G106" t="n">
+        <v>54.32599999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>54.56549999999998</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>20710.9566</v>
       </c>
       <c r="G107" t="n">
+        <v>54.31733333333332</v>
+      </c>
+      <c r="H107" t="n">
         <v>54.55166666666665</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>55989.2182</v>
       </c>
       <c r="G108" t="n">
+        <v>54.28933333333332</v>
+      </c>
+      <c r="H108" t="n">
         <v>54.53833333333331</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>2407.3889</v>
       </c>
       <c r="G109" t="n">
+        <v>54.27066666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>54.52516666666665</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>47628.6468</v>
       </c>
       <c r="G110" t="n">
+        <v>54.26266666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>54.51299999999998</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>959.9999</v>
       </c>
       <c r="G111" t="n">
+        <v>54.24733333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>54.49933333333331</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>1810.9114</v>
       </c>
       <c r="G112" t="n">
+        <v>54.24133333333332</v>
+      </c>
+      <c r="H112" t="n">
         <v>54.48466666666664</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>35032.722</v>
       </c>
       <c r="G113" t="n">
+        <v>54.22533333333332</v>
+      </c>
+      <c r="H113" t="n">
         <v>54.47066666666664</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>5002</v>
       </c>
       <c r="G114" t="n">
+        <v>54.21599999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>54.45449999999997</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>1000</v>
       </c>
       <c r="G115" t="n">
+        <v>54.20466666666665</v>
+      </c>
+      <c r="H115" t="n">
         <v>54.43599999999997</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>21994.823</v>
       </c>
       <c r="G116" t="n">
+        <v>54.18733333333332</v>
+      </c>
+      <c r="H116" t="n">
         <v>54.42133333333332</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>5273.6966</v>
       </c>
       <c r="G117" t="n">
+        <v>54.17599999999998</v>
+      </c>
+      <c r="H117" t="n">
         <v>54.40716666666665</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>28725.2902</v>
       </c>
       <c r="G118" t="n">
+        <v>54.15799999999998</v>
+      </c>
+      <c r="H118" t="n">
         <v>54.39899999999998</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,24 +4899,21 @@
         <v>19155.4215</v>
       </c>
       <c r="G119" t="n">
+        <v>54.13999999999998</v>
+      </c>
+      <c r="H119" t="n">
         <v>54.38783333333332</v>
       </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>54.04</v>
+        <v>0</v>
       </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4584,24 +4937,21 @@
         <v>15025.407</v>
       </c>
       <c r="G120" t="n">
+        <v>54.12466666666665</v>
+      </c>
+      <c r="H120" t="n">
         <v>54.37733333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>54.03</v>
+        <v>0</v>
       </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4625,24 +4975,21 @@
         <v>12185.8324</v>
       </c>
       <c r="G121" t="n">
+        <v>54.10666666666665</v>
+      </c>
+      <c r="H121" t="n">
         <v>54.37049999999999</v>
       </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>54.07</v>
+        <v>0</v>
       </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,22 +5013,21 @@
         <v>4821</v>
       </c>
       <c r="G122" t="n">
+        <v>54.09333333333332</v>
+      </c>
+      <c r="H122" t="n">
         <v>54.36333333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4705,22 +5051,21 @@
         <v>1355.2</v>
       </c>
       <c r="G123" t="n">
+        <v>54.07999999999998</v>
+      </c>
+      <c r="H123" t="n">
         <v>54.3565</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4744,22 +5089,21 @@
         <v>1712.1</v>
       </c>
       <c r="G124" t="n">
+        <v>54.06599999999998</v>
+      </c>
+      <c r="H124" t="n">
         <v>54.34799999999999</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,22 +5127,21 @@
         <v>1665.5001</v>
       </c>
       <c r="G125" t="n">
+        <v>54.05266666666664</v>
+      </c>
+      <c r="H125" t="n">
         <v>54.34133333333332</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4822,22 +5165,21 @@
         <v>333</v>
       </c>
       <c r="G126" t="n">
+        <v>54.04599999999997</v>
+      </c>
+      <c r="H126" t="n">
         <v>54.33733333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4861,22 +5203,21 @@
         <v>13314.6631</v>
       </c>
       <c r="G127" t="n">
+        <v>54.02999999999997</v>
+      </c>
+      <c r="H127" t="n">
         <v>54.326</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,22 +5241,21 @@
         <v>7914.6536</v>
       </c>
       <c r="G128" t="n">
+        <v>54.02466666666664</v>
+      </c>
+      <c r="H128" t="n">
         <v>54.31133333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4939,22 +5279,21 @@
         <v>250.4042</v>
       </c>
       <c r="G129" t="n">
+        <v>54.01866666666663</v>
+      </c>
+      <c r="H129" t="n">
         <v>54.29949999999999</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4978,24 +5317,21 @@
         <v>41.8804</v>
       </c>
       <c r="G130" t="n">
+        <v>54.01599999999997</v>
+      </c>
+      <c r="H130" t="n">
         <v>54.28933333333332</v>
       </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>53.99</v>
+        <v>0</v>
       </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5019,24 +5355,21 @@
         <v>8.4114</v>
       </c>
       <c r="G131" t="n">
+        <v>54.01333333333331</v>
+      </c>
+      <c r="H131" t="n">
         <v>54.2775</v>
       </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>53.99</v>
+        <v>0</v>
       </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5060,24 +5393,21 @@
         <v>883.0093000000001</v>
       </c>
       <c r="G132" t="n">
+        <v>54.00999999999998</v>
+      </c>
+      <c r="H132" t="n">
         <v>54.26749999999999</v>
       </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>53.99</v>
+        <v>0</v>
       </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5101,24 +5431,21 @@
         <v>1110.6782</v>
       </c>
       <c r="G133" t="n">
+        <v>54.00666666666665</v>
+      </c>
+      <c r="H133" t="n">
         <v>54.25566666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>53.99</v>
+        <v>0</v>
       </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,24 +5469,21 @@
         <v>4946.4745</v>
       </c>
       <c r="G134" t="n">
+        <v>54.00399999999998</v>
+      </c>
+      <c r="H134" t="n">
         <v>54.24433333333332</v>
       </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>53.99</v>
+        <v>0</v>
       </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5183,24 +5507,21 @@
         <v>4524.1049</v>
       </c>
       <c r="G135" t="n">
+        <v>53.99933333333331</v>
+      </c>
+      <c r="H135" t="n">
         <v>54.23316666666665</v>
       </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>53.99</v>
+        <v>0</v>
       </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,22 +5545,21 @@
         <v>1591.7553</v>
       </c>
       <c r="G136" t="n">
+        <v>53.99733333333332</v>
+      </c>
+      <c r="H136" t="n">
         <v>54.22199999999998</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5263,22 +5583,21 @@
         <v>42.7393</v>
       </c>
       <c r="G137" t="n">
+        <v>54.01133333333332</v>
+      </c>
+      <c r="H137" t="n">
         <v>54.21449999999997</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,22 +5621,21 @@
         <v>32000</v>
       </c>
       <c r="G138" t="n">
+        <v>54.02533333333331</v>
+      </c>
+      <c r="H138" t="n">
         <v>54.20666666666664</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5341,22 +5659,21 @@
         <v>10619.2796</v>
       </c>
       <c r="G139" t="n">
+        <v>54.03333333333332</v>
+      </c>
+      <c r="H139" t="n">
         <v>54.19799999999997</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5380,22 +5697,21 @@
         <v>10020.7211</v>
       </c>
       <c r="G140" t="n">
+        <v>54.03799999999999</v>
+      </c>
+      <c r="H140" t="n">
         <v>54.18966666666664</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5419,22 +5735,21 @@
         <v>462.0062</v>
       </c>
       <c r="G141" t="n">
+        <v>54.04533333333332</v>
+      </c>
+      <c r="H141" t="n">
         <v>54.18349999999997</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5458,22 +5773,21 @@
         <v>91.6738</v>
       </c>
       <c r="G142" t="n">
+        <v>54.06333333333332</v>
+      </c>
+      <c r="H142" t="n">
         <v>54.17999999999997</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,22 +5811,21 @@
         <v>892</v>
       </c>
       <c r="G143" t="n">
+        <v>54.07066666666665</v>
+      </c>
+      <c r="H143" t="n">
         <v>54.17433333333331</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5536,22 +5849,21 @@
         <v>2203.641</v>
       </c>
       <c r="G144" t="n">
+        <v>54.07599999999999</v>
+      </c>
+      <c r="H144" t="n">
         <v>54.16883333333331</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5575,22 +5887,21 @@
         <v>57297.5413</v>
       </c>
       <c r="G145" t="n">
+        <v>54.07733333333332</v>
+      </c>
+      <c r="H145" t="n">
         <v>54.16233333333332</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5614,22 +5925,21 @@
         <v>451.6892</v>
       </c>
       <c r="G146" t="n">
+        <v>54.08533333333332</v>
+      </c>
+      <c r="H146" t="n">
         <v>54.16083333333332</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5653,22 +5963,21 @@
         <v>451.7077</v>
       </c>
       <c r="G147" t="n">
+        <v>54.09333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>54.15933333333332</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5692,22 +6001,21 @@
         <v>2786.7439</v>
       </c>
       <c r="G148" t="n">
+        <v>54.09466666666665</v>
+      </c>
+      <c r="H148" t="n">
         <v>54.15583333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5731,22 +6039,21 @@
         <v>15996.069</v>
       </c>
       <c r="G149" t="n">
+        <v>54.09599999999999</v>
+      </c>
+      <c r="H149" t="n">
         <v>54.14766666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5770,22 +6077,21 @@
         <v>4165.8629</v>
       </c>
       <c r="G150" t="n">
+        <v>54.09666666666666</v>
+      </c>
+      <c r="H150" t="n">
         <v>54.13950000000001</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5809,22 +6115,21 @@
         <v>22938.3916</v>
       </c>
       <c r="G151" t="n">
+        <v>54.09733333333332</v>
+      </c>
+      <c r="H151" t="n">
         <v>54.13183333333335</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5848,22 +6153,21 @@
         <v>42666.4225</v>
       </c>
       <c r="G152" t="n">
+        <v>54.08333333333332</v>
+      </c>
+      <c r="H152" t="n">
         <v>54.12633333333335</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5887,22 +6191,21 @@
         <v>9749.293799999999</v>
       </c>
       <c r="G153" t="n">
+        <v>54.07199999999998</v>
+      </c>
+      <c r="H153" t="n">
         <v>54.11666666666668</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,22 +6229,21 @@
         <v>3617.3193</v>
       </c>
       <c r="G154" t="n">
+        <v>54.06733333333331</v>
+      </c>
+      <c r="H154" t="n">
         <v>54.10933333333335</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5965,22 +6267,25 @@
         <v>12422.1258</v>
       </c>
       <c r="G155" t="n">
+        <v>54.06599999999997</v>
+      </c>
+      <c r="H155" t="n">
         <v>54.10483333333335</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="L155" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6004,22 +6309,27 @@
         <v>10994.8864</v>
       </c>
       <c r="G156" t="n">
+        <v>54.0513333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>54.09750000000002</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6043,22 +6353,27 @@
         <v>29369.1444</v>
       </c>
       <c r="G157" t="n">
+        <v>54.0253333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>54.09000000000002</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6082,22 +6397,29 @@
         <v>34899.8804</v>
       </c>
       <c r="G158" t="n">
+        <v>54.00999999999997</v>
+      </c>
+      <c r="H158" t="n">
         <v>54.08266666666669</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="L158" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6121,22 +6443,29 @@
         <v>22.00036975</v>
       </c>
       <c r="G159" t="n">
+        <v>54.0113333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>54.08050000000003</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="L159" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,22 +6489,29 @@
         <v>764.2947</v>
       </c>
       <c r="G160" t="n">
+        <v>54.02399999999997</v>
+      </c>
+      <c r="H160" t="n">
         <v>54.08050000000003</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>54.09</v>
+      </c>
+      <c r="L160" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6199,22 +6535,29 @@
         <v>1331.7379</v>
       </c>
       <c r="G161" t="n">
+        <v>54.02999999999997</v>
+      </c>
+      <c r="H161" t="n">
         <v>54.07900000000003</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="L161" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6238,22 +6581,29 @@
         <v>301.948</v>
       </c>
       <c r="G162" t="n">
+        <v>54.03666666666664</v>
+      </c>
+      <c r="H162" t="n">
         <v>54.07900000000003</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="L162" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6277,22 +6627,29 @@
         <v>7084</v>
       </c>
       <c r="G163" t="n">
+        <v>54.05999999999997</v>
+      </c>
+      <c r="H163" t="n">
         <v>54.07983333333336</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>54.21</v>
+      </c>
+      <c r="L163" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6316,22 +6673,29 @@
         <v>23704.6893</v>
       </c>
       <c r="G164" t="n">
+        <v>54.08933333333331</v>
+      </c>
+      <c r="H164" t="n">
         <v>54.08233333333336</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>54.36</v>
+      </c>
+      <c r="L164" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6355,22 +6719,27 @@
         <v>5638.8127</v>
       </c>
       <c r="G165" t="n">
+        <v>54.11266666666665</v>
+      </c>
+      <c r="H165" t="n">
         <v>54.08333333333336</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6394,22 +6763,27 @@
         <v>12777.981</v>
       </c>
       <c r="G166" t="n">
+        <v>54.13599999999998</v>
+      </c>
+      <c r="H166" t="n">
         <v>54.08433333333335</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,22 +6807,27 @@
         <v>48651.3355</v>
       </c>
       <c r="G167" t="n">
+        <v>54.14466666666665</v>
+      </c>
+      <c r="H167" t="n">
         <v>54.08316666666668</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6472,22 +6851,27 @@
         <v>933.58</v>
       </c>
       <c r="G168" t="n">
+        <v>54.15799999999999</v>
+      </c>
+      <c r="H168" t="n">
         <v>54.08383333333335</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6511,22 +6895,27 @@
         <v>61.23461326</v>
       </c>
       <c r="G169" t="n">
+        <v>54.18333333333332</v>
+      </c>
+      <c r="H169" t="n">
         <v>54.08750000000001</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6550,22 +6939,27 @@
         <v>10170.4715</v>
       </c>
       <c r="G170" t="n">
+        <v>54.19999999999998</v>
+      </c>
+      <c r="H170" t="n">
         <v>54.08916666666669</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,22 +6983,27 @@
         <v>40827.5285</v>
       </c>
       <c r="G171" t="n">
+        <v>54.24133333333332</v>
+      </c>
+      <c r="H171" t="n">
         <v>54.09600000000002</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6628,22 +7027,27 @@
         <v>11966.1173</v>
       </c>
       <c r="G172" t="n">
+        <v>54.26399999999999</v>
+      </c>
+      <c r="H172" t="n">
         <v>54.09566666666669</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6667,22 +7071,27 @@
         <v>1874.3893</v>
       </c>
       <c r="G173" t="n">
+        <v>54.28533333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>54.09766666666669</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6706,22 +7115,27 @@
         <v>4000</v>
       </c>
       <c r="G174" t="n">
+        <v>54.29266666666665</v>
+      </c>
+      <c r="H174" t="n">
         <v>54.09966666666669</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6745,22 +7159,29 @@
         <v>17.7657</v>
       </c>
       <c r="G175" t="n">
+        <v>54.30133333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>54.10466666666669</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="L175" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6784,22 +7205,27 @@
         <v>3500</v>
       </c>
       <c r="G176" t="n">
+        <v>54.30999999999999</v>
+      </c>
+      <c r="H176" t="n">
         <v>54.10966666666668</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,22 +7249,27 @@
         <v>4986.6886</v>
       </c>
       <c r="G177" t="n">
+        <v>54.31199999999999</v>
+      </c>
+      <c r="H177" t="n">
         <v>54.11300000000001</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6862,22 +7293,29 @@
         <v>657.5717</v>
       </c>
       <c r="G178" t="n">
+        <v>54.30799999999999</v>
+      </c>
+      <c r="H178" t="n">
         <v>54.11733333333335</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>54.24</v>
+      </c>
+      <c r="L178" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6901,22 +7339,29 @@
         <v>513.3386</v>
       </c>
       <c r="G179" t="n">
+        <v>54.30333333333331</v>
+      </c>
+      <c r="H179" t="n">
         <v>54.12316666666668</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="L179" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6940,22 +7385,27 @@
         <v>822.6614</v>
       </c>
       <c r="G180" t="n">
+        <v>54.30466666666665</v>
+      </c>
+      <c r="H180" t="n">
         <v>54.12833333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6979,22 +7429,27 @@
         <v>23591.2703</v>
       </c>
       <c r="G181" t="n">
+        <v>54.30933333333331</v>
+      </c>
+      <c r="H181" t="n">
         <v>54.13500000000001</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7018,22 +7473,27 @@
         <v>7304.4902</v>
       </c>
       <c r="G182" t="n">
+        <v>54.32866666666664</v>
+      </c>
+      <c r="H182" t="n">
         <v>54.142</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7057,22 +7517,27 @@
         <v>9890.844499999999</v>
       </c>
       <c r="G183" t="n">
+        <v>54.34066666666664</v>
+      </c>
+      <c r="H183" t="n">
         <v>54.14899999999999</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7096,22 +7561,27 @@
         <v>1912.204</v>
       </c>
       <c r="G184" t="n">
+        <v>54.33733333333331</v>
+      </c>
+      <c r="H184" t="n">
         <v>54.15533333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7135,22 +7605,27 @@
         <v>107.0238</v>
       </c>
       <c r="G185" t="n">
+        <v>54.34266666666664</v>
+      </c>
+      <c r="H185" t="n">
         <v>54.16166666666666</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7174,22 +7649,27 @@
         <v>19363.09</v>
       </c>
       <c r="G186" t="n">
+        <v>54.33733333333331</v>
+      </c>
+      <c r="H186" t="n">
         <v>54.16883333333332</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7213,22 +7693,27 @@
         <v>1189.2551</v>
       </c>
       <c r="G187" t="n">
+        <v>54.3513333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>54.17599999999999</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7252,22 +7737,27 @@
         <v>2607.6083</v>
       </c>
       <c r="G188" t="n">
+        <v>54.3713333333333</v>
+      </c>
+      <c r="H188" t="n">
         <v>54.18433333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7291,22 +7781,27 @@
         <v>842.2916</v>
       </c>
       <c r="G189" t="n">
+        <v>54.39133333333329</v>
+      </c>
+      <c r="H189" t="n">
         <v>54.19283333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7330,22 +7825,27 @@
         <v>5419.1627</v>
       </c>
       <c r="G190" t="n">
+        <v>54.40266666666663</v>
+      </c>
+      <c r="H190" t="n">
         <v>54.20133333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7369,22 +7869,27 @@
         <v>46559.5871</v>
       </c>
       <c r="G191" t="n">
+        <v>54.42799999999996</v>
+      </c>
+      <c r="H191" t="n">
         <v>54.21333333333334</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7408,22 +7913,27 @@
         <v>1322.5793</v>
       </c>
       <c r="G192" t="n">
+        <v>54.44533333333329</v>
+      </c>
+      <c r="H192" t="n">
         <v>54.22183333333334</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7447,22 +7957,27 @@
         <v>8696.060100000001</v>
       </c>
       <c r="G193" t="n">
+        <v>54.45866666666663</v>
+      </c>
+      <c r="H193" t="n">
         <v>54.23033333333334</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,22 +8001,27 @@
         <v>1446.2659</v>
       </c>
       <c r="G194" t="n">
+        <v>54.46199999999996</v>
+      </c>
+      <c r="H194" t="n">
         <v>54.23766666666668</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7525,22 +8045,27 @@
         <v>826.4662</v>
       </c>
       <c r="G195" t="n">
+        <v>54.46533333333329</v>
+      </c>
+      <c r="H195" t="n">
         <v>54.24483333333334</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7564,22 +8089,27 @@
         <v>350.247</v>
       </c>
       <c r="G196" t="n">
+        <v>54.46199999999996</v>
+      </c>
+      <c r="H196" t="n">
         <v>54.25116666666668</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7603,22 +8133,27 @@
         <v>6065.1854</v>
       </c>
       <c r="G197" t="n">
+        <v>54.45866666666663</v>
+      </c>
+      <c r="H197" t="n">
         <v>54.25383333333335</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7642,22 +8177,27 @@
         <v>2631.7616</v>
       </c>
       <c r="G198" t="n">
+        <v>54.4553333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>54.25650000000002</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7681,22 +8221,27 @@
         <v>200</v>
       </c>
       <c r="G199" t="n">
+        <v>54.4633333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>54.26283333333335</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7720,22 +8265,27 @@
         <v>10</v>
       </c>
       <c r="G200" t="n">
+        <v>54.4633333333333</v>
+      </c>
+      <c r="H200" t="n">
         <v>54.26800000000002</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7759,22 +8309,27 @@
         <v>1916</v>
       </c>
       <c r="G201" t="n">
+        <v>54.45999999999997</v>
+      </c>
+      <c r="H201" t="n">
         <v>54.27250000000002</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,22 +8353,27 @@
         <v>3194.5986</v>
       </c>
       <c r="G202" t="n">
+        <v>54.45666666666664</v>
+      </c>
+      <c r="H202" t="n">
         <v>54.27433333333336</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7837,22 +8397,27 @@
         <v>1059.427</v>
       </c>
       <c r="G203" t="n">
+        <v>54.44866666666664</v>
+      </c>
+      <c r="H203" t="n">
         <v>54.27883333333336</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7876,22 +8441,27 @@
         <v>3223.328</v>
       </c>
       <c r="G204" t="n">
+        <v>54.44066666666664</v>
+      </c>
+      <c r="H204" t="n">
         <v>54.28400000000002</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7915,22 +8485,27 @@
         <v>0.0001</v>
       </c>
       <c r="G205" t="n">
+        <v>54.43266666666663</v>
+      </c>
+      <c r="H205" t="n">
         <v>54.29016666666669</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7954,22 +8529,27 @@
         <v>1000</v>
       </c>
       <c r="G206" t="n">
+        <v>54.40599999999996</v>
+      </c>
+      <c r="H206" t="n">
         <v>54.29350000000002</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7993,22 +8573,27 @@
         <v>14147.3757</v>
       </c>
       <c r="G207" t="n">
+        <v>54.3933333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>54.29683333333335</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8032,22 +8617,27 @@
         <v>839.0473</v>
       </c>
       <c r="G208" t="n">
+        <v>54.3933333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>54.30500000000001</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8071,22 +8661,27 @@
         <v>352.279</v>
       </c>
       <c r="G209" t="n">
+        <v>54.39799999999996</v>
+      </c>
+      <c r="H209" t="n">
         <v>54.31316666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8110,22 +8705,27 @@
         <v>54</v>
       </c>
       <c r="G210" t="n">
+        <v>54.39599999999997</v>
+      </c>
+      <c r="H210" t="n">
         <v>54.31966666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,22 +8749,27 @@
         <v>254.541</v>
       </c>
       <c r="G211" t="n">
+        <v>54.4053333333333</v>
+      </c>
+      <c r="H211" t="n">
         <v>54.32816666666667</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8188,22 +8793,27 @@
         <v>980.9944</v>
       </c>
       <c r="G212" t="n">
+        <v>54.40133333333331</v>
+      </c>
+      <c r="H212" t="n">
         <v>54.33333333333334</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8227,22 +8837,27 @@
         <v>53029.4753</v>
       </c>
       <c r="G213" t="n">
+        <v>54.39599999999997</v>
+      </c>
+      <c r="H213" t="n">
         <v>54.3375</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8266,22 +8881,27 @@
         <v>1800</v>
       </c>
       <c r="G214" t="n">
+        <v>54.4033333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>54.34683333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8305,22 +8925,27 @@
         <v>365.92064362</v>
       </c>
       <c r="G215" t="n">
+        <v>54.42399999999997</v>
+      </c>
+      <c r="H215" t="n">
         <v>54.35749999999999</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8344,22 +8969,27 @@
         <v>25472.179</v>
       </c>
       <c r="G216" t="n">
+        <v>54.4433333333333</v>
+      </c>
+      <c r="H216" t="n">
         <v>54.3705</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8383,22 +9013,27 @@
         <v>12859.1</v>
       </c>
       <c r="G217" t="n">
+        <v>54.46266666666664</v>
+      </c>
+      <c r="H217" t="n">
         <v>54.38366666666666</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8422,22 +9057,27 @@
         <v>1490</v>
       </c>
       <c r="G218" t="n">
+        <v>54.48866666666663</v>
+      </c>
+      <c r="H218" t="n">
         <v>54.3985</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8461,22 +9101,27 @@
         <v>45.45925469</v>
       </c>
       <c r="G219" t="n">
+        <v>54.52266666666663</v>
+      </c>
+      <c r="H219" t="n">
         <v>54.41183333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8500,22 +9145,27 @@
         <v>6232.65901221</v>
       </c>
       <c r="G220" t="n">
+        <v>54.5553333333333</v>
+      </c>
+      <c r="H220" t="n">
         <v>54.42299999999999</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8539,22 +9189,29 @@
         <v>1602</v>
       </c>
       <c r="G221" t="n">
+        <v>54.58999999999996</v>
+      </c>
+      <c r="H221" t="n">
         <v>54.4335</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8576,18 +9233,27 @@
         <v>566.692</v>
       </c>
       <c r="G222" t="n">
+        <v>54.62466666666663</v>
+      </c>
+      <c r="H222" t="n">
         <v>54.44383333333333</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="L222" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8611,18 +9277,27 @@
         <v>18800</v>
       </c>
       <c r="G223" t="n">
+        <v>54.63666666666663</v>
+      </c>
+      <c r="H223" t="n">
         <v>54.44916666666666</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="L223" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8646,18 +9321,27 @@
         <v>2580.9</v>
       </c>
       <c r="G224" t="n">
+        <v>54.65066666666663</v>
+      </c>
+      <c r="H224" t="n">
         <v>54.45349999999999</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="L224" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8681,18 +9365,27 @@
         <v>23257.1148</v>
       </c>
       <c r="G225" t="n">
+        <v>54.67066666666663</v>
+      </c>
+      <c r="H225" t="n">
         <v>54.45916666666665</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="L225" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8716,18 +9409,27 @@
         <v>2894.4585</v>
       </c>
       <c r="G226" t="n">
+        <v>54.68266666666663</v>
+      </c>
+      <c r="H226" t="n">
         <v>54.46483333333332</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="L226" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8751,18 +9453,27 @@
         <v>24552</v>
       </c>
       <c r="G227" t="n">
+        <v>54.70799999999997</v>
+      </c>
+      <c r="H227" t="n">
         <v>54.47416666666665</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="L227" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8786,18 +9497,27 @@
         <v>2936.8148</v>
       </c>
       <c r="G228" t="n">
+        <v>54.73466666666664</v>
+      </c>
+      <c r="H228" t="n">
         <v>54.48166666666665</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="L228" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8821,18 +9541,27 @@
         <v>35184.0457</v>
       </c>
       <c r="G229" t="n">
+        <v>54.74066666666665</v>
+      </c>
+      <c r="H229" t="n">
         <v>54.48616666666665</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="L229" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8856,18 +9585,27 @@
         <v>81370.141</v>
       </c>
       <c r="G230" t="n">
+        <v>54.73999999999998</v>
+      </c>
+      <c r="H230" t="n">
         <v>54.49249999999997</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="L230" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8891,18 +9629,27 @@
         <v>36700</v>
       </c>
       <c r="G231" t="n">
+        <v>54.72599999999998</v>
+      </c>
+      <c r="H231" t="n">
         <v>54.49166666666664</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="L231" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8926,18 +9673,27 @@
         <v>59.9136</v>
       </c>
       <c r="G232" t="n">
+        <v>54.71199999999999</v>
+      </c>
+      <c r="H232" t="n">
         <v>54.49566666666664</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="L232" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8961,18 +9717,27 @@
         <v>913.29426844</v>
       </c>
       <c r="G233" t="n">
+        <v>54.70133333333332</v>
+      </c>
+      <c r="H233" t="n">
         <v>54.50249999999998</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="L233" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8996,18 +9761,27 @@
         <v>10500</v>
       </c>
       <c r="G234" t="n">
+        <v>54.67266666666666</v>
+      </c>
+      <c r="H234" t="n">
         <v>54.50683333333332</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="L234" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9031,18 +9805,27 @@
         <v>56.075</v>
       </c>
       <c r="G235" t="n">
+        <v>54.64533333333333</v>
+      </c>
+      <c r="H235" t="n">
         <v>54.50899999999999</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="L235" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9066,18 +9849,27 @@
         <v>1060</v>
       </c>
       <c r="G236" t="n">
+        <v>54.62066666666666</v>
+      </c>
+      <c r="H236" t="n">
         <v>54.51116666666665</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="L236" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9101,18 +9893,27 @@
         <v>757.6686999999999</v>
       </c>
       <c r="G237" t="n">
+        <v>54.596</v>
+      </c>
+      <c r="H237" t="n">
         <v>54.51483333333332</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="L237" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9136,18 +9937,27 @@
         <v>1182.4935</v>
       </c>
       <c r="G238" t="n">
+        <v>54.582</v>
+      </c>
+      <c r="H238" t="n">
         <v>54.51766666666665</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="L238" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9171,18 +9981,27 @@
         <v>627.0188000000001</v>
       </c>
       <c r="G239" t="n">
+        <v>54.566</v>
+      </c>
+      <c r="H239" t="n">
         <v>54.51916666666664</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="L239" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9206,18 +10025,27 @@
         <v>608</v>
       </c>
       <c r="G240" t="n">
+        <v>54.54866666666667</v>
+      </c>
+      <c r="H240" t="n">
         <v>54.52016666666665</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="L240" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9241,18 +10069,27 @@
         <v>595.894</v>
       </c>
       <c r="G241" t="n">
+        <v>54.53333333333333</v>
+      </c>
+      <c r="H241" t="n">
         <v>54.52083333333331</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="L241" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9276,18 +10113,27 @@
         <v>1089.9404</v>
       </c>
       <c r="G242" t="n">
+        <v>54.51533333333332</v>
+      </c>
+      <c r="H242" t="n">
         <v>54.52083333333331</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="L242" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9311,18 +10157,27 @@
         <v>25347.603</v>
       </c>
       <c r="G243" t="n">
+        <v>54.49066666666666</v>
+      </c>
+      <c r="H243" t="n">
         <v>54.51916666666664</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="L243" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9346,18 +10201,27 @@
         <v>120.2867</v>
       </c>
       <c r="G244" t="n">
+        <v>54.46599999999999</v>
+      </c>
+      <c r="H244" t="n">
         <v>54.51833333333331</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="L244" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9381,18 +10245,27 @@
         <v>58192.9103</v>
       </c>
       <c r="G245" t="n">
+        <v>54.44333333333334</v>
+      </c>
+      <c r="H245" t="n">
         <v>54.51766666666664</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="L245" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9416,18 +10289,27 @@
         <v>366.43459142</v>
       </c>
       <c r="G246" t="n">
+        <v>54.45133333333333</v>
+      </c>
+      <c r="H246" t="n">
         <v>54.52016666666665</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="L246" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9451,18 +10333,27 @@
         <v>84174.62193787</v>
       </c>
       <c r="G247" t="n">
+        <v>54.46066666666666</v>
+      </c>
+      <c r="H247" t="n">
         <v>54.52299999999998</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="L247" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9486,18 +10377,27 @@
         <v>2705.7</v>
       </c>
       <c r="G248" t="n">
+        <v>54.45733333333333</v>
+      </c>
+      <c r="H248" t="n">
         <v>54.52399999999998</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="L248" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9521,18 +10421,27 @@
         <v>2327.3</v>
       </c>
       <c r="G249" t="n">
+        <v>54.46400000000001</v>
+      </c>
+      <c r="H249" t="n">
         <v>54.52499999999998</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="L249" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9556,18 +10465,27 @@
         <v>613.8193</v>
       </c>
       <c r="G250" t="n">
+        <v>54.47066666666667</v>
+      </c>
+      <c r="H250" t="n">
         <v>54.52599999999997</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="L250" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9591,18 +10509,27 @@
         <v>1105</v>
       </c>
       <c r="G251" t="n">
+        <v>54.47666666666666</v>
+      </c>
+      <c r="H251" t="n">
         <v>54.52333333333331</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="L251" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9626,18 +10553,27 @@
         <v>100</v>
       </c>
       <c r="G252" t="n">
+        <v>54.48199999999999</v>
+      </c>
+      <c r="H252" t="n">
         <v>54.52399999999998</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="L252" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9661,18 +10597,27 @@
         <v>16835.0879</v>
       </c>
       <c r="G253" t="n">
+        <v>54.47999999999999</v>
+      </c>
+      <c r="H253" t="n">
         <v>54.52299999999998</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="L253" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9696,18 +10641,27 @@
         <v>5252.7516</v>
       </c>
       <c r="G254" t="n">
+        <v>54.47799999999999</v>
+      </c>
+      <c r="H254" t="n">
         <v>54.52316666666665</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="L254" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9731,18 +10685,27 @@
         <v>50</v>
       </c>
       <c r="G255" t="n">
+        <v>54.47799999999999</v>
+      </c>
+      <c r="H255" t="n">
         <v>54.52333333333332</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="L255" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9766,18 +10729,27 @@
         <v>613.61</v>
       </c>
       <c r="G256" t="n">
+        <v>54.47599999999999</v>
+      </c>
+      <c r="H256" t="n">
         <v>54.52433333333332</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="L256" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9801,18 +10773,27 @@
         <v>1662.6526</v>
       </c>
       <c r="G257" t="n">
+        <v>54.47666666666667</v>
+      </c>
+      <c r="H257" t="n">
         <v>54.52533333333331</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="L257" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9836,18 +10817,27 @@
         <v>783</v>
       </c>
       <c r="G258" t="n">
+        <v>54.48733333333333</v>
+      </c>
+      <c r="H258" t="n">
         <v>54.52716666666664</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="L258" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9871,18 +10861,27 @@
         <v>163.8456</v>
       </c>
       <c r="G259" t="n">
+        <v>54.50533333333333</v>
+      </c>
+      <c r="H259" t="n">
         <v>54.52883333333331</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="L259" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9906,18 +10905,27 @@
         <v>672</v>
       </c>
       <c r="G260" t="n">
+        <v>54.514</v>
+      </c>
+      <c r="H260" t="n">
         <v>54.5303333333333</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="L260" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9941,18 +10949,27 @@
         <v>784</v>
       </c>
       <c r="G261" t="n">
+        <v>54.508</v>
+      </c>
+      <c r="H261" t="n">
         <v>54.53216666666663</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="L261" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9976,18 +10993,27 @@
         <v>3666.3844</v>
       </c>
       <c r="G262" t="n">
+        <v>54.508</v>
+      </c>
+      <c r="H262" t="n">
         <v>54.53583333333329</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="L262" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10011,18 +11037,27 @@
         <v>4105.662</v>
       </c>
       <c r="G263" t="n">
+        <v>54.502</v>
+      </c>
+      <c r="H263" t="n">
         <v>54.53733333333329</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="L263" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10046,18 +11081,467 @@
         <v>21025.655</v>
       </c>
       <c r="G264" t="n">
+        <v>54.49066666666666</v>
+      </c>
+      <c r="H264" t="n">
         <v>54.53749999999995</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="L264" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>54.52</v>
+      </c>
+      <c r="C265" t="n">
+        <v>54.52</v>
+      </c>
+      <c r="D265" t="n">
+        <v>54.52</v>
+      </c>
+      <c r="E265" t="n">
+        <v>54.52</v>
+      </c>
+      <c r="F265" t="n">
+        <v>672</v>
+      </c>
+      <c r="G265" t="n">
+        <v>54.48799999999999</v>
+      </c>
+      <c r="H265" t="n">
+        <v>54.53983333333328</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>54.48</v>
+      </c>
+      <c r="C266" t="n">
+        <v>54.48</v>
+      </c>
+      <c r="D266" t="n">
+        <v>54.48</v>
+      </c>
+      <c r="E266" t="n">
+        <v>54.48</v>
+      </c>
+      <c r="F266" t="n">
+        <v>632.999</v>
+      </c>
+      <c r="G266" t="n">
+        <v>54.48333333333333</v>
+      </c>
+      <c r="H266" t="n">
+        <v>54.54266666666662</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="C267" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="D267" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="E267" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="F267" t="n">
+        <v>10</v>
+      </c>
+      <c r="G267" t="n">
+        <v>54.48800000000001</v>
+      </c>
+      <c r="H267" t="n">
+        <v>54.54766666666662</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>54.51</v>
+      </c>
+      <c r="C268" t="n">
+        <v>54.51</v>
+      </c>
+      <c r="D268" t="n">
+        <v>54.51</v>
+      </c>
+      <c r="E268" t="n">
+        <v>54.51</v>
+      </c>
+      <c r="F268" t="n">
+        <v>729</v>
+      </c>
+      <c r="G268" t="n">
+        <v>54.49266666666667</v>
+      </c>
+      <c r="H268" t="n">
+        <v>54.54783333333329</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>54.51</v>
+      </c>
+      <c r="C269" t="n">
+        <v>54.51</v>
+      </c>
+      <c r="D269" t="n">
+        <v>54.51</v>
+      </c>
+      <c r="E269" t="n">
+        <v>54.51</v>
+      </c>
+      <c r="F269" t="n">
+        <v>675</v>
+      </c>
+      <c r="G269" t="n">
+        <v>54.49733333333334</v>
+      </c>
+      <c r="H269" t="n">
+        <v>54.54799999999997</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>54.51</v>
+      </c>
+      <c r="C270" t="n">
+        <v>54.51</v>
+      </c>
+      <c r="D270" t="n">
+        <v>54.51</v>
+      </c>
+      <c r="E270" t="n">
+        <v>54.51</v>
+      </c>
+      <c r="F270" t="n">
+        <v>573.5951</v>
+      </c>
+      <c r="G270" t="n">
+        <v>54.502</v>
+      </c>
+      <c r="H270" t="n">
+        <v>54.5498333333333</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="C271" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="D271" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="E271" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="F271" t="n">
+        <v>729</v>
+      </c>
+      <c r="G271" t="n">
+        <v>54.50333333333333</v>
+      </c>
+      <c r="H271" t="n">
+        <v>54.5488333333333</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C272" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D272" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E272" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F272" t="n">
+        <v>5803.525</v>
+      </c>
+      <c r="G272" t="n">
+        <v>54.514</v>
+      </c>
+      <c r="H272" t="n">
+        <v>54.55349999999996</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="C273" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="D273" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="E273" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="F273" t="n">
+        <v>79952.1249</v>
+      </c>
+      <c r="G273" t="n">
+        <v>54.51200000000001</v>
+      </c>
+      <c r="H273" t="n">
+        <v>54.55616666666663</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>54.58</v>
+      </c>
+      <c r="C274" t="n">
+        <v>54.58</v>
+      </c>
+      <c r="D274" t="n">
+        <v>54.58</v>
+      </c>
+      <c r="E274" t="n">
+        <v>54.58</v>
+      </c>
+      <c r="F274" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G274" t="n">
+        <v>54.51066666666667</v>
+      </c>
+      <c r="H274" t="n">
+        <v>54.55566666666662</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest XLM.xlsx
+++ b/BackTest/2020-01-14 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N332"/>
+  <dimension ref="A1:M332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>228720.0296109901</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>228730.0296109901</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>228730.0296109901</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>228720.0296109901</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>228710.0296109901</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>198793.4252109901</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>196877.4252109901</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>187939.1252109901</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>187950.5902109901</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>187950.5902109901</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>190776.8174109901</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>190767.7182109901</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>190767.7182109901</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>190767.7182109901</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>194900.7790647501</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>187465.0947647501</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>187465.0947647501</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>187465.0947647501</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>189082.0947647501</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>190209.4728647501</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>190924.7804647501</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>190924.7804647501</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>190924.7804647501</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>190924.7804647501</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>190924.7804647501</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>143147.2595920101</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>135856.3039920101</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>135173.3039920101</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>134873.3039920101</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>136456.2686920101</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>136424.7686920101</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>-56257.71669617985</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-60576.94159617985</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-49998.12295981986</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>-50370.33855981986</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-36715.94225981986</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-18617.17635981986</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-18617.17635981986</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-18617.17635981986</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>17617.99264018014</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>-61469.01175981986</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>-83127.01175981987</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>-82127.01175981987</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>-82407.01175981987</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3784,15 @@
         <v>-82407.01175981987</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,15 @@
         <v>-85321.40155981987</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>-66052.40155981987</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3883,15 @@
         <v>-66172.40155981987</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,15 @@
         <v>-66262.40155981987</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3949,15 @@
         <v>-70235.77295981988</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,18 +3982,15 @@
         <v>-123259.4165598199</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,15 @@
         <v>-86506.34425981989</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>-100806.3442598199</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4081,15 @@
         <v>-100746.3442598199</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4114,15 @@
         <v>-100564.9877128499</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4147,15 @@
         <v>-110201.0999128499</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4180,15 @@
         <v>-111624.0999128499</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4213,15 @@
         <v>-277500.9610128499</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4246,15 @@
         <v>-276939.9610128499</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4279,15 @@
         <v>-276939.9610128499</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4312,15 @@
         <v>-323129491.5994129</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4345,15 @@
         <v>-323129491.5994129</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4444,15 @@
         <v>-323135519.9988129</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7296,22 +6721,15 @@
         <v>-323316905.8818229</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>53.99</v>
-      </c>
-      <c r="K192" t="n">
-        <v>53.99</v>
-      </c>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7336,26 +6754,15 @@
         <v>-323312381.7769229</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>53.99</v>
-      </c>
-      <c r="K193" t="n">
-        <v>53.99</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7380,26 +6787,19 @@
         <v>-323312381.7769229</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J194" t="n">
         <v>54</v>
       </c>
-      <c r="K194" t="n">
-        <v>53.99</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7424,22 +6824,23 @@
         <v>-323312339.0376229</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J195" t="n">
         <v>54</v>
       </c>
-      <c r="K195" t="n">
-        <v>54</v>
-      </c>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7466,22 +6867,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
         <v>54</v>
       </c>
-      <c r="L196" t="inlineStr">
+      <c r="K196" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7508,22 +6906,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>54</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7550,16 +6939,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7586,16 +6972,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7622,16 +7005,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7658,16 +7038,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7694,16 +7071,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7728,18 +7102,21 @@
         <v>-323392818.5406228</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>54.07</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7764,18 +7141,21 @@
         <v>-323392366.8514228</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>54.01</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7802,16 +7182,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7836,18 +7217,21 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>54.11</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7872,18 +7256,21 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>54.01</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7908,18 +7295,21 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>54.01</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7944,18 +7334,21 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>54.01</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7980,18 +7373,21 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>54.01</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8016,18 +7412,21 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>54.01</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8052,18 +7451,21 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>54.05</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8088,22 +7490,21 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="n">
         <v>54.05</v>
       </c>
-      <c r="K213" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8128,26 +7529,21 @@
         <v>-323396399.1879228</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
         <v>54.05</v>
       </c>
-      <c r="K214" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8172,26 +7568,21 @@
         <v>-323425768.3323228</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
         <v>53.89</v>
       </c>
-      <c r="K215" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8216,26 +7607,21 @@
         <v>-323425768.3323228</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
         <v>53.88</v>
       </c>
-      <c r="K216" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8260,26 +7646,21 @@
         <v>-323425746.3319531</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
         <v>53.88</v>
       </c>
-      <c r="K217" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8304,26 +7685,21 @@
         <v>-323424982.0372531</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
         <v>54.09</v>
       </c>
-      <c r="K218" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8348,26 +7724,21 @@
         <v>-323424982.0372531</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
         <v>54.2</v>
       </c>
-      <c r="K219" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8392,26 +7763,21 @@
         <v>-323424680.0892531</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
         <v>54.2</v>
       </c>
-      <c r="K220" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8436,26 +7802,21 @@
         <v>-323417596.0892531</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="n">
         <v>54.21</v>
       </c>
-      <c r="K221" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8480,26 +7841,19 @@
         <v>-323393891.3999531</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="n">
-        <v>54.36</v>
-      </c>
-      <c r="K222" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8526,22 +7880,17 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8568,22 +7917,17 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8610,22 +7954,17 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8650,26 +7989,19 @@
         <v>-323447247.9681531</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>54.14</v>
-      </c>
-      <c r="K226" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8694,24 +8026,21 @@
         <v>-323447186.7335398</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>54.25</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8738,22 +8067,17 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8780,22 +8104,17 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8822,22 +8141,17 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8862,24 +8176,21 @@
         <v>-323430370.1831397</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>54.22</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8904,24 +8215,21 @@
         <v>-323430370.1831397</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>54.2</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8946,24 +8254,21 @@
         <v>-323430352.4174398</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>54.2</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8988,24 +8293,21 @@
         <v>-323430352.4174398</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>54.33</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9030,24 +8332,21 @@
         <v>-323435339.1060398</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>54.33</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9072,24 +8371,21 @@
         <v>-323434681.5343398</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>54.24</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9116,22 +8412,17 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9158,22 +8449,17 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9200,22 +8486,17 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9242,22 +8523,17 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9284,22 +8560,17 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9326,22 +8597,17 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9368,22 +8634,17 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9410,22 +8671,17 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9452,22 +8708,17 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9494,22 +8745,17 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9536,22 +8782,17 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9578,22 +8819,17 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9620,22 +8856,17 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9662,22 +8893,17 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9704,22 +8930,17 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9746,22 +8967,17 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9788,22 +9004,17 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9830,22 +9041,17 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9872,22 +9078,17 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9914,22 +9115,17 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9956,22 +9152,17 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9998,22 +9189,17 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10040,22 +9226,17 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10082,22 +9263,17 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10124,22 +9300,17 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10166,22 +9337,17 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10208,22 +9374,17 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10250,22 +9411,17 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10292,22 +9448,17 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10334,22 +9485,17 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10376,22 +9522,17 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10418,22 +9559,17 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10460,22 +9596,17 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10502,22 +9633,17 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10544,22 +9670,17 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10586,22 +9707,17 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10628,22 +9744,17 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10670,22 +9781,17 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10712,22 +9818,17 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10754,22 +9855,17 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10796,22 +9892,17 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10838,22 +9929,17 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10880,22 +9966,17 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10922,22 +10003,17 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10964,22 +10040,17 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11006,22 +10077,17 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11048,22 +10114,17 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11090,22 +10151,17 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11132,22 +10188,17 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11174,22 +10225,17 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11216,22 +10262,17 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11258,22 +10299,17 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11300,22 +10336,17 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11342,22 +10373,17 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11384,22 +10410,17 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11426,22 +10447,17 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11468,22 +10484,17 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11510,22 +10521,17 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11552,22 +10558,17 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11594,22 +10595,17 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11636,22 +10632,17 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11678,22 +10669,17 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11720,22 +10706,17 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11762,22 +10743,17 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11804,22 +10780,17 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11846,22 +10817,17 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11888,22 +10854,17 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11930,22 +10891,17 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11972,22 +10928,17 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12014,22 +10965,17 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12056,22 +11002,17 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12098,22 +11039,17 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12140,22 +11076,17 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12182,22 +11113,17 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12224,22 +11150,17 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12266,22 +11187,17 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12308,22 +11224,17 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12350,22 +11261,17 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12392,22 +11298,17 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12434,22 +11335,17 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12476,22 +11372,17 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12518,22 +11409,17 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12560,22 +11446,17 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12602,22 +11483,17 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12644,22 +11520,17 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12686,22 +11557,17 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12728,22 +11594,17 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12770,22 +11631,17 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12812,22 +11668,17 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12854,22 +11705,17 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12896,22 +11742,17 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12938,22 +11779,17 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12980,22 +11816,17 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -13022,22 +11853,17 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -13064,22 +11890,17 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -13106,24 +11927,19 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest XLM.xlsx
+++ b/BackTest/2020-01-14 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>228720.0296109901</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>228730.0296109901</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>228730.0296109901</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>228720.0296109901</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>228710.0296109901</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>229437.7052109901</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>198757.8769109901</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>198793.4252109901</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>196877.4252109901</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>187939.1252109901</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>187950.5902109901</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>187950.5902109901</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>190776.8174109901</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>190767.7182109901</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>190767.7182109901</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>190767.7182109901</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>194900.7790647501</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>187465.0947647501</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>187465.0947647501</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>187465.0947647501</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>189082.0947647501</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>190209.4728647501</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>190924.7804647501</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>190924.7804647501</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>190924.7804647501</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>190924.7804647501</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>190924.7804647501</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>143147.2595920101</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>135856.3039920101</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>135173.3039920101</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>134873.3039920101</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>136456.2686920101</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>136424.7686920101</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>137949.4016920101</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>118376.1526920101</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>118376.1526920101</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>119499.1526920101</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>119499.1526920101</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>119499.1526920101</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>119499.1526920101</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>119499.1526920101</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>119199.1526920101</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>119199.1526920101</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>118899.1526920101</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>120460.1526920101</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>119101.0775920101</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>117886.6358920101</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>117383.6358920101</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>117393.6358920101</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>116443.6358920101</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>130990.1701038201</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-74444.71899617986</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-56257.71669617985</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-60576.94159617985</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-49998.12295981986</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-50370.33855981986</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-36715.94225981986</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-18617.17635981986</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-18617.17635981986</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-18617.17635981986</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>17617.99264018014</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-61469.01175981986</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-83127.01175981987</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-82127.01175981987</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-82407.01175981987</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-82407.01175981987</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-85321.40155981987</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-66052.40155981987</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-66172.40155981987</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-66262.40155981987</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-70235.77295981988</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-123259.4165598199</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-86506.34425981989</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-100806.3442598199</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-100746.3442598199</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-100564.9877128499</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-110201.0999128499</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-111624.0999128499</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-277500.9610128499</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-276939.9610128499</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-276939.9610128499</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-323129491.5994129</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-323129491.5994129</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-323097347.3431128</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-323135519.9988129</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-323347347.3431128</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-323144727.3572296</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -6094,10 +6094,14 @@
         <v>-323299080.2273228</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="J173" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
@@ -6127,11 +6131,19 @@
         <v>-323299080.2273228</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>54.03</v>
+      </c>
+      <c r="J174" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6172,19 @@
         <v>-323293806.5307228</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>54.03</v>
+      </c>
+      <c r="J175" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6213,19 @@
         <v>-323293806.5307228</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="J176" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6254,19 @@
         <v>-323312961.9522228</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>54.04</v>
+      </c>
+      <c r="J177" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6295,19 @@
         <v>-323297936.5452228</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>54.03</v>
+      </c>
+      <c r="J178" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6336,19 @@
         <v>-323310122.3776228</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>54.07</v>
+      </c>
+      <c r="J179" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6377,19 @@
         <v>-323314943.3776228</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>54.03</v>
+      </c>
+      <c r="J180" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6418,19 @@
         <v>-323314943.3776228</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>54.01</v>
+      </c>
+      <c r="J181" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6459,19 @@
         <v>-323316655.4776229</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>54.01</v>
+      </c>
+      <c r="J182" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6500,19 @@
         <v>-323316655.4776229</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>54</v>
+      </c>
+      <c r="J183" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6541,19 @@
         <v>-323316655.4776229</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>54</v>
+      </c>
+      <c r="J184" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6582,19 @@
         <v>-323316655.4776229</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>54</v>
+      </c>
+      <c r="J185" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6623,19 @@
         <v>-323316655.4776229</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>54</v>
+      </c>
+      <c r="J186" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6664,19 @@
         <v>-323316905.8818229</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>54</v>
+      </c>
+      <c r="J187" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6705,19 @@
         <v>-323316905.8818229</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>53.99</v>
+      </c>
+      <c r="J188" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +6746,19 @@
         <v>-323316905.8818229</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>53.99</v>
+      </c>
+      <c r="J189" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6787,19 @@
         <v>-323316905.8818229</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>53.99</v>
+      </c>
+      <c r="J190" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6828,19 @@
         <v>-323316905.8818229</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>53.99</v>
+      </c>
+      <c r="J191" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +6869,19 @@
         <v>-323316905.8818229</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>53.99</v>
+      </c>
+      <c r="J192" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +6910,19 @@
         <v>-323312381.7769229</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>53.99</v>
+      </c>
+      <c r="J193" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,15 +6951,19 @@
         <v>-323312381.7769229</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>54</v>
       </c>
       <c r="J194" t="n">
-        <v>54</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+        <v>54.08</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,17 +6992,17 @@
         <v>-323312339.0376229</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>54</v>
       </c>
       <c r="J195" t="n">
-        <v>54</v>
+        <v>54.08</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L195" t="n">
@@ -6865,15 +7033,17 @@
         <v>-323312339.0376229</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>54.22</v>
+      </c>
       <c r="J196" t="n">
-        <v>54</v>
+        <v>54.08</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L196" t="n">
@@ -6904,11 +7074,19 @@
         <v>-323322958.3172229</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="J197" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6937,11 +7115,19 @@
         <v>-323332979.0383229</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>54.12</v>
+      </c>
+      <c r="J198" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6970,11 +7156,19 @@
         <v>-323332517.0321229</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>54.07</v>
+      </c>
+      <c r="J199" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7003,11 +7197,19 @@
         <v>-323332425.3583229</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>54.11</v>
+      </c>
+      <c r="J200" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7036,11 +7238,19 @@
         <v>-323333317.3583229</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>54.27</v>
+      </c>
+      <c r="J201" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7069,11 +7279,19 @@
         <v>-323335520.9993228</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>54.11</v>
+      </c>
+      <c r="J202" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7102,15 +7320,17 @@
         <v>-323392818.5406228</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>54.07</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7141,12 +7361,14 @@
         <v>-323392366.8514228</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>54.01</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7180,10 +7402,14 @@
         <v>-323392366.8514228</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>54.11</v>
+      </c>
+      <c r="J205" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7217,12 +7443,14 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>54.11</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7256,12 +7484,14 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>54.01</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7295,12 +7525,14 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>54.01</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7334,12 +7566,14 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>54.01</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7373,12 +7607,14 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>54.01</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7412,12 +7648,14 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>54.01</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7451,12 +7689,14 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>54.05</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7490,12 +7730,14 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>54.05</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7529,12 +7771,14 @@
         <v>-323396399.1879228</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>54.05</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7568,12 +7812,14 @@
         <v>-323425768.3323228</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>53.89</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7607,12 +7853,14 @@
         <v>-323425768.3323228</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>53.88</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7646,12 +7894,14 @@
         <v>-323425746.3319531</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>53.88</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7685,12 +7935,14 @@
         <v>-323424982.0372531</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>54.09</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7724,12 +7976,14 @@
         <v>-323424982.0372531</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>54.2</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7763,12 +8017,14 @@
         <v>-323424680.0892531</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>54.2</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7802,12 +8058,14 @@
         <v>-323417596.0892531</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>54.21</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7841,10 +8099,14 @@
         <v>-323393891.3999531</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>54.36</v>
+      </c>
+      <c r="J222" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7881,7 +8143,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7918,7 +8182,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7952,10 +8218,14 @@
         <v>-323448181.548153</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>54.36</v>
+      </c>
+      <c r="J225" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7989,10 +8259,14 @@
         <v>-323447247.9681531</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="J226" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8026,12 +8300,14 @@
         <v>-323447186.7335398</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>54.25</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8068,7 +8344,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8105,7 +8383,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8142,7 +8422,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8176,12 +8458,14 @@
         <v>-323430370.1831397</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>54.22</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8215,12 +8499,14 @@
         <v>-323430370.1831397</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>54.2</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8254,12 +8540,14 @@
         <v>-323430352.4174398</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>54.2</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8293,12 +8581,14 @@
         <v>-323430352.4174398</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>54.33</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8332,12 +8622,14 @@
         <v>-323435339.1060398</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>54.33</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8371,12 +8663,14 @@
         <v>-323434681.5343398</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>54.24</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8413,7 +8707,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8450,7 +8746,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8487,7 +8785,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8524,7 +8824,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8561,7 +8863,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8598,7 +8902,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8635,7 +8941,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8672,7 +8980,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8709,7 +9019,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8746,7 +9058,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8783,7 +9097,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8820,7 +9136,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8857,7 +9175,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8894,7 +9214,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8931,7 +9253,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8968,7 +9292,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9005,7 +9331,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9042,7 +9370,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9079,7 +9409,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9116,7 +9448,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9150,10 +9484,14 @@
         <v>-323346877.9362398</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="J257" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9190,7 +9528,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9224,10 +9564,14 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="J259" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9261,10 +9605,14 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="J260" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9298,10 +9646,14 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="J261" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9335,10 +9687,14 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="J262" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9372,10 +9728,14 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="J263" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9412,7 +9772,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9446,10 +9808,14 @@
         <v>-323347887.9362398</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>54.31</v>
+      </c>
+      <c r="J265" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9483,10 +9849,14 @@
         <v>-323347048.8889399</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>54.31</v>
+      </c>
+      <c r="J266" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9523,7 +9893,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9560,7 +9932,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9597,7 +9971,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9634,7 +10010,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9671,7 +10049,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9708,7 +10088,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9745,7 +10127,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9782,7 +10166,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9819,7 +10205,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9856,7 +10244,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9893,7 +10283,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9930,7 +10322,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9967,7 +10361,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10004,7 +10400,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10041,7 +10439,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10078,7 +10478,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10115,7 +10517,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10152,7 +10556,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10189,7 +10595,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10226,7 +10634,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10263,7 +10673,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10300,7 +10712,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10337,7 +10751,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10374,7 +10790,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10411,7 +10829,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10448,7 +10868,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10485,7 +10907,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10522,7 +10946,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10559,7 +10985,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10593,10 +11021,14 @@
         <v>-323596414.8437853</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="J296" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10630,10 +11062,14 @@
         <v>-323596414.8437853</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>54.47</v>
+      </c>
+      <c r="J297" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10667,10 +11103,14 @@
         <v>-323597022.8437853</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>54.47</v>
+      </c>
+      <c r="J298" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10704,10 +11144,14 @@
         <v>-323596426.9497854</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>54.44</v>
+      </c>
+      <c r="J299" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10744,7 +11188,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10781,7 +11227,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10815,10 +11263,14 @@
         <v>-323622864.4931853</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>54.33</v>
+      </c>
+      <c r="J302" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10852,10 +11304,14 @@
         <v>-323564671.5828853</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>54.33</v>
+      </c>
+      <c r="J303" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10889,10 +11345,14 @@
         <v>-323564305.1482939</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>54.34</v>
+      </c>
+      <c r="J304" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10929,7 +11389,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10966,7 +11428,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11003,7 +11467,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11040,7 +11506,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11077,7 +11545,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11114,7 +11584,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11151,7 +11623,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11185,10 +11659,14 @@
         <v>-323500876.314256</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>54.44</v>
+      </c>
+      <c r="J312" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11222,10 +11700,14 @@
         <v>-323500876.314256</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>54.44</v>
+      </c>
+      <c r="J313" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11259,10 +11741,14 @@
         <v>-323500876.314256</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>54.44</v>
+      </c>
+      <c r="J314" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11296,10 +11782,14 @@
         <v>-323500876.314256</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>54.44</v>
+      </c>
+      <c r="J315" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11333,10 +11823,14 @@
         <v>-323500093.314256</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>54.44</v>
+      </c>
+      <c r="J316" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11373,7 +11867,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11410,7 +11906,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11447,7 +11945,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11484,7 +11984,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11521,7 +12023,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11558,7 +12062,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11595,7 +12101,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11629,10 +12137,14 @@
         <v>-323521243.400256</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>54.52</v>
+      </c>
+      <c r="J324" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11666,10 +12178,14 @@
         <v>-323521233.400256</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>54.48</v>
+      </c>
+      <c r="J325" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11706,7 +12222,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11743,7 +12261,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11780,7 +12300,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11817,7 +12339,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11854,7 +12378,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11891,7 +12417,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11928,7 +12456,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>54.08</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11940,6 +12470,6 @@
       <c r="M332" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest XLM.xlsx
+++ b/BackTest/2020-01-14 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,7 +781,7 @@
         <v>229437.7052109901</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>198757.8769109901</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>198793.4252109901</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>196877.4252109901</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>187939.1252109901</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>187950.5902109901</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>187950.5902109901</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>190776.8174109901</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>190767.7182109901</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>190767.7182109901</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>190767.7182109901</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>194900.7790647501</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>187465.0947647501</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>187465.0947647501</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>187465.0947647501</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>189082.0947647501</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>190209.4728647501</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>190924.7804647501</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>190924.7804647501</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>190924.7804647501</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>190924.7804647501</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>134873.3039920101</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>136456.2686920101</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>136424.7686920101</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>137949.4016920101</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>118376.1526920101</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>118376.1526920101</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>119499.1526920101</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>119499.1526920101</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>119499.1526920101</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>119499.1526920101</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>119499.1526920101</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>119199.1526920101</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>119199.1526920101</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>118899.1526920101</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>120460.1526920101</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>119101.0775920101</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>117886.6358920101</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>117383.6358920101</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>117393.6358920101</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>116443.6358920101</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>130990.1701038201</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-74444.71899617986</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-55951.71669617985</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-56257.71669617985</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-60576.94159617985</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-49998.12295981986</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-50370.33855981986</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-36715.94225981986</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-18617.17635981986</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-18617.17635981986</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-18617.17635981986</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>17617.99264018014</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-61469.01175981986</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-83127.01175981987</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-82127.01175981987</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-100806.3442598199</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-100746.3442598199</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-100564.9877128499</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-110201.0999128499</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-276939.9610128499</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-276939.9610128499</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-323129491.5994129</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-323129491.5994129</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-323097347.3431128</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-323135519.9988129</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-323347347.3431128</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-323144727.3572296</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -6094,14 +6094,10 @@
         <v>-323299080.2273228</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="J173" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
@@ -6136,9 +6132,7 @@
       <c r="I174" t="n">
         <v>54.03</v>
       </c>
-      <c r="J174" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -6177,9 +6171,7 @@
       <c r="I175" t="n">
         <v>54.03</v>
       </c>
-      <c r="J175" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6218,9 +6210,7 @@
       <c r="I176" t="n">
         <v>54.04</v>
       </c>
-      <c r="J176" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6259,9 +6249,7 @@
       <c r="I177" t="n">
         <v>54.04</v>
       </c>
-      <c r="J177" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6300,9 +6288,7 @@
       <c r="I178" t="n">
         <v>54.03</v>
       </c>
-      <c r="J178" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6341,9 +6327,7 @@
       <c r="I179" t="n">
         <v>54.07</v>
       </c>
-      <c r="J179" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6382,9 +6366,7 @@
       <c r="I180" t="n">
         <v>54.03</v>
       </c>
-      <c r="J180" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6423,9 +6405,7 @@
       <c r="I181" t="n">
         <v>54.01</v>
       </c>
-      <c r="J181" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6464,9 +6444,7 @@
       <c r="I182" t="n">
         <v>54.01</v>
       </c>
-      <c r="J182" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6505,9 +6483,7 @@
       <c r="I183" t="n">
         <v>54</v>
       </c>
-      <c r="J183" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6546,9 +6522,7 @@
       <c r="I184" t="n">
         <v>54</v>
       </c>
-      <c r="J184" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6587,9 +6561,7 @@
       <c r="I185" t="n">
         <v>54</v>
       </c>
-      <c r="J185" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6628,9 +6600,7 @@
       <c r="I186" t="n">
         <v>54</v>
       </c>
-      <c r="J186" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6669,9 +6639,7 @@
       <c r="I187" t="n">
         <v>54</v>
       </c>
-      <c r="J187" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6710,9 +6678,7 @@
       <c r="I188" t="n">
         <v>53.99</v>
       </c>
-      <c r="J188" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6751,9 +6717,7 @@
       <c r="I189" t="n">
         <v>53.99</v>
       </c>
-      <c r="J189" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6792,9 +6756,7 @@
       <c r="I190" t="n">
         <v>53.99</v>
       </c>
-      <c r="J190" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6833,9 +6795,7 @@
       <c r="I191" t="n">
         <v>53.99</v>
       </c>
-      <c r="J191" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6874,9 +6834,7 @@
       <c r="I192" t="n">
         <v>53.99</v>
       </c>
-      <c r="J192" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6910,14 +6868,10 @@
         <v>-323312381.7769229</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>53.99</v>
-      </c>
-      <c r="J193" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6951,14 +6905,10 @@
         <v>-323312381.7769229</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>54</v>
-      </c>
-      <c r="J194" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6992,14 +6942,10 @@
         <v>-323312339.0376229</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>54</v>
-      </c>
-      <c r="J195" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7033,14 +6979,10 @@
         <v>-323312339.0376229</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>54.22</v>
-      </c>
-      <c r="J196" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7074,14 +7016,10 @@
         <v>-323322958.3172229</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>54.22</v>
-      </c>
-      <c r="J197" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7115,14 +7053,10 @@
         <v>-323332979.0383229</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>54.12</v>
-      </c>
-      <c r="J198" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7156,14 +7090,10 @@
         <v>-323332517.0321229</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>54.07</v>
-      </c>
-      <c r="J199" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7197,14 +7127,10 @@
         <v>-323332425.3583229</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>54.11</v>
-      </c>
-      <c r="J200" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7238,14 +7164,10 @@
         <v>-323333317.3583229</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>54.27</v>
-      </c>
-      <c r="J201" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7279,14 +7201,10 @@
         <v>-323335520.9993228</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>54.11</v>
-      </c>
-      <c r="J202" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7320,14 +7238,10 @@
         <v>-323392818.5406228</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>54.07</v>
-      </c>
-      <c r="J203" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7361,14 +7275,10 @@
         <v>-323392366.8514228</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>54.01</v>
-      </c>
-      <c r="J204" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7402,14 +7312,10 @@
         <v>-323392366.8514228</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>54.11</v>
-      </c>
-      <c r="J205" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7443,14 +7349,10 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>54.11</v>
-      </c>
-      <c r="J206" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7484,14 +7386,10 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>54.01</v>
-      </c>
-      <c r="J207" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7525,14 +7423,10 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>54.01</v>
-      </c>
-      <c r="J208" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7566,14 +7460,10 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>54.01</v>
-      </c>
-      <c r="J209" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7607,14 +7497,10 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>54.01</v>
-      </c>
-      <c r="J210" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7648,14 +7534,10 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>54.01</v>
-      </c>
-      <c r="J211" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7689,14 +7571,10 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="J212" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7730,14 +7608,10 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="J213" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7771,14 +7645,10 @@
         <v>-323396399.1879228</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>54.05</v>
-      </c>
-      <c r="J214" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7812,14 +7682,10 @@
         <v>-323425768.3323228</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>53.89</v>
-      </c>
-      <c r="J215" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7853,14 +7719,10 @@
         <v>-323425768.3323228</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>53.88</v>
-      </c>
-      <c r="J216" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7894,14 +7756,10 @@
         <v>-323425746.3319531</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>53.88</v>
-      </c>
-      <c r="J217" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7935,14 +7793,10 @@
         <v>-323424982.0372531</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>54.09</v>
-      </c>
-      <c r="J218" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7976,14 +7830,10 @@
         <v>-323424982.0372531</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="J219" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8017,14 +7867,10 @@
         <v>-323424680.0892531</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="J220" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8058,14 +7904,10 @@
         <v>-323417596.0892531</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>54.21</v>
-      </c>
-      <c r="J221" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8099,14 +7941,10 @@
         <v>-323393891.3999531</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>54.36</v>
-      </c>
-      <c r="J222" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8143,9 +7981,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8182,9 +8018,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8218,14 +8052,10 @@
         <v>-323448181.548153</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>54.36</v>
-      </c>
-      <c r="J225" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8259,14 +8089,10 @@
         <v>-323447247.9681531</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>54.14</v>
-      </c>
-      <c r="J226" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8300,14 +8126,10 @@
         <v>-323447186.7335398</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>54.25</v>
-      </c>
-      <c r="J227" t="n">
-        <v>54.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8341,20 +8163,16 @@
         <v>-323457357.2050398</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>54.08</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
@@ -8383,14 +8201,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8422,14 +8234,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8458,19 +8264,11 @@
         <v>-323430370.1831397</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>54.22</v>
-      </c>
-      <c r="J231" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8499,19 +8297,11 @@
         <v>-323430370.1831397</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="J232" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8540,19 +8330,11 @@
         <v>-323430352.4174398</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="J233" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8581,19 +8363,11 @@
         <v>-323430352.4174398</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>54.33</v>
-      </c>
-      <c r="J234" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8622,19 +8396,11 @@
         <v>-323435339.1060398</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>54.33</v>
-      </c>
-      <c r="J235" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8663,19 +8429,11 @@
         <v>-323434681.5343398</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>54.24</v>
-      </c>
-      <c r="J236" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8707,14 +8465,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8746,14 +8498,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8785,14 +8531,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8824,14 +8564,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8863,14 +8597,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8902,14 +8630,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8941,14 +8663,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8980,14 +8696,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9019,14 +8729,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9058,14 +8762,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9097,14 +8795,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9136,14 +8828,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9172,17 +8858,11 @@
         <v>-323343958.8440399</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9211,17 +8891,11 @@
         <v>-323345281.4233398</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9250,17 +8924,11 @@
         <v>-323345281.4233398</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9289,17 +8957,11 @@
         <v>-323346727.6892399</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9328,17 +8990,11 @@
         <v>-323346727.6892399</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9367,17 +9023,11 @@
         <v>-323347077.9362398</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9406,17 +9056,11 @@
         <v>-323347077.9362398</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9445,17 +9089,11 @@
         <v>-323347077.9362398</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9484,19 +9122,11 @@
         <v>-323346877.9362398</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>54.38</v>
-      </c>
-      <c r="J257" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9525,17 +9155,11 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9564,19 +9188,11 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>54.38</v>
-      </c>
-      <c r="J259" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9605,19 +9221,11 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>54.38</v>
-      </c>
-      <c r="J260" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9646,19 +9254,11 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>54.38</v>
-      </c>
-      <c r="J261" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9687,19 +9287,11 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>54.38</v>
-      </c>
-      <c r="J262" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9728,19 +9320,11 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>54.38</v>
-      </c>
-      <c r="J263" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9769,17 +9353,11 @@
         <v>-323347887.9362398</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9808,19 +9386,11 @@
         <v>-323347887.9362398</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>54.31</v>
-      </c>
-      <c r="J265" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9849,19 +9419,11 @@
         <v>-323347048.8889399</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>54.31</v>
-      </c>
-      <c r="J266" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9890,17 +9452,11 @@
         <v>-323347048.8889399</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9929,17 +9485,11 @@
         <v>-323347102.8889399</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9968,17 +9518,11 @@
         <v>-323346848.3479398</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10010,14 +9554,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10049,14 +9587,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10088,14 +9620,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10124,17 +9650,11 @@
         <v>-323398692.8969963</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10163,17 +9683,11 @@
         <v>-323424165.0759963</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10202,17 +9716,11 @@
         <v>-323424165.0759963</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10241,17 +9749,11 @@
         <v>-323422675.0759963</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10280,17 +9782,11 @@
         <v>-323422629.6167416</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10319,17 +9815,11 @@
         <v>-323428862.2757538</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10358,17 +9848,11 @@
         <v>-323430464.2757538</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10397,17 +9881,11 @@
         <v>-323430464.2757538</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10436,17 +9914,11 @@
         <v>-323449264.2757538</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10475,17 +9947,11 @@
         <v>-323446683.3757538</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10514,17 +9980,11 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10553,17 +10013,11 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10592,17 +10046,11 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10631,17 +10079,11 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10673,14 +10115,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10712,14 +10148,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10751,14 +10181,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10790,14 +10214,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10829,14 +10247,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10868,14 +10280,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10907,14 +10313,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10946,14 +10346,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10985,14 +10379,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11021,19 +10409,11 @@
         <v>-323596414.8437853</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>54.46</v>
-      </c>
-      <c r="J296" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11062,19 +10442,11 @@
         <v>-323596414.8437853</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>54.47</v>
-      </c>
-      <c r="J297" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11103,19 +10475,11 @@
         <v>-323597022.8437853</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>54.47</v>
-      </c>
-      <c r="J298" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11144,19 +10508,11 @@
         <v>-323596426.9497854</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>54.44</v>
-      </c>
-      <c r="J299" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11188,14 +10544,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11224,17 +10574,11 @@
         <v>-323622864.4931853</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11263,19 +10607,11 @@
         <v>-323622864.4931853</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>54.33</v>
-      </c>
-      <c r="J302" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11304,19 +10640,11 @@
         <v>-323564671.5828853</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>54.33</v>
-      </c>
-      <c r="J303" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11345,19 +10673,11 @@
         <v>-323564305.1482939</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>54.34</v>
-      </c>
-      <c r="J304" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11386,17 +10706,11 @@
         <v>-323480130.526356</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11425,17 +10739,11 @@
         <v>-323482836.226356</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11464,17 +10772,11 @@
         <v>-323482836.226356</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11503,17 +10805,11 @@
         <v>-323482836.226356</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11542,17 +10838,11 @@
         <v>-323483941.226356</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11584,14 +10874,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11623,14 +10907,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11659,19 +10937,11 @@
         <v>-323500876.314256</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>54.44</v>
-      </c>
-      <c r="J312" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11700,19 +10970,11 @@
         <v>-323500876.314256</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>54.44</v>
-      </c>
-      <c r="J313" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11741,19 +11003,11 @@
         <v>-323500876.314256</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>54.44</v>
-      </c>
-      <c r="J314" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11782,19 +11036,11 @@
         <v>-323500876.314256</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>54.44</v>
-      </c>
-      <c r="J315" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11823,19 +11069,11 @@
         <v>-323500093.314256</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>54.44</v>
-      </c>
-      <c r="J316" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11864,17 +11102,11 @@
         <v>-323499929.468656</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11903,17 +11135,11 @@
         <v>-323500601.468656</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11942,17 +11168,11 @@
         <v>-323499817.468656</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11984,14 +11204,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12020,17 +11234,11 @@
         <v>-323500256.746256</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12062,14 +11270,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12101,14 +11303,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12137,19 +11333,11 @@
         <v>-323521243.400256</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>54.52</v>
-      </c>
-      <c r="J324" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12178,19 +11366,11 @@
         <v>-323521233.400256</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>54.48</v>
-      </c>
-      <c r="J325" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12222,14 +11402,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12261,14 +11435,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12300,14 +11468,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12339,14 +11501,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12378,14 +11534,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12417,14 +11567,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12456,20 +11600,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>54.08</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
       <c r="M332" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest XLM.xlsx
+++ b/BackTest/2020-01-14 BackTest XLM.xlsx
@@ -451,7 +451,7 @@
         <v>228720.0296109901</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>228730.0296109901</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>228730.0296109901</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>228720.0296109901</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>228710.0296109901</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>228720.0296109901</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>228710.0296109901</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>229167.0296109901</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>229147.0296109901</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>229604.0286109901</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>229437.7052109901</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>214417.7052109901</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>198757.8769109901</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -6127,17 +6127,11 @@
         <v>-323299080.2273228</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>54.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6166,17 +6160,11 @@
         <v>-323293806.5307228</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>54.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6205,17 +6193,11 @@
         <v>-323293806.5307228</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>54.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6244,17 +6226,11 @@
         <v>-323312961.9522228</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>54.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6283,17 +6259,11 @@
         <v>-323297936.5452228</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>54.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6322,17 +6292,11 @@
         <v>-323310122.3776228</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>54.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6361,17 +6325,11 @@
         <v>-323314943.3776228</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>54.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6400,17 +6358,11 @@
         <v>-323314943.3776228</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>54.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6439,17 +6391,11 @@
         <v>-323316655.4776229</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>54.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6478,17 +6424,11 @@
         <v>-323316655.4776229</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6522,12 +6462,10 @@
       <c r="I184" t="n">
         <v>54</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="n">
+        <v>54</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6556,15 +6494,15 @@
         <v>-323316655.4776229</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
         <v>54</v>
       </c>
-      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L185" t="n">
@@ -6600,10 +6538,12 @@
       <c r="I186" t="n">
         <v>54</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>54</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L186" t="n">
@@ -6639,12 +6579,10 @@
       <c r="I187" t="n">
         <v>54</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="n">
+        <v>54</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6678,10 +6616,12 @@
       <c r="I188" t="n">
         <v>53.99</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>54</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L188" t="n">
@@ -6717,10 +6657,12 @@
       <c r="I189" t="n">
         <v>53.99</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>54</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L189" t="n">
@@ -6756,12 +6698,10 @@
       <c r="I190" t="n">
         <v>53.99</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="n">
+        <v>53.99</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6795,10 +6735,12 @@
       <c r="I191" t="n">
         <v>53.99</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>53.99</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -6834,10 +6776,12 @@
       <c r="I192" t="n">
         <v>53.99</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>53.99</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L192" t="n">
@@ -6868,15 +6812,15 @@
         <v>-323312381.7769229</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>53.99</v>
+      </c>
+      <c r="J193" t="n">
+        <v>53.99</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6905,13 +6849,17 @@
         <v>-323312381.7769229</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>54</v>
+      </c>
+      <c r="J194" t="n">
+        <v>53.99</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L194" t="n">
@@ -6942,13 +6890,17 @@
         <v>-323312339.0376229</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>54</v>
+      </c>
+      <c r="J195" t="n">
+        <v>53.99</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L195" t="n">
@@ -6979,15 +6931,15 @@
         <v>-323312339.0376229</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="J196" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7016,13 +6968,17 @@
         <v>-323322958.3172229</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="J197" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L197" t="n">
@@ -7053,10 +7009,14 @@
         <v>-323332979.0383229</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>54.12</v>
+      </c>
+      <c r="J198" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7090,10 +7050,14 @@
         <v>-323332517.0321229</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>54.07</v>
+      </c>
+      <c r="J199" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7127,10 +7091,14 @@
         <v>-323332425.3583229</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>54.11</v>
+      </c>
+      <c r="J200" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7167,7 +7135,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7204,7 +7174,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7241,7 +7213,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7278,7 +7252,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7315,7 +7291,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7352,7 +7330,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7389,7 +7369,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7423,10 +7405,14 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>54.01</v>
+      </c>
+      <c r="J208" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7460,10 +7446,14 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>54.01</v>
+      </c>
+      <c r="J209" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7497,10 +7487,14 @@
         <v>-323395153.5953228</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>54.01</v>
+      </c>
+      <c r="J210" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7534,10 +7528,14 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>54.01</v>
+      </c>
+      <c r="J211" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7571,10 +7569,14 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="J212" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7608,10 +7610,14 @@
         <v>-323385404.3015229</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="J213" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7645,10 +7651,14 @@
         <v>-323396399.1879228</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="J214" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7682,10 +7692,14 @@
         <v>-323425768.3323228</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>53.89</v>
+      </c>
+      <c r="J215" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7719,10 +7733,14 @@
         <v>-323425768.3323228</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="J216" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7756,10 +7774,14 @@
         <v>-323425746.3319531</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="J217" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7793,10 +7815,14 @@
         <v>-323424982.0372531</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>54.09</v>
+      </c>
+      <c r="J218" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7830,10 +7856,14 @@
         <v>-323424982.0372531</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="J219" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7867,10 +7897,14 @@
         <v>-323424680.0892531</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="J220" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7907,7 +7941,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7944,7 +7980,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7981,7 +8019,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8018,7 +8058,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8055,7 +8097,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8092,7 +8136,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8129,7 +8175,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8163,16 +8211,20 @@
         <v>-323457357.2050398</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>54.22</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L228" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
       <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
@@ -8201,8 +8253,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8234,8 +8292,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8267,8 +8331,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8300,8 +8370,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8330,11 +8406,17 @@
         <v>-323430352.4174398</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8366,8 +8448,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8399,8 +8487,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8432,8 +8526,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8465,8 +8565,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8498,8 +8604,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8531,8 +8643,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8564,8 +8682,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8597,8 +8721,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8630,8 +8760,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8663,8 +8799,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8696,8 +8838,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8729,8 +8877,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8762,8 +8916,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8795,8 +8955,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8828,8 +8994,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8858,11 +9030,17 @@
         <v>-323343958.8440399</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8891,11 +9069,17 @@
         <v>-323345281.4233398</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8924,11 +9108,17 @@
         <v>-323345281.4233398</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8957,11 +9147,17 @@
         <v>-323346727.6892399</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8990,11 +9186,17 @@
         <v>-323346727.6892399</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9023,11 +9225,17 @@
         <v>-323347077.9362398</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9056,11 +9264,17 @@
         <v>-323347077.9362398</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9089,11 +9303,17 @@
         <v>-323347077.9362398</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9122,11 +9342,17 @@
         <v>-323346877.9362398</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9155,11 +9381,17 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9188,11 +9420,17 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9221,11 +9459,17 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9254,11 +9498,17 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9287,11 +9537,17 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9320,11 +9576,17 @@
         <v>-323346887.9362398</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9353,11 +9615,17 @@
         <v>-323347887.9362398</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9386,11 +9654,17 @@
         <v>-323347887.9362398</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9419,11 +9693,17 @@
         <v>-323347048.8889399</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9452,11 +9732,17 @@
         <v>-323347048.8889399</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9485,11 +9771,17 @@
         <v>-323347102.8889399</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9518,11 +9810,17 @@
         <v>-323346848.3479398</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9554,8 +9852,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9587,8 +9891,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9620,8 +9930,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9650,11 +9966,17 @@
         <v>-323398692.8969963</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9683,11 +10005,17 @@
         <v>-323424165.0759963</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9716,11 +10044,17 @@
         <v>-323424165.0759963</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9749,11 +10083,17 @@
         <v>-323422675.0759963</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9782,11 +10122,17 @@
         <v>-323422629.6167416</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9815,11 +10161,17 @@
         <v>-323428862.2757538</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9848,11 +10200,17 @@
         <v>-323430464.2757538</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9881,11 +10239,17 @@
         <v>-323430464.2757538</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9914,11 +10278,17 @@
         <v>-323449264.2757538</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9947,11 +10317,17 @@
         <v>-323446683.3757538</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9980,11 +10356,17 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10013,11 +10395,17 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10046,11 +10434,17 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10079,11 +10473,17 @@
         <v>-323469940.4905538</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10115,8 +10515,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10148,8 +10554,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10181,8 +10593,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10214,8 +10632,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10247,8 +10671,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10280,8 +10710,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10313,8 +10749,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10346,8 +10788,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10379,8 +10827,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10412,8 +10866,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10445,8 +10905,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10478,8 +10944,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10511,8 +10983,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10544,8 +11022,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10574,11 +11058,17 @@
         <v>-323622864.4931853</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10607,11 +11097,17 @@
         <v>-323622864.4931853</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10640,11 +11136,17 @@
         <v>-323564671.5828853</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10673,11 +11175,17 @@
         <v>-323564305.1482939</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10706,11 +11214,17 @@
         <v>-323480130.526356</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10739,11 +11253,17 @@
         <v>-323482836.226356</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10772,11 +11292,17 @@
         <v>-323482836.226356</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10805,11 +11331,17 @@
         <v>-323482836.226356</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10838,11 +11370,17 @@
         <v>-323483941.226356</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10874,8 +11412,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10907,8 +11451,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10940,8 +11490,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10973,8 +11529,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11006,8 +11568,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11036,11 +11604,17 @@
         <v>-323500876.314256</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11069,11 +11643,17 @@
         <v>-323500093.314256</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11102,11 +11682,17 @@
         <v>-323499929.468656</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11135,11 +11721,17 @@
         <v>-323500601.468656</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11168,11 +11760,17 @@
         <v>-323499817.468656</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11204,8 +11802,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11234,11 +11838,17 @@
         <v>-323500256.746256</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11270,8 +11880,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11303,8 +11919,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11336,8 +11958,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11369,8 +11997,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11402,8 +12036,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11435,8 +12075,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11468,8 +12114,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11501,8 +12153,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11534,8 +12192,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11567,8 +12231,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11600,8 +12270,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
